--- a/inst/extdata/GH-ZA-Efficiency-sample-2019.xlsx
+++ b/inst/extdata/GH-ZA-Efficiency-sample-2019.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/IEATools/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB765B7-AA09-744C-A718-79F667C01826}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574C44D9-6F11-0649-AAA6-F2E425B00E61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28180" yWindow="460" windowWidth="22820" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FU etas" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2155" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2443" uniqueCount="70">
   <si>
     <t>Country</t>
   </si>
@@ -211,6 +211,33 @@
   </si>
   <si>
     <t>Wood furnaces</t>
+  </si>
+  <si>
+    <t>Non-energy use industry/transformation/energy</t>
+  </si>
+  <si>
+    <t>Bitumen</t>
+  </si>
+  <si>
+    <t>Lubricants</t>
+  </si>
+  <si>
+    <t>Other oil products</t>
+  </si>
+  <si>
+    <t>Hard coal (if no detail) [of Coal mines]</t>
+  </si>
+  <si>
+    <t>Other bituminous coal [of Coal mines]</t>
+  </si>
+  <si>
+    <t>Paraffin waxes</t>
+  </si>
+  <si>
+    <t>White spirit &amp; SBP</t>
+  </si>
+  <si>
+    <t>Non-energy</t>
   </si>
 </sst>
 </file>
@@ -591,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K269"/>
+  <dimension ref="A1:K305"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A261" workbookViewId="0">
-      <selection activeCell="L268" sqref="L268"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="F100" sqref="F100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3616,7 +3643,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>12</v>
@@ -3631,27 +3658,25 @@
         <v>15</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="H90" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I90" s="2">
-        <v>3295.5133999999998</v>
-      </c>
-      <c r="J90" s="2">
-        <v>3295.5133999999998</v>
-      </c>
+        <v>5.5890000000000004</v>
+      </c>
+      <c r="J90" s="2"/>
       <c r="K90" s="2">
-        <v>192.65129999999999</v>
+        <v>5.5890000000000004</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>12</v>
@@ -3666,27 +3691,25 @@
         <v>15</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I91" s="3">
-        <v>9.9221857814081202E-2</v>
-      </c>
-      <c r="J91" s="3">
-        <v>9.9221857814081202E-2</v>
-      </c>
+        <v>1.0305607070785999E-3</v>
+      </c>
+      <c r="J91" s="3"/>
       <c r="K91" s="3">
-        <v>3.6707358761916302E-3</v>
+        <v>1.0305607070785999E-3</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="B92" s="5" t="s">
         <v>12</v>
@@ -3701,25 +3724,23 @@
         <v>15</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="H92" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I92" s="7"/>
-      <c r="J92" s="4">
-        <v>0.6</v>
-      </c>
+      <c r="J92" s="4"/>
       <c r="K92" s="4">
-        <v>0.62</v>
+        <v>9.9999999999999995E-7</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>12</v>
@@ -3734,25 +3755,23 @@
         <v>15</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="H93" s="5" t="s">
         <v>21</v>
       </c>
       <c r="I93" s="8"/>
-      <c r="J93" s="6">
-        <v>1</v>
-      </c>
+      <c r="J93" s="6"/>
       <c r="K93" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>12</v>
@@ -3767,27 +3786,27 @@
         <v>15</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="H94" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I94" s="2">
-        <v>5168.6931100000002</v>
+        <v>31.0977</v>
       </c>
       <c r="J94" s="2">
-        <v>1030.4471900000001</v>
+        <v>18.056699999999999</v>
       </c>
       <c r="K94" s="2">
-        <v>5168.6931100000002</v>
+        <v>31.0977</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>12</v>
@@ -3802,27 +3821,27 @@
         <v>15</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I95" s="3">
-        <v>9.8483151849489303E-2</v>
+        <v>6.9266799683738896E-3</v>
       </c>
       <c r="J95" s="3">
-        <v>3.10248729594301E-2</v>
+        <v>6.9266799683738896E-3</v>
       </c>
       <c r="K95" s="3">
-        <v>9.8483151849489303E-2</v>
+        <v>5.7341327071959401E-3</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="B96" s="5" t="s">
         <v>12</v>
@@ -3837,25 +3856,25 @@
         <v>15</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="H96" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I96" s="7"/>
       <c r="J96" s="4">
-        <v>0.87</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="K96" s="4">
-        <v>0.96</v>
+        <v>9.9999999999999995E-7</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="B97" s="5" t="s">
         <v>12</v>
@@ -3870,10 +3889,10 @@
         <v>15</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="H97" s="5" t="s">
         <v>21</v>
@@ -3888,7 +3907,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>12</v>
@@ -3903,27 +3922,25 @@
         <v>15</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="H98" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I98" s="2">
-        <v>4109.3926000000001</v>
-      </c>
-      <c r="J98" s="2">
-        <v>1850.6161999999999</v>
-      </c>
+        <v>31.527699999999999</v>
+      </c>
+      <c r="J98" s="2"/>
       <c r="K98" s="2">
-        <v>4109.3926000000001</v>
+        <v>31.527699999999999</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>12</v>
@@ -3938,27 +3955,25 @@
         <v>15</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="H99" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I99" s="3">
-        <v>7.8299470837603594E-2</v>
-      </c>
-      <c r="J99" s="3">
-        <v>5.5718655996008198E-2</v>
-      </c>
+        <v>5.8134207916553798E-3</v>
+      </c>
+      <c r="J99" s="3"/>
       <c r="K99" s="3">
-        <v>7.8299470837603594E-2</v>
+        <v>5.8134207916553798E-3</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="5" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="B100" s="5" t="s">
         <v>12</v>
@@ -3973,25 +3988,23 @@
         <v>15</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="H100" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I100" s="7"/>
-      <c r="J100" s="4">
-        <v>0.3</v>
-      </c>
+      <c r="J100" s="4"/>
       <c r="K100" s="4">
-        <v>0.31</v>
+        <v>9.9999999999999995E-7</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="B101" s="5" t="s">
         <v>12</v>
@@ -4006,18 +4019,16 @@
         <v>15</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="H101" s="5" t="s">
         <v>21</v>
       </c>
       <c r="I101" s="8"/>
-      <c r="J101" s="6">
-        <v>1</v>
-      </c>
+      <c r="J101" s="6"/>
       <c r="K101" s="6">
         <v>1</v>
       </c>
@@ -4039,7 +4050,7 @@
         <v>15</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>17</v>
@@ -4048,13 +4059,13 @@
         <v>18</v>
       </c>
       <c r="I102" s="2">
-        <v>4029.2543000000001</v>
+        <v>3295.5133999999998</v>
       </c>
       <c r="J102" s="2">
-        <v>2305.6653999999999</v>
+        <v>3295.5133999999998</v>
       </c>
       <c r="K102" s="2">
-        <v>4029.2543000000001</v>
+        <v>192.65129999999999</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
@@ -4074,7 +4085,7 @@
         <v>15</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>17</v>
@@ -4083,13 +4094,13 @@
         <v>19</v>
       </c>
       <c r="I103" s="3">
-        <v>7.6772533137899501E-2</v>
+        <v>9.9221857814081202E-2</v>
       </c>
       <c r="J103" s="3">
-        <v>6.9419351924239397E-2</v>
+        <v>9.9221857814081202E-2</v>
       </c>
       <c r="K103" s="3">
-        <v>7.6772533137899501E-2</v>
+        <v>3.6707358761916302E-3</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
@@ -4109,7 +4120,7 @@
         <v>15</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="G104" s="5" t="s">
         <v>17</v>
@@ -4119,10 +4130,10 @@
       </c>
       <c r="I104" s="7"/>
       <c r="J104" s="4">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="K104" s="4">
-        <v>0.31</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
@@ -4142,7 +4153,7 @@
         <v>15</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="G105" s="5" t="s">
         <v>17</v>
@@ -4175,7 +4186,7 @@
         <v>15</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>17</v>
@@ -4184,13 +4195,13 @@
         <v>18</v>
       </c>
       <c r="I106" s="2">
-        <v>2496.8186000000001</v>
+        <v>5168.6931100000002</v>
       </c>
       <c r="J106" s="2">
-        <v>1190.7137</v>
+        <v>1030.4471900000001</v>
       </c>
       <c r="K106" s="2">
-        <v>2496.8186000000001</v>
+        <v>5168.6931100000002</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
@@ -4210,7 +4221,7 @@
         <v>15</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>17</v>
@@ -4219,13 +4230,13 @@
         <v>19</v>
       </c>
       <c r="I107" s="3">
-        <v>4.75738373494628E-2</v>
+        <v>9.8483151849489303E-2</v>
       </c>
       <c r="J107" s="3">
-        <v>3.58502033214851E-2</v>
+        <v>3.10248729594301E-2</v>
       </c>
       <c r="K107" s="3">
-        <v>4.75738373494628E-2</v>
+        <v>9.8483151849489303E-2</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
@@ -4245,7 +4256,7 @@
         <v>15</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="G108" s="5" t="s">
         <v>17</v>
@@ -4255,10 +4266,10 @@
       </c>
       <c r="I108" s="7"/>
       <c r="J108" s="4">
-        <v>0.3</v>
+        <v>0.87</v>
       </c>
       <c r="K108" s="4">
-        <v>0.31</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
@@ -4278,7 +4289,7 @@
         <v>15</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="G109" s="5" t="s">
         <v>17</v>
@@ -4311,7 +4322,7 @@
         <v>15</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>17</v>
@@ -4320,13 +4331,13 @@
         <v>18</v>
       </c>
       <c r="I110" s="2">
-        <v>1673.8107</v>
+        <v>4109.3926000000001</v>
       </c>
       <c r="J110" s="2">
-        <v>711.53150000000005</v>
+        <v>1850.6161999999999</v>
       </c>
       <c r="K110" s="2">
-        <v>1673.8107</v>
+        <v>4109.3926000000001</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
@@ -4346,7 +4357,7 @@
         <v>15</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>17</v>
@@ -4355,13 +4366,13 @@
         <v>19</v>
       </c>
       <c r="I111" s="3">
-        <v>3.1892424221603703E-2</v>
+        <v>7.8299470837603594E-2</v>
       </c>
       <c r="J111" s="3">
-        <v>2.1422907072154499E-2</v>
+        <v>5.5718655996008198E-2</v>
       </c>
       <c r="K111" s="3">
-        <v>3.1892424221603703E-2</v>
+        <v>7.8299470837603594E-2</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
@@ -4381,7 +4392,7 @@
         <v>15</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G112" s="5" t="s">
         <v>17</v>
@@ -4414,7 +4425,7 @@
         <v>15</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G113" s="5" t="s">
         <v>17</v>
@@ -4447,7 +4458,7 @@
         <v>15</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>17</v>
@@ -4456,13 +4467,13 @@
         <v>18</v>
       </c>
       <c r="I114" s="2">
-        <v>1672.8117</v>
+        <v>4029.2543000000001</v>
       </c>
       <c r="J114" s="2">
-        <v>711.53150000000005</v>
+        <v>2305.6653999999999</v>
       </c>
       <c r="K114" s="2">
-        <v>1672.8117</v>
+        <v>4029.2543000000001</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
@@ -4482,7 +4493,7 @@
         <v>15</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>17</v>
@@ -4491,13 +4502,13 @@
         <v>19</v>
       </c>
       <c r="I115" s="3">
-        <v>3.1873389493364997E-2</v>
+        <v>7.6772533137899501E-2</v>
       </c>
       <c r="J115" s="3">
-        <v>2.1422907072154499E-2</v>
+        <v>6.9419351924239397E-2</v>
       </c>
       <c r="K115" s="3">
-        <v>3.1873389493364997E-2</v>
+        <v>7.6772533137899501E-2</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
@@ -4517,7 +4528,7 @@
         <v>15</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="G116" s="5" t="s">
         <v>17</v>
@@ -4550,7 +4561,7 @@
         <v>15</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="G117" s="5" t="s">
         <v>17</v>
@@ -4583,7 +4594,7 @@
         <v>15</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>17</v>
@@ -4592,13 +4603,13 @@
         <v>18</v>
       </c>
       <c r="I118" s="2">
-        <v>739.81083000000001</v>
+        <v>2496.8186000000001</v>
       </c>
       <c r="J118" s="2">
-        <v>208.63283999999999</v>
+        <v>1190.7137</v>
       </c>
       <c r="K118" s="2">
-        <v>739.81083000000001</v>
+        <v>2496.8186000000001</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.2">
@@ -4618,7 +4629,7 @@
         <v>15</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>17</v>
@@ -4627,13 +4638,13 @@
         <v>19</v>
       </c>
       <c r="I119" s="3">
-        <v>1.40961942913238E-2</v>
+        <v>4.75738373494628E-2</v>
       </c>
       <c r="J119" s="3">
-        <v>6.2815517563448399E-3</v>
+        <v>3.58502033214851E-2</v>
       </c>
       <c r="K119" s="3">
-        <v>1.40961942913238E-2</v>
+        <v>4.75738373494628E-2</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.2">
@@ -4653,7 +4664,7 @@
         <v>15</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="G120" s="5" t="s">
         <v>17</v>
@@ -4663,10 +4674,10 @@
       </c>
       <c r="I120" s="7"/>
       <c r="J120" s="4">
-        <v>0.12</v>
+        <v>0.3</v>
       </c>
       <c r="K120" s="4">
-        <v>0.12</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.2">
@@ -4686,7 +4697,7 @@
         <v>15</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="G121" s="5" t="s">
         <v>17</v>
@@ -4719,7 +4730,7 @@
         <v>15</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>17</v>
@@ -4728,13 +4739,13 @@
         <v>18</v>
       </c>
       <c r="I122" s="2">
-        <v>614.11339999999996</v>
+        <v>1673.8107</v>
       </c>
       <c r="J122" s="2">
-        <v>171.50569999999999</v>
+        <v>711.53150000000005</v>
       </c>
       <c r="K122" s="2">
-        <v>614.11339999999996</v>
+        <v>1673.8107</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
@@ -4754,7 +4765,7 @@
         <v>15</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>17</v>
@@ -4763,13 +4774,13 @@
         <v>19</v>
       </c>
       <c r="I123" s="3">
-        <v>1.170118285955E-2</v>
+        <v>3.1892424221603703E-2</v>
       </c>
       <c r="J123" s="3">
-        <v>5.1637217374702398E-3</v>
+        <v>2.1422907072154499E-2</v>
       </c>
       <c r="K123" s="3">
-        <v>1.170118285955E-2</v>
+        <v>3.1892424221603703E-2</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
@@ -4789,7 +4800,7 @@
         <v>15</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="G124" s="5" t="s">
         <v>17</v>
@@ -4822,7 +4833,7 @@
         <v>15</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="G125" s="5" t="s">
         <v>17</v>
@@ -4855,7 +4866,7 @@
         <v>15</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>17</v>
@@ -4864,11 +4875,13 @@
         <v>18</v>
       </c>
       <c r="I126" s="2">
-        <v>518.56809999999996</v>
-      </c>
-      <c r="J126" s="2"/>
+        <v>1672.8117</v>
+      </c>
+      <c r="J126" s="2">
+        <v>711.53150000000005</v>
+      </c>
       <c r="K126" s="2">
-        <v>518.56809999999996</v>
+        <v>1672.8117</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
@@ -4888,7 +4901,7 @@
         <v>15</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>17</v>
@@ -4897,11 +4910,13 @@
         <v>19</v>
       </c>
       <c r="I127" s="3">
-        <v>9.8806835402539799E-3</v>
-      </c>
-      <c r="J127" s="3"/>
+        <v>3.1873389493364997E-2</v>
+      </c>
+      <c r="J127" s="3">
+        <v>2.1422907072154499E-2</v>
+      </c>
       <c r="K127" s="3">
-        <v>9.8806835402539799E-3</v>
+        <v>3.1873389493364997E-2</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
@@ -4921,7 +4936,7 @@
         <v>15</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G128" s="5" t="s">
         <v>17</v>
@@ -4930,7 +4945,9 @@
         <v>20</v>
       </c>
       <c r="I128" s="7"/>
-      <c r="J128" s="4"/>
+      <c r="J128" s="4">
+        <v>0.3</v>
+      </c>
       <c r="K128" s="4">
         <v>0.31</v>
       </c>
@@ -4952,7 +4969,7 @@
         <v>15</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G129" s="5" t="s">
         <v>17</v>
@@ -4961,7 +4978,9 @@
         <v>21</v>
       </c>
       <c r="I129" s="8"/>
-      <c r="J129" s="6"/>
+      <c r="J129" s="6">
+        <v>1</v>
+      </c>
       <c r="K129" s="6">
         <v>1</v>
       </c>
@@ -4983,7 +5002,7 @@
         <v>15</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>17</v>
@@ -4992,13 +5011,13 @@
         <v>18</v>
       </c>
       <c r="I130" s="2">
-        <v>162.08090000000001</v>
+        <v>739.81083000000001</v>
       </c>
       <c r="J130" s="2">
-        <v>51.762700000000002</v>
+        <v>208.63283999999999</v>
       </c>
       <c r="K130" s="2">
-        <v>162.08090000000001</v>
+        <v>739.81083000000001</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.2">
@@ -5018,7 +5037,7 @@
         <v>15</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>17</v>
@@ -5027,13 +5046,13 @@
         <v>19</v>
       </c>
       <c r="I131" s="3">
-        <v>3.0882541383080702E-3</v>
+        <v>1.40961942913238E-2</v>
       </c>
       <c r="J131" s="3">
-        <v>1.5584798591542499E-3</v>
+        <v>6.2815517563448399E-3</v>
       </c>
       <c r="K131" s="3">
-        <v>3.0882541383080702E-3</v>
+        <v>1.40961942913238E-2</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.2">
@@ -5053,7 +5072,7 @@
         <v>15</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="G132" s="5" t="s">
         <v>17</v>
@@ -5063,10 +5082,10 @@
       </c>
       <c r="I132" s="7"/>
       <c r="J132" s="4">
-        <v>0.45</v>
+        <v>0.12</v>
       </c>
       <c r="K132" s="4">
-        <v>0.5</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.2">
@@ -5086,7 +5105,7 @@
         <v>15</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="G133" s="5" t="s">
         <v>17</v>
@@ -5119,7 +5138,7 @@
         <v>15</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>17</v>
@@ -5128,11 +5147,13 @@
         <v>18</v>
       </c>
       <c r="I134" s="2">
-        <v>102.61539999999999</v>
-      </c>
-      <c r="J134" s="2"/>
+        <v>614.11339999999996</v>
+      </c>
+      <c r="J134" s="2">
+        <v>171.50569999999999</v>
+      </c>
       <c r="K134" s="2">
-        <v>102.61539999999999</v>
+        <v>614.11339999999996</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.2">
@@ -5152,7 +5173,7 @@
         <v>15</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>17</v>
@@ -5161,11 +5182,13 @@
         <v>19</v>
       </c>
       <c r="I135" s="3">
-        <v>1.9552114635601001E-3</v>
-      </c>
-      <c r="J135" s="3"/>
+        <v>1.170118285955E-2</v>
+      </c>
+      <c r="J135" s="3">
+        <v>5.1637217374702398E-3</v>
+      </c>
       <c r="K135" s="3">
-        <v>1.9552114635601001E-3</v>
+        <v>1.170118285955E-2</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.2">
@@ -5185,7 +5208,7 @@
         <v>15</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G136" s="5" t="s">
         <v>17</v>
@@ -5194,7 +5217,9 @@
         <v>20</v>
       </c>
       <c r="I136" s="7"/>
-      <c r="J136" s="4"/>
+      <c r="J136" s="4">
+        <v>0.3</v>
+      </c>
       <c r="K136" s="4">
         <v>0.31</v>
       </c>
@@ -5216,7 +5241,7 @@
         <v>15</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G137" s="5" t="s">
         <v>17</v>
@@ -5225,7 +5250,9 @@
         <v>21</v>
       </c>
       <c r="I137" s="8"/>
-      <c r="J137" s="6"/>
+      <c r="J137" s="6">
+        <v>1</v>
+      </c>
       <c r="K137" s="6">
         <v>1</v>
       </c>
@@ -5247,7 +5274,7 @@
         <v>15</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>17</v>
@@ -5256,11 +5283,11 @@
         <v>18</v>
       </c>
       <c r="I138" s="2">
-        <v>33.663899999999998</v>
+        <v>518.56809999999996</v>
       </c>
       <c r="J138" s="2"/>
       <c r="K138" s="2">
-        <v>33.663899999999998</v>
+        <v>518.56809999999996</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.2">
@@ -5280,7 +5307,7 @@
         <v>15</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>17</v>
@@ -5289,11 +5316,11 @@
         <v>19</v>
       </c>
       <c r="I139" s="3">
-        <v>6.41424612564398E-4</v>
+        <v>9.8806835402539799E-3</v>
       </c>
       <c r="J139" s="3"/>
       <c r="K139" s="3">
-        <v>6.41424612564398E-4</v>
+        <v>9.8806835402539799E-3</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.2">
@@ -5313,7 +5340,7 @@
         <v>15</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G140" s="5" t="s">
         <v>17</v>
@@ -5344,7 +5371,7 @@
         <v>15</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G141" s="5" t="s">
         <v>17</v>
@@ -5375,22 +5402,22 @@
         <v>15</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="H142" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I142" s="2">
-        <v>6263.6178600000003</v>
+        <v>162.08090000000001</v>
       </c>
       <c r="J142" s="2">
-        <v>1413.92948</v>
+        <v>51.762700000000002</v>
       </c>
       <c r="K142" s="2">
-        <v>6263.6178600000003</v>
+        <v>162.08090000000001</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.2">
@@ -5410,22 +5437,22 @@
         <v>15</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="H143" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I143" s="3">
-        <v>0.11934560936498601</v>
+        <v>3.0882541383080702E-3</v>
       </c>
       <c r="J143" s="3">
-        <v>4.25708206265214E-2</v>
+        <v>1.5584798591542499E-3</v>
       </c>
       <c r="K143" s="3">
-        <v>0.11934560936498601</v>
+        <v>3.0882541383080702E-3</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.2">
@@ -5445,20 +5472,20 @@
         <v>15</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G144" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="H144" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I144" s="7"/>
       <c r="J144" s="4">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="K144" s="4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
@@ -5478,20 +5505,20 @@
         <v>15</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G145" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="H145" s="5" t="s">
         <v>21</v>
       </c>
       <c r="I145" s="8"/>
       <c r="J145" s="6">
-        <v>0.12612005856515374</v>
+        <v>1</v>
       </c>
       <c r="K145" s="6">
-        <v>0.18301610541727673</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.2">
@@ -5511,20 +5538,20 @@
         <v>15</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="H146" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I146" s="2">
-        <v>149.78620000000001</v>
+        <v>102.61539999999999</v>
       </c>
       <c r="J146" s="2"/>
       <c r="K146" s="2">
-        <v>149.78620000000001</v>
+        <v>102.61539999999999</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.2">
@@ -5544,20 +5571,20 @@
         <v>15</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="H147" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I147" s="3">
-        <v>2.8539936044989899E-3</v>
+        <v>1.9552114635601001E-3</v>
       </c>
       <c r="J147" s="3"/>
       <c r="K147" s="3">
-        <v>2.8539936044989899E-3</v>
+        <v>1.9552114635601001E-3</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.2">
@@ -5577,10 +5604,10 @@
         <v>15</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="G148" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="H148" s="5" t="s">
         <v>20</v>
@@ -5588,7 +5615,7 @@
       <c r="I148" s="7"/>
       <c r="J148" s="4"/>
       <c r="K148" s="4">
-        <v>0.2</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.2">
@@ -5608,10 +5635,10 @@
         <v>15</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="G149" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="H149" s="5" t="s">
         <v>21</v>
@@ -5619,7 +5646,7 @@
       <c r="I149" s="8"/>
       <c r="J149" s="6"/>
       <c r="K149" s="6">
-        <v>0.18301610541727673</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.2">
@@ -5639,22 +5666,20 @@
         <v>15</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="H150" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I150" s="2">
-        <v>115.44604</v>
-      </c>
-      <c r="J150" s="2">
-        <v>43.2502</v>
-      </c>
+        <v>33.663899999999998</v>
+      </c>
+      <c r="J150" s="2"/>
       <c r="K150" s="2">
-        <v>115.44604</v>
+        <v>33.663899999999998</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.2">
@@ -5674,22 +5699,20 @@
         <v>15</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="H151" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I151" s="3">
-        <v>2.1996836813053099E-3</v>
-      </c>
-      <c r="J151" s="3">
-        <v>1.3021841133556201E-3</v>
-      </c>
+        <v>6.41424612564398E-4</v>
+      </c>
+      <c r="J151" s="3"/>
       <c r="K151" s="3">
-        <v>2.1996836813053099E-3</v>
+        <v>6.41424612564398E-4</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.2">
@@ -5709,20 +5732,18 @@
         <v>15</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G152" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="H152" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I152" s="7"/>
-      <c r="J152" s="4">
-        <v>0.2</v>
-      </c>
+      <c r="J152" s="4"/>
       <c r="K152" s="4">
-        <v>0.2</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.2">
@@ -5742,20 +5763,18 @@
         <v>15</v>
       </c>
       <c r="F153" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G153" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="H153" s="5" t="s">
         <v>21</v>
       </c>
       <c r="I153" s="8"/>
-      <c r="J153" s="6">
-        <v>0.12612005856515374</v>
-      </c>
+      <c r="J153" s="6"/>
       <c r="K153" s="6">
-        <v>0.18301610541727673</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.2">
@@ -5775,22 +5794,22 @@
         <v>15</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H154" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I154" s="2">
-        <v>7157.4813000000004</v>
+        <v>6263.6178600000003</v>
       </c>
       <c r="J154" s="2">
-        <v>7157.4813000000004</v>
+        <v>1413.92948</v>
       </c>
       <c r="K154" s="2">
-        <v>4612.0276000000003</v>
+        <v>6263.6178600000003</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.2">
@@ -5810,22 +5829,22 @@
         <v>15</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H155" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I155" s="3">
-        <v>0.215498620595973</v>
+        <v>0.11934560936498601</v>
       </c>
       <c r="J155" s="3">
-        <v>0.215498620595973</v>
+        <v>4.25708206265214E-2</v>
       </c>
       <c r="K155" s="3">
-        <v>8.7876568563544602E-2</v>
+        <v>0.11934560936498601</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.2">
@@ -5845,20 +5864,20 @@
         <v>15</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G156" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H156" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I156" s="7"/>
       <c r="J156" s="4">
-        <v>0.85</v>
+        <v>0.2</v>
       </c>
       <c r="K156" s="4">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.2">
@@ -5878,20 +5897,20 @@
         <v>15</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G157" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H157" s="5" t="s">
         <v>21</v>
       </c>
       <c r="I157" s="8"/>
       <c r="J157" s="6">
-        <v>0.658535188684648</v>
+        <v>0.12612005856515374</v>
       </c>
       <c r="K157" s="6">
-        <v>0.658535188684648</v>
+        <v>0.18301610541727673</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.2">
@@ -5911,22 +5930,20 @@
         <v>15</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H158" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I158" s="2">
-        <v>1683.98972</v>
-      </c>
-      <c r="J158" s="2">
-        <v>78.899360000000001</v>
-      </c>
+        <v>149.78620000000001</v>
+      </c>
+      <c r="J158" s="2"/>
       <c r="K158" s="2">
-        <v>1683.98972</v>
+        <v>149.78620000000001</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.2">
@@ -5946,22 +5963,20 @@
         <v>15</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H159" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I159" s="3">
-        <v>3.2086373049867299E-2</v>
-      </c>
-      <c r="J159" s="3">
-        <v>2.3755148680451501E-3</v>
-      </c>
+        <v>2.8539936044989899E-3</v>
+      </c>
+      <c r="J159" s="3"/>
       <c r="K159" s="3">
-        <v>3.2086373049867299E-2</v>
+        <v>2.8539936044989899E-3</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.2">
@@ -5981,20 +5996,18 @@
         <v>15</v>
       </c>
       <c r="F160" s="5" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="G160" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H160" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I160" s="7"/>
-      <c r="J160" s="4">
-        <v>0.9</v>
-      </c>
+      <c r="J160" s="4"/>
       <c r="K160" s="4">
-        <v>0.95</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.2">
@@ -6014,20 +6027,18 @@
         <v>15</v>
       </c>
       <c r="F161" s="5" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="G161" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H161" s="5" t="s">
         <v>21</v>
       </c>
       <c r="I161" s="8"/>
-      <c r="J161" s="6">
-        <v>0.658535188684648</v>
-      </c>
+      <c r="J161" s="6"/>
       <c r="K161" s="6">
-        <v>0.658535188684648</v>
+        <v>0.18301610541727673</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.2">
@@ -6047,20 +6058,22 @@
         <v>15</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H162" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I162" s="2">
-        <v>1052.3454999999999</v>
-      </c>
-      <c r="J162" s="2"/>
+        <v>115.44604</v>
+      </c>
+      <c r="J162" s="2">
+        <v>43.2502</v>
+      </c>
       <c r="K162" s="2">
-        <v>1052.3454999999999</v>
+        <v>115.44604</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.2">
@@ -6080,20 +6093,22 @@
         <v>15</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H163" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I163" s="3">
-        <v>2.0051161767394399E-2</v>
-      </c>
-      <c r="J163" s="3"/>
+        <v>2.1996836813053099E-3</v>
+      </c>
+      <c r="J163" s="3">
+        <v>1.3021841133556201E-3</v>
+      </c>
       <c r="K163" s="3">
-        <v>2.0051161767394399E-2</v>
+        <v>2.1996836813053099E-3</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.2">
@@ -6113,18 +6128,20 @@
         <v>15</v>
       </c>
       <c r="F164" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G164" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H164" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I164" s="7"/>
-      <c r="J164" s="4"/>
+      <c r="J164" s="4">
+        <v>0.2</v>
+      </c>
       <c r="K164" s="4">
-        <v>0.85</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.2">
@@ -6144,18 +6161,20 @@
         <v>15</v>
       </c>
       <c r="F165" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G165" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H165" s="5" t="s">
         <v>21</v>
       </c>
       <c r="I165" s="8"/>
-      <c r="J165" s="6"/>
+      <c r="J165" s="6">
+        <v>0.12612005856515374</v>
+      </c>
       <c r="K165" s="6">
-        <v>0.658535188684648</v>
+        <v>0.18301610541727673</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.2">
@@ -6175,7 +6194,7 @@
         <v>15</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="G166" s="2" t="s">
         <v>32</v>
@@ -6184,12 +6203,14 @@
         <v>18</v>
       </c>
       <c r="I166" s="2">
-        <v>579.93690000000004</v>
+        <v>7157.4813000000004</v>
       </c>
       <c r="J166" s="2">
-        <v>579.93690000000004</v>
-      </c>
-      <c r="K166" s="2"/>
+        <v>7157.4813000000004</v>
+      </c>
+      <c r="K166" s="2">
+        <v>4612.0276000000003</v>
+      </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
@@ -6208,7 +6229,7 @@
         <v>15</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="G167" s="2" t="s">
         <v>32</v>
@@ -6217,12 +6238,14 @@
         <v>19</v>
       </c>
       <c r="I167" s="3">
-        <v>1.74608352777261E-2</v>
+        <v>0.215498620595973</v>
       </c>
       <c r="J167" s="3">
-        <v>1.74608352777261E-2</v>
-      </c>
-      <c r="K167" s="3"/>
+        <v>0.215498620595973</v>
+      </c>
+      <c r="K167" s="3">
+        <v>8.7876568563544602E-2</v>
+      </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" s="5" t="s">
@@ -6241,7 +6264,7 @@
         <v>15</v>
       </c>
       <c r="F168" s="5" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="G168" s="5" t="s">
         <v>32</v>
@@ -6251,9 +6274,11 @@
       </c>
       <c r="I168" s="7"/>
       <c r="J168" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="K168" s="4"/>
+        <v>0.85</v>
+      </c>
+      <c r="K168" s="4">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" s="5" t="s">
@@ -6272,7 +6297,7 @@
         <v>15</v>
       </c>
       <c r="F169" s="5" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="G169" s="5" t="s">
         <v>32</v>
@@ -6284,7 +6309,9 @@
       <c r="J169" s="6">
         <v>0.658535188684648</v>
       </c>
-      <c r="K169" s="6"/>
+      <c r="K169" s="6">
+        <v>0.658535188684648</v>
+      </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
@@ -6303,7 +6330,7 @@
         <v>15</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="G170" s="2" t="s">
         <v>32</v>
@@ -6312,13 +6339,13 @@
         <v>18</v>
       </c>
       <c r="I170" s="2">
-        <v>170.63630000000001</v>
+        <v>1683.98972</v>
       </c>
       <c r="J170" s="2">
-        <v>29.148800000000001</v>
+        <v>78.899360000000001</v>
       </c>
       <c r="K170" s="2">
-        <v>170.63630000000001</v>
+        <v>1683.98972</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.2">
@@ -6338,7 +6365,7 @@
         <v>15</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="G171" s="2" t="s">
         <v>32</v>
@@ -6347,13 +6374,13 @@
         <v>19</v>
       </c>
       <c r="I171" s="3">
-        <v>3.25126686500739E-3</v>
+        <v>3.2086373049867299E-2</v>
       </c>
       <c r="J171" s="3">
-        <v>8.7761684994243697E-4</v>
+        <v>2.3755148680451501E-3</v>
       </c>
       <c r="K171" s="3">
-        <v>3.25126686500739E-3</v>
+        <v>3.2086373049867299E-2</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.2">
@@ -6373,7 +6400,7 @@
         <v>15</v>
       </c>
       <c r="F172" s="5" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="G172" s="5" t="s">
         <v>32</v>
@@ -6383,10 +6410,10 @@
       </c>
       <c r="I172" s="7"/>
       <c r="J172" s="4">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K172" s="4">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.2">
@@ -6406,7 +6433,7 @@
         <v>15</v>
       </c>
       <c r="F173" s="5" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="G173" s="5" t="s">
         <v>32</v>
@@ -6439,22 +6466,20 @@
         <v>15</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H174" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I174" s="2">
-        <v>3459.1066999999998</v>
-      </c>
-      <c r="J174" s="2">
-        <v>2080.0603000000001</v>
-      </c>
+        <v>1052.3454999999999</v>
+      </c>
+      <c r="J174" s="2"/>
       <c r="K174" s="2">
-        <v>3459.1066999999998</v>
+        <v>1052.3454999999999</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.2">
@@ -6474,22 +6499,20 @@
         <v>15</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H175" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I175" s="3">
-        <v>6.5909065047912205E-2</v>
-      </c>
-      <c r="J175" s="3">
-        <v>6.2626796580865104E-2</v>
-      </c>
+        <v>2.0051161767394399E-2</v>
+      </c>
+      <c r="J175" s="3"/>
       <c r="K175" s="3">
-        <v>6.5909065047912205E-2</v>
+        <v>2.0051161767394399E-2</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.2">
@@ -6509,18 +6532,16 @@
         <v>15</v>
       </c>
       <c r="F176" s="5" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="G176" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H176" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I176" s="7"/>
-      <c r="J176" s="4">
-        <v>0.8</v>
-      </c>
+      <c r="J176" s="4"/>
       <c r="K176" s="4">
         <v>0.85</v>
       </c>
@@ -6542,20 +6563,18 @@
         <v>15</v>
       </c>
       <c r="F177" s="5" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="G177" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H177" s="5" t="s">
         <v>21</v>
       </c>
       <c r="I177" s="8"/>
-      <c r="J177" s="6">
-        <v>0.36986156609954601</v>
-      </c>
+      <c r="J177" s="6"/>
       <c r="K177" s="6">
-        <v>0.36986156609954601</v>
+        <v>0.658535188684648</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.2">
@@ -6575,23 +6594,21 @@
         <v>15</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H178" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I178" s="2">
-        <v>1508.4313</v>
+        <v>579.93690000000004</v>
       </c>
       <c r="J178" s="2">
-        <v>764.30690000000004</v>
-      </c>
-      <c r="K178" s="2">
-        <v>1508.4313</v>
-      </c>
+        <v>579.93690000000004</v>
+      </c>
+      <c r="K178" s="2"/>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
@@ -6610,23 +6627,21 @@
         <v>15</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H179" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I179" s="3">
-        <v>2.87413211833005E-2</v>
+        <v>1.74608352777261E-2</v>
       </c>
       <c r="J179" s="3">
-        <v>2.3011877468961699E-2</v>
-      </c>
-      <c r="K179" s="3">
-        <v>2.87413211833005E-2</v>
-      </c>
+        <v>1.74608352777261E-2</v>
+      </c>
+      <c r="K179" s="3"/>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180" s="5" t="s">
@@ -6645,21 +6660,19 @@
         <v>15</v>
       </c>
       <c r="F180" s="5" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="G180" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H180" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I180" s="7"/>
       <c r="J180" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="K180" s="4">
-        <v>0.25</v>
-      </c>
+        <v>0.8</v>
+      </c>
+      <c r="K180" s="4"/>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" s="5" t="s">
@@ -6678,21 +6691,19 @@
         <v>15</v>
       </c>
       <c r="F181" s="5" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="G181" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H181" s="5" t="s">
         <v>21</v>
       </c>
       <c r="I181" s="8"/>
       <c r="J181" s="6">
-        <v>0.36986156609954601</v>
-      </c>
-      <c r="K181" s="6">
-        <v>0.36986156609954601</v>
-      </c>
+        <v>0.658535188684648</v>
+      </c>
+      <c r="K181" s="6"/>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
@@ -6711,22 +6722,22 @@
         <v>15</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H182" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I182" s="2">
-        <v>1233.0180499999999</v>
+        <v>170.63630000000001</v>
       </c>
       <c r="J182" s="2">
-        <v>347.72140000000002</v>
+        <v>29.148800000000001</v>
       </c>
       <c r="K182" s="2">
-        <v>1233.0180499999999</v>
+        <v>170.63630000000001</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.2">
@@ -6746,22 +6757,22 @@
         <v>15</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H183" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I183" s="3">
-        <v>2.3493657152206301E-2</v>
+        <v>3.25126686500739E-3</v>
       </c>
       <c r="J183" s="3">
-        <v>1.04692529272414E-2</v>
+        <v>8.7761684994243697E-4</v>
       </c>
       <c r="K183" s="3">
-        <v>2.3493657152206301E-2</v>
+        <v>3.25126686500739E-3</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.2">
@@ -6781,20 +6792,20 @@
         <v>15</v>
       </c>
       <c r="F184" s="5" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="G184" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H184" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I184" s="7"/>
       <c r="J184" s="4">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="K184" s="4">
-        <v>0.35</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.2">
@@ -6814,20 +6825,20 @@
         <v>15</v>
       </c>
       <c r="F185" s="5" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="G185" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H185" s="5" t="s">
         <v>21</v>
       </c>
       <c r="I185" s="8"/>
       <c r="J185" s="6">
-        <v>0.36986156609954601</v>
+        <v>0.658535188684648</v>
       </c>
       <c r="K185" s="6">
-        <v>0.36986156609954601</v>
+        <v>0.658535188684648</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.2">
@@ -6847,7 +6858,7 @@
         <v>15</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G186" s="2" t="s">
         <v>35</v>
@@ -6856,13 +6867,13 @@
         <v>18</v>
       </c>
       <c r="I186" s="2">
-        <v>559.68759999999997</v>
+        <v>3459.1066999999998</v>
       </c>
       <c r="J186" s="2">
-        <v>559.68759999999997</v>
+        <v>2080.0603000000001</v>
       </c>
       <c r="K186" s="2">
-        <v>5.165</v>
+        <v>3459.1066999999998</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.2">
@@ -6882,7 +6893,7 @@
         <v>15</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G187" s="2" t="s">
         <v>35</v>
@@ -6891,13 +6902,13 @@
         <v>19</v>
       </c>
       <c r="I187" s="3">
-        <v>1.6851166033038899E-2</v>
+        <v>6.5909065047912205E-2</v>
       </c>
       <c r="J187" s="3">
-        <v>1.6851166033038899E-2</v>
+        <v>6.2626796580865104E-2</v>
       </c>
       <c r="K187" s="3">
-        <v>9.8412784136571002E-5</v>
+        <v>6.5909065047912205E-2</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.2">
@@ -6917,7 +6928,7 @@
         <v>15</v>
       </c>
       <c r="F188" s="5" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G188" s="5" t="s">
         <v>35</v>
@@ -6927,10 +6938,10 @@
       </c>
       <c r="I188" s="7"/>
       <c r="J188" s="4">
-        <v>0.14000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="K188" s="4">
-        <v>0.14000000000000001</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.2">
@@ -6950,7 +6961,7 @@
         <v>15</v>
       </c>
       <c r="F189" s="5" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G189" s="5" t="s">
         <v>35</v>
@@ -6983,7 +6994,7 @@
         <v>15</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="G190" s="2" t="s">
         <v>35</v>
@@ -6992,12 +7003,14 @@
         <v>18</v>
       </c>
       <c r="I190" s="2">
-        <v>523.55020000000002</v>
+        <v>1508.4313</v>
       </c>
       <c r="J190" s="2">
-        <v>523.55020000000002</v>
-      </c>
-      <c r="K190" s="2"/>
+        <v>764.30690000000004</v>
+      </c>
+      <c r="K190" s="2">
+        <v>1508.4313</v>
+      </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
@@ -7016,7 +7029,7 @@
         <v>15</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="G191" s="2" t="s">
         <v>35</v>
@@ -7025,12 +7038,14 @@
         <v>19</v>
       </c>
       <c r="I191" s="3">
-        <v>1.5763135268372402E-2</v>
+        <v>2.87413211833005E-2</v>
       </c>
       <c r="J191" s="3">
-        <v>1.5763135268372402E-2</v>
-      </c>
-      <c r="K191" s="3"/>
+        <v>2.3011877468961699E-2</v>
+      </c>
+      <c r="K191" s="3">
+        <v>2.87413211833005E-2</v>
+      </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" s="5" t="s">
@@ -7049,7 +7064,7 @@
         <v>15</v>
       </c>
       <c r="F192" s="5" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="G192" s="5" t="s">
         <v>35</v>
@@ -7059,9 +7074,11 @@
       </c>
       <c r="I192" s="7"/>
       <c r="J192" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="K192" s="4"/>
+        <v>0.2</v>
+      </c>
+      <c r="K192" s="4">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193" s="5" t="s">
@@ -7080,7 +7097,7 @@
         <v>15</v>
       </c>
       <c r="F193" s="5" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="G193" s="5" t="s">
         <v>35</v>
@@ -7092,7 +7109,9 @@
       <c r="J193" s="6">
         <v>0.36986156609954601</v>
       </c>
-      <c r="K193" s="6"/>
+      <c r="K193" s="6">
+        <v>0.36986156609954601</v>
+      </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
@@ -7111,7 +7130,7 @@
         <v>15</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="G194" s="2" t="s">
         <v>35</v>
@@ -7120,13 +7139,13 @@
         <v>18</v>
       </c>
       <c r="I194" s="2">
-        <v>574.6345</v>
+        <v>1233.0180499999999</v>
       </c>
       <c r="J194" s="2">
-        <v>66.057599999999994</v>
+        <v>347.72140000000002</v>
       </c>
       <c r="K194" s="2">
-        <v>574.6345</v>
+        <v>1233.0180499999999</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.2">
@@ -7146,7 +7165,7 @@
         <v>15</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="G195" s="2" t="s">
         <v>35</v>
@@ -7155,13 +7174,13 @@
         <v>19</v>
       </c>
       <c r="I195" s="3">
-        <v>1.09489605045356E-2</v>
+        <v>2.3493657152206301E-2</v>
       </c>
       <c r="J195" s="3">
-        <v>1.9888730522957202E-3</v>
+        <v>1.04692529272414E-2</v>
       </c>
       <c r="K195" s="3">
-        <v>1.09489605045356E-2</v>
+        <v>2.3493657152206301E-2</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.2">
@@ -7181,7 +7200,7 @@
         <v>15</v>
       </c>
       <c r="F196" s="5" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="G196" s="5" t="s">
         <v>35</v>
@@ -7191,10 +7210,10 @@
       </c>
       <c r="I196" s="7"/>
       <c r="J196" s="4">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="K196" s="4">
-        <v>0.45</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.2">
@@ -7214,7 +7233,7 @@
         <v>15</v>
       </c>
       <c r="F197" s="5" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="G197" s="5" t="s">
         <v>35</v>
@@ -7247,7 +7266,7 @@
         <v>15</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G198" s="2" t="s">
         <v>35</v>
@@ -7256,13 +7275,13 @@
         <v>18</v>
       </c>
       <c r="I198" s="2">
-        <v>477.73973000000001</v>
+        <v>559.68759999999997</v>
       </c>
       <c r="J198" s="2">
-        <v>43.155630000000002</v>
+        <v>559.68759999999997</v>
       </c>
       <c r="K198" s="2">
-        <v>477.73973000000001</v>
+        <v>5.165</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.2">
@@ -7282,7 +7301,7 @@
         <v>15</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G199" s="2" t="s">
         <v>35</v>
@@ -7291,13 +7310,13 @@
         <v>19</v>
       </c>
       <c r="I199" s="3">
-        <v>9.1027486780162099E-3</v>
+        <v>1.6851166033038899E-2</v>
       </c>
       <c r="J199" s="3">
-        <v>1.2993367842889399E-3</v>
+        <v>1.6851166033038899E-2</v>
       </c>
       <c r="K199" s="3">
-        <v>9.1027486780162099E-3</v>
+        <v>9.8412784136571002E-5</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.2">
@@ -7317,7 +7336,7 @@
         <v>15</v>
       </c>
       <c r="F200" s="5" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G200" s="5" t="s">
         <v>35</v>
@@ -7327,10 +7346,10 @@
       </c>
       <c r="I200" s="7"/>
       <c r="J200" s="4">
-        <v>0.4</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="K200" s="4">
-        <v>0.45</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.2">
@@ -7350,7 +7369,7 @@
         <v>15</v>
       </c>
       <c r="F201" s="5" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G201" s="5" t="s">
         <v>35</v>
@@ -7383,7 +7402,7 @@
         <v>15</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="G202" s="2" t="s">
         <v>35</v>
@@ -7392,14 +7411,12 @@
         <v>18</v>
       </c>
       <c r="I202" s="2">
-        <v>119.7526</v>
+        <v>523.55020000000002</v>
       </c>
       <c r="J202" s="2">
-        <v>119.7526</v>
-      </c>
-      <c r="K202" s="2">
-        <v>2.6808000000000001</v>
-      </c>
+        <v>523.55020000000002</v>
+      </c>
+      <c r="K202" s="2"/>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
@@ -7418,7 +7435,7 @@
         <v>15</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="G203" s="2" t="s">
         <v>35</v>
@@ -7427,14 +7444,12 @@
         <v>19</v>
       </c>
       <c r="I203" s="3">
-        <v>3.6055309166901101E-3</v>
+        <v>1.5763135268372402E-2</v>
       </c>
       <c r="J203" s="3">
-        <v>3.6055309166901101E-3</v>
-      </c>
-      <c r="K203" s="3">
-        <v>5.1079378840913802E-5</v>
-      </c>
+        <v>1.5763135268372402E-2</v>
+      </c>
+      <c r="K203" s="3"/>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204" s="5" t="s">
@@ -7453,7 +7468,7 @@
         <v>15</v>
       </c>
       <c r="F204" s="5" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="G204" s="5" t="s">
         <v>35</v>
@@ -7463,11 +7478,9 @@
       </c>
       <c r="I204" s="7"/>
       <c r="J204" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="K204" s="4">
-        <v>0.35</v>
-      </c>
+        <v>0.4</v>
+      </c>
+      <c r="K204" s="4"/>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A205" s="5" t="s">
@@ -7486,7 +7499,7 @@
         <v>15</v>
       </c>
       <c r="F205" s="5" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="G205" s="5" t="s">
         <v>35</v>
@@ -7498,9 +7511,7 @@
       <c r="J205" s="6">
         <v>0.36986156609954601</v>
       </c>
-      <c r="K205" s="6">
-        <v>0.36986156609954601</v>
-      </c>
+      <c r="K205" s="6"/>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
@@ -7519,7 +7530,7 @@
         <v>15</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G206" s="2" t="s">
         <v>35</v>
@@ -7528,12 +7539,14 @@
         <v>18</v>
       </c>
       <c r="I206" s="2">
-        <v>76.729799999999997</v>
+        <v>574.6345</v>
       </c>
       <c r="J206" s="2">
-        <v>76.729799999999997</v>
-      </c>
-      <c r="K206" s="2"/>
+        <v>66.057599999999994</v>
+      </c>
+      <c r="K206" s="2">
+        <v>574.6345</v>
+      </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
@@ -7552,7 +7565,7 @@
         <v>15</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G207" s="2" t="s">
         <v>35</v>
@@ -7561,12 +7574,14 @@
         <v>19</v>
       </c>
       <c r="I207" s="3">
-        <v>2.3101933998213699E-3</v>
+        <v>1.09489605045356E-2</v>
       </c>
       <c r="J207" s="3">
-        <v>2.3101933998213699E-3</v>
-      </c>
-      <c r="K207" s="3"/>
+        <v>1.9888730522957202E-3</v>
+      </c>
+      <c r="K207" s="3">
+        <v>1.09489605045356E-2</v>
+      </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A208" s="5" t="s">
@@ -7585,7 +7600,7 @@
         <v>15</v>
       </c>
       <c r="F208" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G208" s="5" t="s">
         <v>35</v>
@@ -7595,9 +7610,11 @@
       </c>
       <c r="I208" s="7"/>
       <c r="J208" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="K208" s="4"/>
+        <v>0.4</v>
+      </c>
+      <c r="K208" s="4">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A209" s="5" t="s">
@@ -7616,7 +7633,7 @@
         <v>15</v>
       </c>
       <c r="F209" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G209" s="5" t="s">
         <v>35</v>
@@ -7628,7 +7645,9 @@
       <c r="J209" s="6">
         <v>0.36986156609954601</v>
       </c>
-      <c r="K209" s="6"/>
+      <c r="K209" s="6">
+        <v>0.36986156609954601</v>
+      </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
@@ -7647,7 +7666,7 @@
         <v>15</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="G210" s="2" t="s">
         <v>35</v>
@@ -7656,11 +7675,13 @@
         <v>18</v>
       </c>
       <c r="I210" s="2">
-        <v>10.989000000000001</v>
-      </c>
-      <c r="J210" s="2"/>
+        <v>477.73973000000001</v>
+      </c>
+      <c r="J210" s="2">
+        <v>43.155630000000002</v>
+      </c>
       <c r="K210" s="2">
-        <v>10.989000000000001</v>
+        <v>477.73973000000001</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.2">
@@ -7680,7 +7701,7 @@
         <v>15</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="G211" s="2" t="s">
         <v>35</v>
@@ -7689,11 +7710,13 @@
         <v>19</v>
       </c>
       <c r="I211" s="3">
-        <v>2.09382010624739E-4</v>
-      </c>
-      <c r="J211" s="3"/>
+        <v>9.1027486780162099E-3</v>
+      </c>
+      <c r="J211" s="3">
+        <v>1.2993367842889399E-3</v>
+      </c>
       <c r="K211" s="3">
-        <v>2.09382010624739E-4</v>
+        <v>9.1027486780162099E-3</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.2">
@@ -7713,7 +7736,7 @@
         <v>15</v>
       </c>
       <c r="F212" s="5" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="G212" s="5" t="s">
         <v>35</v>
@@ -7722,9 +7745,11 @@
         <v>20</v>
       </c>
       <c r="I212" s="7"/>
-      <c r="J212" s="4"/>
+      <c r="J212" s="4">
+        <v>0.4</v>
+      </c>
       <c r="K212" s="4">
-        <v>0.9</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.2">
@@ -7744,7 +7769,7 @@
         <v>15</v>
       </c>
       <c r="F213" s="5" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="G213" s="5" t="s">
         <v>35</v>
@@ -7753,7 +7778,9 @@
         <v>21</v>
       </c>
       <c r="I213" s="8"/>
-      <c r="J213" s="6"/>
+      <c r="J213" s="6">
+        <v>0.36986156609954601</v>
+      </c>
       <c r="K213" s="6">
         <v>0.36986156609954601</v>
       </c>
@@ -7775,7 +7802,7 @@
         <v>15</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="G214" s="2" t="s">
         <v>35</v>
@@ -7784,11 +7811,13 @@
         <v>18</v>
       </c>
       <c r="I214" s="2">
-        <v>3.0750000000000002</v>
-      </c>
-      <c r="J214" s="2"/>
+        <v>119.7526</v>
+      </c>
+      <c r="J214" s="2">
+        <v>119.7526</v>
+      </c>
       <c r="K214" s="2">
-        <v>3.0750000000000002</v>
+        <v>2.6808000000000001</v>
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.2">
@@ -7808,7 +7837,7 @@
         <v>15</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="G215" s="2" t="s">
         <v>35</v>
@@ -7817,11 +7846,13 @@
         <v>19</v>
       </c>
       <c r="I215" s="3">
-        <v>5.8590379713447398E-5</v>
-      </c>
-      <c r="J215" s="3"/>
+        <v>3.6055309166901101E-3</v>
+      </c>
+      <c r="J215" s="3">
+        <v>3.6055309166901101E-3</v>
+      </c>
       <c r="K215" s="3">
-        <v>5.8590379713447398E-5</v>
+        <v>5.1079378840913802E-5</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.2">
@@ -7841,7 +7872,7 @@
         <v>15</v>
       </c>
       <c r="F216" s="5" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="G216" s="5" t="s">
         <v>35</v>
@@ -7850,9 +7881,11 @@
         <v>20</v>
       </c>
       <c r="I216" s="7"/>
-      <c r="J216" s="4"/>
+      <c r="J216" s="4">
+        <v>0.3</v>
+      </c>
       <c r="K216" s="4">
-        <v>0.9</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.2">
@@ -7872,7 +7905,7 @@
         <v>15</v>
       </c>
       <c r="F217" s="5" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="G217" s="5" t="s">
         <v>35</v>
@@ -7881,7 +7914,9 @@
         <v>21</v>
       </c>
       <c r="I217" s="8"/>
-      <c r="J217" s="6"/>
+      <c r="J217" s="6">
+        <v>0.36986156609954601</v>
+      </c>
       <c r="K217" s="6">
         <v>0.36986156609954601</v>
       </c>
@@ -7903,23 +7938,21 @@
         <v>15</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H218" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I218" s="2">
-        <v>2787.4749000000002</v>
+        <v>76.729799999999997</v>
       </c>
       <c r="J218" s="2">
-        <v>1934.65175</v>
-      </c>
-      <c r="K218" s="2">
-        <v>2787.4749000000002</v>
-      </c>
+        <v>76.729799999999997</v>
+      </c>
+      <c r="K218" s="2"/>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
@@ -7938,23 +7971,21 @@
         <v>15</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H219" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I219" s="3">
-        <v>5.8248812114756798E-2</v>
+        <v>2.3101933998213699E-3</v>
       </c>
       <c r="J219" s="3">
-        <v>5.8248812114756798E-2</v>
-      </c>
-      <c r="K219" s="3">
-        <v>5.3111939132586598E-2</v>
-      </c>
+        <v>2.3101933998213699E-3</v>
+      </c>
+      <c r="K219" s="3"/>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A220" s="5" t="s">
@@ -7973,21 +8004,19 @@
         <v>15</v>
       </c>
       <c r="F220" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G220" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H220" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I220" s="7"/>
       <c r="J220" s="4">
-        <v>0.12</v>
-      </c>
-      <c r="K220" s="4">
-        <v>0.12</v>
-      </c>
+        <v>0.25</v>
+      </c>
+      <c r="K220" s="4"/>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A221" s="5" t="s">
@@ -8006,21 +8035,19 @@
         <v>15</v>
       </c>
       <c r="F221" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G221" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H221" s="5" t="s">
         <v>21</v>
       </c>
       <c r="I221" s="8"/>
       <c r="J221" s="6">
-        <v>0.20099155835454899</v>
-      </c>
-      <c r="K221" s="6">
-        <v>0.20099155835454899</v>
-      </c>
+        <v>0.36986156609954601</v>
+      </c>
+      <c r="K221" s="6"/>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
@@ -8039,22 +8066,20 @@
         <v>15</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H222" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I222" s="2">
-        <v>658.40260000000001</v>
-      </c>
-      <c r="J222" s="2">
-        <v>16.919799999999999</v>
-      </c>
+        <v>10.989000000000001</v>
+      </c>
+      <c r="J222" s="2"/>
       <c r="K222" s="2">
-        <v>658.40260000000001</v>
+        <v>10.989000000000001</v>
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.2">
@@ -8074,22 +8099,20 @@
         <v>15</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H223" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I223" s="3">
-        <v>1.25450596222182E-2</v>
-      </c>
-      <c r="J223" s="3">
-        <v>5.0942411274755898E-4</v>
-      </c>
+        <v>2.09382010624739E-4</v>
+      </c>
+      <c r="J223" s="3"/>
       <c r="K223" s="3">
-        <v>1.25450596222182E-2</v>
+        <v>2.09382010624739E-4</v>
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.2">
@@ -8109,20 +8132,18 @@
         <v>15</v>
       </c>
       <c r="F224" s="5" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="G224" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H224" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I224" s="7"/>
-      <c r="J224" s="4">
-        <v>0.14000000000000001</v>
-      </c>
+      <c r="J224" s="4"/>
       <c r="K224" s="4">
-        <v>0.14000000000000001</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.2">
@@ -8142,20 +8163,18 @@
         <v>15</v>
       </c>
       <c r="F225" s="5" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="G225" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H225" s="5" t="s">
         <v>21</v>
       </c>
       <c r="I225" s="8"/>
-      <c r="J225" s="6">
-        <v>0.20099155835454899</v>
-      </c>
+      <c r="J225" s="6"/>
       <c r="K225" s="6">
-        <v>0.20099155835454899</v>
+        <v>0.36986156609954601</v>
       </c>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.2">
@@ -8175,20 +8194,20 @@
         <v>15</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H226" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I226" s="2">
-        <v>145.2114</v>
+        <v>3.0750000000000002</v>
       </c>
       <c r="J226" s="2"/>
       <c r="K226" s="2">
-        <v>145.2114</v>
+        <v>3.0750000000000002</v>
       </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.2">
@@ -8208,20 +8227,20 @@
         <v>15</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H227" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I227" s="3">
-        <v>2.76682636251099E-3</v>
+        <v>5.8590379713447398E-5</v>
       </c>
       <c r="J227" s="3"/>
       <c r="K227" s="3">
-        <v>2.76682636251099E-3</v>
+        <v>5.8590379713447398E-5</v>
       </c>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.2">
@@ -8241,20 +8260,18 @@
         <v>15</v>
       </c>
       <c r="F228" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G228" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H228" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I228" s="7"/>
-      <c r="J228" s="4">
-        <v>0.16</v>
-      </c>
+      <c r="J228" s="4"/>
       <c r="K228" s="4">
-        <v>0.16</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.2">
@@ -8274,10 +8291,10 @@
         <v>15</v>
       </c>
       <c r="F229" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G229" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H229" s="5" t="s">
         <v>21</v>
@@ -8285,7 +8302,7 @@
       <c r="I229" s="8"/>
       <c r="J229" s="6"/>
       <c r="K229" s="6">
-        <v>0.20099155835454899</v>
+        <v>0.36986156609954601</v>
       </c>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.2">
@@ -8305,7 +8322,7 @@
         <v>15</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="G230" s="2" t="s">
         <v>39</v>
@@ -8314,11 +8331,13 @@
         <v>18</v>
       </c>
       <c r="I230" s="2">
-        <v>46.914400000000001</v>
-      </c>
-      <c r="J230" s="2"/>
+        <v>2787.4749000000002</v>
+      </c>
+      <c r="J230" s="2">
+        <v>1934.65175</v>
+      </c>
       <c r="K230" s="2">
-        <v>46.914400000000001</v>
+        <v>2787.4749000000002</v>
       </c>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.2">
@@ -8338,7 +8357,7 @@
         <v>15</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="G231" s="2" t="s">
         <v>39</v>
@@ -8347,11 +8366,13 @@
         <v>19</v>
       </c>
       <c r="I231" s="3">
-        <v>8.9389675122879904E-4</v>
-      </c>
-      <c r="J231" s="3"/>
+        <v>5.8248812114756798E-2</v>
+      </c>
+      <c r="J231" s="3">
+        <v>5.8248812114756798E-2</v>
+      </c>
       <c r="K231" s="3">
-        <v>8.9389675122879904E-4</v>
+        <v>5.3111939132586598E-2</v>
       </c>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.2">
@@ -8371,7 +8392,7 @@
         <v>15</v>
       </c>
       <c r="F232" s="5" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="G232" s="5" t="s">
         <v>39</v>
@@ -8380,9 +8401,11 @@
         <v>20</v>
       </c>
       <c r="I232" s="7"/>
-      <c r="J232" s="4"/>
+      <c r="J232" s="4">
+        <v>0.12</v>
+      </c>
       <c r="K232" s="4">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.2">
@@ -8402,7 +8425,7 @@
         <v>15</v>
       </c>
       <c r="F233" s="5" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="G233" s="5" t="s">
         <v>39</v>
@@ -8411,7 +8434,9 @@
         <v>21</v>
       </c>
       <c r="I233" s="8"/>
-      <c r="J233" s="6"/>
+      <c r="J233" s="6">
+        <v>0.20099155835454899</v>
+      </c>
       <c r="K233" s="6">
         <v>0.20099155835454899</v>
       </c>
@@ -8433,7 +8458,7 @@
         <v>15</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="G234" s="2" t="s">
         <v>39</v>
@@ -8442,11 +8467,13 @@
         <v>18</v>
       </c>
       <c r="I234" s="2">
-        <v>44.490400000000001</v>
-      </c>
-      <c r="J234" s="2"/>
+        <v>658.40260000000001</v>
+      </c>
+      <c r="J234" s="2">
+        <v>16.919799999999999</v>
+      </c>
       <c r="K234" s="2">
-        <v>44.490400000000001</v>
+        <v>658.40260000000001</v>
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.2">
@@ -8466,7 +8493,7 @@
         <v>15</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="G235" s="2" t="s">
         <v>39</v>
@@ -8475,11 +8502,13 @@
         <v>19</v>
       </c>
       <c r="I235" s="3">
-        <v>8.4771038361078398E-4</v>
-      </c>
-      <c r="J235" s="3"/>
+        <v>1.25450596222182E-2</v>
+      </c>
+      <c r="J235" s="3">
+        <v>5.0942411274755898E-4</v>
+      </c>
       <c r="K235" s="3">
-        <v>8.4771038361078398E-4</v>
+        <v>1.25450596222182E-2</v>
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.2">
@@ -8499,7 +8528,7 @@
         <v>15</v>
       </c>
       <c r="F236" s="5" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="G236" s="5" t="s">
         <v>39</v>
@@ -8508,9 +8537,11 @@
         <v>20</v>
       </c>
       <c r="I236" s="7"/>
-      <c r="J236" s="4"/>
+      <c r="J236" s="4">
+        <v>0.14000000000000001</v>
+      </c>
       <c r="K236" s="4">
-        <v>0.16</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.2">
@@ -8530,7 +8561,7 @@
         <v>15</v>
       </c>
       <c r="F237" s="5" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="G237" s="5" t="s">
         <v>39</v>
@@ -8539,7 +8570,9 @@
         <v>21</v>
       </c>
       <c r="I237" s="8"/>
-      <c r="J237" s="6"/>
+      <c r="J237" s="6">
+        <v>0.20099155835454899</v>
+      </c>
       <c r="K237" s="6">
         <v>0.20099155835454899</v>
       </c>
@@ -8561,7 +8594,7 @@
         <v>15</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G238" s="2" t="s">
         <v>39</v>
@@ -8570,11 +8603,11 @@
         <v>18</v>
       </c>
       <c r="I238" s="2">
-        <v>3.0990000000000002</v>
+        <v>145.2114</v>
       </c>
       <c r="J238" s="2"/>
       <c r="K238" s="2">
-        <v>3.0990000000000002</v>
+        <v>145.2114</v>
       </c>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.2">
@@ -8594,7 +8627,7 @@
         <v>15</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G239" s="2" t="s">
         <v>39</v>
@@ -8603,11 +8636,11 @@
         <v>19</v>
       </c>
       <c r="I239" s="3">
-        <v>5.9047670481942602E-5</v>
+        <v>2.76682636251099E-3</v>
       </c>
       <c r="J239" s="3"/>
       <c r="K239" s="3">
-        <v>5.9047670481942602E-5</v>
+        <v>2.76682636251099E-3</v>
       </c>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.2">
@@ -8627,7 +8660,7 @@
         <v>15</v>
       </c>
       <c r="F240" s="5" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G240" s="5" t="s">
         <v>39</v>
@@ -8636,7 +8669,9 @@
         <v>20</v>
       </c>
       <c r="I240" s="7"/>
-      <c r="J240" s="4"/>
+      <c r="J240" s="4">
+        <v>0.16</v>
+      </c>
       <c r="K240" s="4">
         <v>0.16</v>
       </c>
@@ -8658,7 +8693,7 @@
         <v>15</v>
       </c>
       <c r="F241" s="5" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G241" s="5" t="s">
         <v>39</v>
@@ -8689,7 +8724,7 @@
         <v>15</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G242" s="2" t="s">
         <v>39</v>
@@ -8698,11 +8733,11 @@
         <v>18</v>
       </c>
       <c r="I242" s="2">
-        <v>0.52236000000000005</v>
+        <v>46.914400000000001</v>
       </c>
       <c r="J242" s="2"/>
       <c r="K242" s="2">
-        <v>0.52236000000000005</v>
+        <v>46.914400000000001</v>
       </c>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.2">
@@ -8722,7 +8757,7 @@
         <v>15</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G243" s="2" t="s">
         <v>39</v>
@@ -8731,11 +8766,11 @@
         <v>19</v>
       </c>
       <c r="I243" s="3">
-        <v>9.9529335762980199E-6</v>
+        <v>8.9389675122879904E-4</v>
       </c>
       <c r="J243" s="3"/>
       <c r="K243" s="3">
-        <v>9.9529335762980199E-6</v>
+        <v>8.9389675122879904E-4</v>
       </c>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.2">
@@ -8755,7 +8790,7 @@
         <v>15</v>
       </c>
       <c r="F244" s="5" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G244" s="5" t="s">
         <v>39</v>
@@ -8766,7 +8801,7 @@
       <c r="I244" s="7"/>
       <c r="J244" s="4"/>
       <c r="K244" s="4">
-        <v>0.9</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.2">
@@ -8786,7 +8821,7 @@
         <v>15</v>
       </c>
       <c r="F245" s="5" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G245" s="5" t="s">
         <v>39</v>
@@ -8820,19 +8855,17 @@
         <v>55</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="H246" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I246" s="2">
-        <v>3140.1194</v>
-      </c>
-      <c r="J246" s="2">
-        <v>3140.1194</v>
-      </c>
+        <v>44.490400000000001</v>
+      </c>
+      <c r="J246" s="2"/>
       <c r="K246" s="2">
-        <v>1490.106</v>
+        <v>44.490400000000001</v>
       </c>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.2">
@@ -8855,19 +8888,17 @@
         <v>55</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="H247" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I247" s="3">
-        <v>9.4543229782053997E-2</v>
-      </c>
-      <c r="J247" s="3">
-        <v>9.4543229782053997E-2</v>
-      </c>
+        <v>8.4771038361078398E-4</v>
+      </c>
+      <c r="J247" s="3"/>
       <c r="K247" s="3">
-        <v>2.8392154911637799E-2</v>
+        <v>8.4771038361078398E-4</v>
       </c>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.2">
@@ -8890,15 +8921,13 @@
         <v>55</v>
       </c>
       <c r="G248" s="5" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="H248" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I248" s="7"/>
-      <c r="J248" s="4">
-        <v>0.16</v>
-      </c>
+      <c r="J248" s="4"/>
       <c r="K248" s="4">
         <v>0.16</v>
       </c>
@@ -8923,17 +8952,15 @@
         <v>55</v>
       </c>
       <c r="G249" s="5" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="H249" s="5" t="s">
         <v>21</v>
       </c>
       <c r="I249" s="8"/>
-      <c r="J249" s="6">
-        <v>1.6770082173402701E-2</v>
-      </c>
+      <c r="J249" s="6"/>
       <c r="K249" s="6">
-        <v>1.6770082173402701E-2</v>
+        <v>0.20099155835454899</v>
       </c>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.2">
@@ -8953,22 +8980,20 @@
         <v>15</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="H250" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I250" s="2">
-        <v>2787.4749000000002</v>
-      </c>
-      <c r="J250" s="2">
-        <v>1934.65175</v>
-      </c>
+        <v>3.0990000000000002</v>
+      </c>
+      <c r="J250" s="2"/>
       <c r="K250" s="2">
-        <v>2787.4749000000002</v>
+        <v>3.0990000000000002</v>
       </c>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.2">
@@ -8988,22 +9013,20 @@
         <v>15</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="G251" s="2" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="H251" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I251" s="3">
-        <v>5.8248812114756798E-2</v>
-      </c>
-      <c r="J251" s="3">
-        <v>5.8248812114756798E-2</v>
-      </c>
+        <v>5.9047670481942602E-5</v>
+      </c>
+      <c r="J251" s="3"/>
       <c r="K251" s="3">
-        <v>5.3111939132586598E-2</v>
+        <v>5.9047670481942602E-5</v>
       </c>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.2">
@@ -9023,20 +9046,18 @@
         <v>15</v>
       </c>
       <c r="F252" s="5" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="G252" s="5" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="H252" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I252" s="7"/>
-      <c r="J252" s="4">
-        <v>0.85</v>
-      </c>
+      <c r="J252" s="4"/>
       <c r="K252" s="4">
-        <v>0.85</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.2">
@@ -9056,20 +9077,18 @@
         <v>15</v>
       </c>
       <c r="F253" s="5" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="G253" s="5" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="H253" s="5" t="s">
         <v>21</v>
       </c>
       <c r="I253" s="8"/>
-      <c r="J253" s="6">
-        <v>1.6770082173402701E-2</v>
-      </c>
+      <c r="J253" s="6"/>
       <c r="K253" s="6">
-        <v>1.6770082173402701E-2</v>
+        <v>0.20099155835454899</v>
       </c>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.2">
@@ -9089,22 +9108,20 @@
         <v>15</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="H254" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I254" s="2">
-        <v>971.52470000000005</v>
-      </c>
-      <c r="J254" s="2">
-        <v>775.65200000000004</v>
-      </c>
+        <v>0.52236000000000005</v>
+      </c>
+      <c r="J254" s="2"/>
       <c r="K254" s="2">
-        <v>971.52470000000005</v>
+        <v>0.52236000000000005</v>
       </c>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.2">
@@ -9124,22 +9141,20 @@
         <v>15</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G255" s="2" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="H255" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I255" s="3">
-        <v>2.3353457600023001E-2</v>
-      </c>
-      <c r="J255" s="3">
-        <v>2.3353457600023001E-2</v>
-      </c>
+        <v>9.9529335762980199E-6</v>
+      </c>
+      <c r="J255" s="3"/>
       <c r="K255" s="3">
-        <v>1.85112198614612E-2</v>
+        <v>9.9529335762980199E-6</v>
       </c>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.2">
@@ -9159,19 +9174,19 @@
         <v>15</v>
       </c>
       <c r="F256" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G256" s="5" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="H256" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I256" s="7"/>
-      <c r="J256" s="4">
-        <v>0.85</v>
-      </c>
-      <c r="K256" s="4"/>
+      <c r="J256" s="4"/>
+      <c r="K256" s="4">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A257" s="5" t="s">
@@ -9190,20 +9205,18 @@
         <v>15</v>
       </c>
       <c r="F257" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G257" s="5" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="H257" s="5" t="s">
         <v>21</v>
       </c>
       <c r="I257" s="8"/>
-      <c r="J257" s="6">
-        <v>1.6770082173402701E-2</v>
-      </c>
+      <c r="J257" s="6"/>
       <c r="K257" s="6">
-        <v>1.6770082173402701E-2</v>
+        <v>0.20099155835454899</v>
       </c>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.2">
@@ -9223,7 +9236,7 @@
         <v>15</v>
       </c>
       <c r="F258" s="2" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="G258" s="2" t="s">
         <v>59</v>
@@ -9232,11 +9245,13 @@
         <v>18</v>
       </c>
       <c r="I258" s="2">
-        <v>551.62660000000005</v>
-      </c>
-      <c r="J258" s="2"/>
+        <v>3140.1194</v>
+      </c>
+      <c r="J258" s="2">
+        <v>3140.1194</v>
+      </c>
       <c r="K258" s="2">
-        <v>551.62660000000005</v>
+        <v>1490.106</v>
       </c>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.2">
@@ -9256,7 +9271,7 @@
         <v>15</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="G259" s="2" t="s">
         <v>59</v>
@@ -9265,11 +9280,13 @@
         <v>19</v>
       </c>
       <c r="I259" s="3">
-        <v>1.0510572993183099E-2</v>
-      </c>
-      <c r="J259" s="3"/>
+        <v>9.4543229782053997E-2</v>
+      </c>
+      <c r="J259" s="3">
+        <v>9.4543229782053997E-2</v>
+      </c>
       <c r="K259" s="3">
-        <v>1.0510572993183099E-2</v>
+        <v>2.8392154911637799E-2</v>
       </c>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.2">
@@ -9289,7 +9306,7 @@
         <v>15</v>
       </c>
       <c r="F260" s="5" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="G260" s="5" t="s">
         <v>59</v>
@@ -9298,9 +9315,11 @@
         <v>20</v>
       </c>
       <c r="I260" s="7"/>
-      <c r="J260" s="4"/>
+      <c r="J260" s="4">
+        <v>0.16</v>
+      </c>
       <c r="K260" s="4">
-        <v>0.3</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.2">
@@ -9320,7 +9339,7 @@
         <v>15</v>
       </c>
       <c r="F261" s="5" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="G261" s="5" t="s">
         <v>59</v>
@@ -9329,7 +9348,9 @@
         <v>21</v>
       </c>
       <c r="I261" s="8"/>
-      <c r="J261" s="6"/>
+      <c r="J261" s="6">
+        <v>1.6770082173402701E-2</v>
+      </c>
       <c r="K261" s="6">
         <v>1.6770082173402701E-2</v>
       </c>
@@ -9351,7 +9372,7 @@
         <v>15</v>
       </c>
       <c r="F262" s="2" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="G262" s="2" t="s">
         <v>59</v>
@@ -9360,11 +9381,13 @@
         <v>18</v>
       </c>
       <c r="I262" s="2">
-        <v>145.2114</v>
-      </c>
-      <c r="J262" s="2"/>
+        <v>2787.4749000000002</v>
+      </c>
+      <c r="J262" s="2">
+        <v>1934.65175</v>
+      </c>
       <c r="K262" s="2">
-        <v>145.2114</v>
+        <v>2787.4749000000002</v>
       </c>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.2">
@@ -9384,7 +9407,7 @@
         <v>15</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="G263" s="2" t="s">
         <v>59</v>
@@ -9393,11 +9416,13 @@
         <v>19</v>
       </c>
       <c r="I263" s="3">
-        <v>2.76682636251099E-3</v>
-      </c>
-      <c r="J263" s="3"/>
+        <v>5.8248812114756798E-2</v>
+      </c>
+      <c r="J263" s="3">
+        <v>5.8248812114756798E-2</v>
+      </c>
       <c r="K263" s="3">
-        <v>2.76682636251099E-3</v>
+        <v>5.3111939132586598E-2</v>
       </c>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.2">
@@ -9417,7 +9442,7 @@
         <v>15</v>
       </c>
       <c r="F264" s="5" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="G264" s="5" t="s">
         <v>59</v>
@@ -9426,9 +9451,11 @@
         <v>20</v>
       </c>
       <c r="I264" s="7"/>
-      <c r="J264" s="4"/>
+      <c r="J264" s="4">
+        <v>0.85</v>
+      </c>
       <c r="K264" s="4">
-        <v>0.32</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.2">
@@ -9448,7 +9475,7 @@
         <v>15</v>
       </c>
       <c r="F265" s="5" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="G265" s="5" t="s">
         <v>59</v>
@@ -9457,7 +9484,9 @@
         <v>21</v>
       </c>
       <c r="I265" s="8"/>
-      <c r="J265" s="6"/>
+      <c r="J265" s="6">
+        <v>1.6770082173402701E-2</v>
+      </c>
       <c r="K265" s="6">
         <v>1.6770082173402701E-2</v>
       </c>
@@ -9479,7 +9508,7 @@
         <v>15</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G266" s="2" t="s">
         <v>59</v>
@@ -9488,11 +9517,13 @@
         <v>18</v>
       </c>
       <c r="I266" s="2">
-        <v>13.986000000000001</v>
-      </c>
-      <c r="J266" s="2"/>
+        <v>971.52470000000005</v>
+      </c>
+      <c r="J266" s="2">
+        <v>775.65200000000004</v>
+      </c>
       <c r="K266" s="2">
-        <v>13.986000000000001</v>
+        <v>971.52470000000005</v>
       </c>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.2">
@@ -9512,7 +9543,7 @@
         <v>15</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G267" s="2" t="s">
         <v>59</v>
@@ -9521,11 +9552,13 @@
         <v>19</v>
       </c>
       <c r="I267" s="3">
-        <v>2.6648619534057799E-4</v>
-      </c>
-      <c r="J267" s="3"/>
+        <v>2.3353457600023001E-2</v>
+      </c>
+      <c r="J267" s="3">
+        <v>2.3353457600023001E-2</v>
+      </c>
       <c r="K267" s="3">
-        <v>2.6648619534057799E-4</v>
+        <v>1.85112198614612E-2</v>
       </c>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.2">
@@ -9545,7 +9578,7 @@
         <v>15</v>
       </c>
       <c r="F268" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G268" s="5" t="s">
         <v>59</v>
@@ -9554,10 +9587,10 @@
         <v>20</v>
       </c>
       <c r="I268" s="7"/>
-      <c r="J268" s="4"/>
-      <c r="K268" s="4">
+      <c r="J268" s="4">
         <v>0.85</v>
       </c>
+      <c r="K268" s="4"/>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A269" s="5" t="s">
@@ -9576,7 +9609,7 @@
         <v>15</v>
       </c>
       <c r="F269" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G269" s="5" t="s">
         <v>59</v>
@@ -9585,9 +9618,1171 @@
         <v>21</v>
       </c>
       <c r="I269" s="8"/>
-      <c r="J269" s="6"/>
+      <c r="J269" s="6">
+        <v>1.6770082173402701E-2</v>
+      </c>
       <c r="K269" s="6">
         <v>1.6770082173402701E-2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A270" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E270" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F270" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G270" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H270" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I270" s="2">
+        <v>551.62660000000005</v>
+      </c>
+      <c r="J270" s="2"/>
+      <c r="K270" s="2">
+        <v>551.62660000000005</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A271" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E271" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F271" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G271" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H271" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I271" s="3">
+        <v>1.0510572993183099E-2</v>
+      </c>
+      <c r="J271" s="3"/>
+      <c r="K271" s="3">
+        <v>1.0510572993183099E-2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A272" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B272" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C272" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D272" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E272" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F272" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G272" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H272" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I272" s="7"/>
+      <c r="J272" s="4"/>
+      <c r="K272" s="4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A273" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B273" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C273" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D273" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E273" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F273" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G273" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H273" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I273" s="8"/>
+      <c r="J273" s="6"/>
+      <c r="K273" s="6">
+        <v>1.6770082173402701E-2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A274" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E274" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F274" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G274" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H274" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I274" s="2">
+        <v>145.2114</v>
+      </c>
+      <c r="J274" s="2"/>
+      <c r="K274" s="2">
+        <v>145.2114</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A275" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D275" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E275" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F275" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G275" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H275" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I275" s="3">
+        <v>2.76682636251099E-3</v>
+      </c>
+      <c r="J275" s="3"/>
+      <c r="K275" s="3">
+        <v>2.76682636251099E-3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A276" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B276" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C276" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D276" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E276" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F276" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G276" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H276" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I276" s="7"/>
+      <c r="J276" s="4"/>
+      <c r="K276" s="4">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A277" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B277" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C277" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D277" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E277" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F277" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G277" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H277" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I277" s="8"/>
+      <c r="J277" s="6"/>
+      <c r="K277" s="6">
+        <v>1.6770082173402701E-2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A278" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E278" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F278" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G278" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H278" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I278" s="2">
+        <v>13.986000000000001</v>
+      </c>
+      <c r="J278" s="2"/>
+      <c r="K278" s="2">
+        <v>13.986000000000001</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A279" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D279" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E279" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F279" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G279" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H279" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I279" s="3">
+        <v>2.6648619534057799E-4</v>
+      </c>
+      <c r="J279" s="3"/>
+      <c r="K279" s="3">
+        <v>2.6648619534057799E-4</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A280" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B280" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C280" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D280" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E280" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F280" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G280" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H280" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I280" s="7"/>
+      <c r="J280" s="4"/>
+      <c r="K280" s="4">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A281" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B281" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C281" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D281" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E281" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F281" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G281" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H281" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I281" s="8"/>
+      <c r="J281" s="6"/>
+      <c r="K281" s="6">
+        <v>1.6770082173402701E-2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A282" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D282" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E282" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F282" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G282" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H282" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I282" s="2">
+        <v>214.2448</v>
+      </c>
+      <c r="J282" s="2">
+        <v>184.43680000000001</v>
+      </c>
+      <c r="K282" s="2">
+        <v>214.2448</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A283" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D283" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E283" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F283" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G283" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H283" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I283" s="3">
+        <v>5.4014215239464496E-3</v>
+      </c>
+      <c r="J283" s="3">
+        <v>5.4014215239464496E-3</v>
+      </c>
+      <c r="K283" s="3">
+        <v>3.6850703737038599E-3</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A284" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B284" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C284" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D284" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E284" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F284" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G284" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H284" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I284" s="7"/>
+      <c r="J284" s="4">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="K284" s="4">
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A285" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B285" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C285" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D285" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E285" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F285" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G285" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H285" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I285" s="8"/>
+      <c r="J285" s="6">
+        <v>1</v>
+      </c>
+      <c r="K285" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A286" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D286" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E286" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F286" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G286" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H286" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I286" s="2">
+        <v>747.95450000000005</v>
+      </c>
+      <c r="J286" s="2">
+        <v>747.95450000000005</v>
+      </c>
+      <c r="K286" s="2"/>
+    </row>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A287" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D287" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E287" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F287" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G287" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H287" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I287" s="3">
+        <v>2.19046173823912E-2</v>
+      </c>
+      <c r="J287" s="3">
+        <v>2.19046173823912E-2</v>
+      </c>
+      <c r="K287" s="3"/>
+    </row>
+    <row r="288" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A288" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B288" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C288" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D288" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E288" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F288" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G288" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H288" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I288" s="7"/>
+      <c r="J288" s="4">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="K288" s="4"/>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A289" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B289" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C289" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D289" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E289" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F289" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G289" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H289" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I289" s="8"/>
+      <c r="J289" s="6">
+        <v>1</v>
+      </c>
+      <c r="K289" s="6"/>
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A290" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D290" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E290" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F290" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G290" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H290" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I290" s="2">
+        <v>79.249099999999999</v>
+      </c>
+      <c r="J290" s="2"/>
+      <c r="K290" s="2">
+        <v>79.249099999999999</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A291" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D291" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E291" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F291" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G291" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H291" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I291" s="3">
+        <v>1.3631066450746699E-3</v>
+      </c>
+      <c r="J291" s="3"/>
+      <c r="K291" s="3">
+        <v>1.3631066450746699E-3</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A292" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B292" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C292" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D292" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E292" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F292" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G292" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H292" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I292" s="7"/>
+      <c r="J292" s="4"/>
+      <c r="K292" s="4">
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A293" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B293" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C293" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D293" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E293" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F293" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G293" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H293" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I293" s="8"/>
+      <c r="J293" s="6"/>
+      <c r="K293" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A294" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D294" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E294" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F294" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G294" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H294" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I294" s="2">
+        <v>5284.6855999999998</v>
+      </c>
+      <c r="J294" s="2"/>
+      <c r="K294" s="2">
+        <v>5284.6855999999998</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A295" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D295" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E295" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F295" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G295" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H295" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I295" s="3">
+        <v>9.08980677192604E-2</v>
+      </c>
+      <c r="J295" s="3"/>
+      <c r="K295" s="3">
+        <v>9.08980677192604E-2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A296" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B296" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C296" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D296" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E296" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F296" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G296" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H296" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I296" s="7"/>
+      <c r="J296" s="4"/>
+      <c r="K296" s="4">
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A297" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B297" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C297" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D297" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E297" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F297" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G297" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H297" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I297" s="8"/>
+      <c r="J297" s="6"/>
+      <c r="K297" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A298" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D298" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E298" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F298" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G298" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H298" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I298" s="2">
+        <v>6.6877000000000004</v>
+      </c>
+      <c r="J298" s="2"/>
+      <c r="K298" s="2">
+        <v>6.6877000000000004</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A299" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D299" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E299" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F299" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G299" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H299" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I299" s="3">
+        <v>1.15030307098325E-4</v>
+      </c>
+      <c r="J299" s="3"/>
+      <c r="K299" s="3">
+        <v>1.15030307098325E-4</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A300" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B300" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C300" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D300" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E300" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F300" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G300" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H300" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I300" s="7"/>
+      <c r="J300" s="4"/>
+      <c r="K300" s="4">
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A301" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B301" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C301" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D301" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E301" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F301" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G301" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H301" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I301" s="8"/>
+      <c r="J301" s="6"/>
+      <c r="K301" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A302" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D302" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E302" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F302" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G302" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H302" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I302" s="2">
+        <v>70.034999999999997</v>
+      </c>
+      <c r="J302" s="2"/>
+      <c r="K302" s="2">
+        <v>70.034999999999997</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A303" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D303" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E303" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F303" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G303" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H303" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I303" s="3">
+        <v>1.2046215526460801E-3</v>
+      </c>
+      <c r="J303" s="3"/>
+      <c r="K303" s="3">
+        <v>1.2046215526460801E-3</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A304" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B304" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C304" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D304" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E304" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F304" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G304" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H304" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I304" s="7"/>
+      <c r="J304" s="4"/>
+      <c r="K304" s="4">
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A305" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B305" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C305" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D305" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E305" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F305" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G305" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H305" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I305" s="8"/>
+      <c r="J305" s="6"/>
+      <c r="K305" s="6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/GH-ZA-Efficiency-sample-2019.xlsx
+++ b/inst/extdata/GH-ZA-Efficiency-sample-2019.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/IEATools/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574C44D9-6F11-0649-AAA6-F2E425B00E61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9069BD6-1DA2-3B42-932B-45BB1DC8445F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28180" yWindow="460" windowWidth="22820" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -620,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K305"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="F100" sqref="F100"/>
+    <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
+      <selection activeCell="J268" sqref="J268:K268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9590,7 +9590,9 @@
       <c r="J268" s="4">
         <v>0.85</v>
       </c>
-      <c r="K268" s="4"/>
+      <c r="K268" s="4">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A269" s="5" t="s">

--- a/inst/extdata/GH-ZA-Efficiency-sample-2019.xlsx
+++ b/inst/extdata/GH-ZA-Efficiency-sample-2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/IEATools/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9069BD6-1DA2-3B42-932B-45BB1DC8445F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6141221-0543-F043-B0C3-940D381FB908}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28180" yWindow="460" windowWidth="22820" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,19 +16,11 @@
     <sheet name="FU etas" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2443" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2443" uniqueCount="69">
   <si>
     <t>Country</t>
   </si>
@@ -211,9 +203,6 @@
   </si>
   <si>
     <t>Wood furnaces</t>
-  </si>
-  <si>
-    <t>Non-energy use industry/transformation/energy</t>
   </si>
   <si>
     <t>Bitumen</t>
@@ -620,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K305"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
-      <selection activeCell="J268" sqref="J268:K268"/>
+    <sheetView tabSelected="1" topLeftCell="A248" workbookViewId="0">
+      <selection activeCell="F315" sqref="F315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3658,10 +3647,10 @@
         <v>15</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H90" s="2" t="s">
         <v>18</v>
@@ -3691,10 +3680,10 @@
         <v>15</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>19</v>
@@ -3724,10 +3713,10 @@
         <v>15</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H92" s="5" t="s">
         <v>20</v>
@@ -3755,10 +3744,10 @@
         <v>15</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H93" s="5" t="s">
         <v>21</v>
@@ -3786,10 +3775,10 @@
         <v>15</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H94" s="2" t="s">
         <v>18</v>
@@ -3821,10 +3810,10 @@
         <v>15</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>19</v>
@@ -3856,10 +3845,10 @@
         <v>15</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H96" s="5" t="s">
         <v>20</v>
@@ -3889,10 +3878,10 @@
         <v>15</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H97" s="5" t="s">
         <v>21</v>
@@ -3922,10 +3911,10 @@
         <v>15</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H98" s="2" t="s">
         <v>18</v>
@@ -3955,10 +3944,10 @@
         <v>15</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H99" s="2" t="s">
         <v>19</v>
@@ -3988,10 +3977,10 @@
         <v>15</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H100" s="5" t="s">
         <v>20</v>
@@ -4019,10 +4008,10 @@
         <v>15</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H101" s="5" t="s">
         <v>21</v>
@@ -10028,10 +10017,10 @@
         <v>15</v>
       </c>
       <c r="F282" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G282" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="G282" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="H282" s="2" t="s">
         <v>18</v>
@@ -10063,10 +10052,10 @@
         <v>15</v>
       </c>
       <c r="F283" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G283" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="G283" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="H283" s="2" t="s">
         <v>19</v>
@@ -10098,10 +10087,10 @@
         <v>15</v>
       </c>
       <c r="F284" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G284" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="G284" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="H284" s="5" t="s">
         <v>20</v>
@@ -10131,10 +10120,10 @@
         <v>15</v>
       </c>
       <c r="F285" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G285" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="G285" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="H285" s="5" t="s">
         <v>21</v>
@@ -10164,10 +10153,10 @@
         <v>15</v>
       </c>
       <c r="F286" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G286" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H286" s="2" t="s">
         <v>18</v>
@@ -10197,10 +10186,10 @@
         <v>15</v>
       </c>
       <c r="F287" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G287" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H287" s="2" t="s">
         <v>19</v>
@@ -10230,10 +10219,10 @@
         <v>15</v>
       </c>
       <c r="F288" s="5" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G288" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H288" s="5" t="s">
         <v>20</v>
@@ -10261,10 +10250,10 @@
         <v>15</v>
       </c>
       <c r="F289" s="5" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G289" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H289" s="5" t="s">
         <v>21</v>
@@ -10292,10 +10281,10 @@
         <v>15</v>
       </c>
       <c r="F290" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G290" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H290" s="2" t="s">
         <v>18</v>
@@ -10325,10 +10314,10 @@
         <v>15</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G291" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H291" s="2" t="s">
         <v>19</v>
@@ -10358,10 +10347,10 @@
         <v>15</v>
       </c>
       <c r="F292" s="5" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G292" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H292" s="5" t="s">
         <v>20</v>
@@ -10389,10 +10378,10 @@
         <v>15</v>
       </c>
       <c r="F293" s="5" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G293" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H293" s="5" t="s">
         <v>21</v>
@@ -10420,10 +10409,10 @@
         <v>15</v>
       </c>
       <c r="F294" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G294" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H294" s="2" t="s">
         <v>18</v>
@@ -10453,10 +10442,10 @@
         <v>15</v>
       </c>
       <c r="F295" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G295" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H295" s="2" t="s">
         <v>19</v>
@@ -10486,10 +10475,10 @@
         <v>15</v>
       </c>
       <c r="F296" s="5" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G296" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H296" s="5" t="s">
         <v>20</v>
@@ -10517,10 +10506,10 @@
         <v>15</v>
       </c>
       <c r="F297" s="5" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G297" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H297" s="5" t="s">
         <v>21</v>
@@ -10548,10 +10537,10 @@
         <v>15</v>
       </c>
       <c r="F298" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G298" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H298" s="2" t="s">
         <v>18</v>
@@ -10581,10 +10570,10 @@
         <v>15</v>
       </c>
       <c r="F299" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G299" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H299" s="2" t="s">
         <v>19</v>
@@ -10614,10 +10603,10 @@
         <v>15</v>
       </c>
       <c r="F300" s="5" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G300" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H300" s="5" t="s">
         <v>20</v>
@@ -10645,10 +10634,10 @@
         <v>15</v>
       </c>
       <c r="F301" s="5" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G301" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H301" s="5" t="s">
         <v>21</v>
@@ -10676,10 +10665,10 @@
         <v>15</v>
       </c>
       <c r="F302" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G302" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H302" s="2" t="s">
         <v>18</v>
@@ -10709,10 +10698,10 @@
         <v>15</v>
       </c>
       <c r="F303" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G303" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H303" s="2" t="s">
         <v>19</v>
@@ -10742,10 +10731,10 @@
         <v>15</v>
       </c>
       <c r="F304" s="5" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G304" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H304" s="5" t="s">
         <v>20</v>
@@ -10773,10 +10762,10 @@
         <v>15</v>
       </c>
       <c r="F305" s="5" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G305" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H305" s="5" t="s">
         <v>21</v>

--- a/inst/extdata/GH-ZA-Efficiency-sample-2019.xlsx
+++ b/inst/extdata/GH-ZA-Efficiency-sample-2019.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/IEATools/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6141221-0543-F043-B0C3-940D381FB908}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E603C71-0898-6047-9F49-5CF1C4B5AE6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28180" yWindow="460" windowWidth="22820" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -609,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K305"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A248" workbookViewId="0">
-      <selection activeCell="F315" sqref="F315"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70:F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2967,7 +2967,7 @@
         <v>15</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>39</v>
@@ -3002,7 +3002,7 @@
         <v>15</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>39</v>
@@ -3037,7 +3037,7 @@
         <v>15</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="G72" s="5" t="s">
         <v>39</v>
@@ -3070,7 +3070,7 @@
         <v>15</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="G73" s="5" t="s">
         <v>39</v>

--- a/inst/extdata/GH-ZA-Efficiency-sample-2019.xlsx
+++ b/inst/extdata/GH-ZA-Efficiency-sample-2019.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/IEATools/inst/extdata/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C161D7E-A104-2449-9840-D83C5C06E1B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26640" windowHeight="28340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="FU etas" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="FU etas" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,223 +27,221 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2443" uniqueCount="69">
   <si>
-    <t xml:space="preserve">Country</t>
+    <t>Country</t>
   </si>
   <si>
-    <t xml:space="preserve">Method</t>
+    <t>Method</t>
   </si>
   <si>
-    <t xml:space="preserve">Energy.type</t>
+    <t>Energy.type</t>
   </si>
   <si>
-    <t xml:space="preserve">Last.stage</t>
+    <t>Last.stage</t>
   </si>
   <si>
-    <t xml:space="preserve">Unit</t>
+    <t>Unit</t>
   </si>
   <si>
-    <t xml:space="preserve">Machine</t>
+    <t>Machine</t>
   </si>
   <si>
-    <t xml:space="preserve">Eu.product</t>
+    <t>Eu.product</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity</t>
+    <t>Quantity</t>
   </si>
   <si>
-    <t xml:space="preserve">Maximum.values</t>
+    <t>Maximum.values</t>
   </si>
   <si>
-    <t xml:space="preserve">1971</t>
+    <t>1971</t>
   </si>
   <si>
-    <t xml:space="preserve">2000</t>
+    <t>2000</t>
   </si>
   <si>
-    <t xml:space="preserve">GHA</t>
+    <t>GHA</t>
   </si>
   <si>
-    <t xml:space="preserve">PCM</t>
+    <t>PCM</t>
   </si>
   <si>
-    <t xml:space="preserve">E</t>
+    <t>E</t>
   </si>
   <si>
-    <t xml:space="preserve">Final</t>
+    <t>Final</t>
   </si>
   <si>
-    <t xml:space="preserve">ktoe</t>
+    <t>ktoe</t>
   </si>
   <si>
-    <t xml:space="preserve">Automobiles</t>
+    <t>Automobiles</t>
   </si>
   <si>
-    <t xml:space="preserve">MD</t>
+    <t>MD</t>
   </si>
   <si>
-    <t xml:space="preserve">E.dot_machine</t>
+    <t>E.dot_machine</t>
   </si>
   <si>
-    <t xml:space="preserve">E.dot_machine [%]</t>
+    <t>E.dot_machine [%]</t>
   </si>
   <si>
-    <t xml:space="preserve">eta.fu</t>
+    <t>eta.fu</t>
   </si>
   <si>
-    <t xml:space="preserve">phi.u</t>
+    <t>phi.u</t>
   </si>
   <si>
-    <t xml:space="preserve">Diesel cars</t>
+    <t>Diesel cars</t>
   </si>
   <si>
-    <t xml:space="preserve">Diesel trucks</t>
+    <t>Diesel trucks</t>
   </si>
   <si>
-    <t xml:space="preserve">Electric motors</t>
+    <t>Electric motors</t>
   </si>
   <si>
-    <t xml:space="preserve">Trucks</t>
+    <t>Trucks</t>
   </si>
   <si>
-    <t xml:space="preserve">Boat engines</t>
+    <t>Boat engines</t>
   </si>
   <si>
-    <t xml:space="preserve">Diesel trains</t>
+    <t>Diesel trains</t>
   </si>
   <si>
-    <t xml:space="preserve">Fans</t>
+    <t>Fans</t>
   </si>
   <si>
-    <t xml:space="preserve">Electric lights</t>
+    <t>Electric lights</t>
   </si>
   <si>
-    <t xml:space="preserve">Light</t>
+    <t>Light</t>
   </si>
   <si>
-    <t xml:space="preserve">Industrial furnaces</t>
+    <t>Industrial furnaces</t>
   </si>
   <si>
-    <t xml:space="preserve">HTH.600.C</t>
+    <t>HTH.600.C</t>
   </si>
   <si>
-    <t xml:space="preserve">Electric heaters</t>
+    <t>Electric heaters</t>
   </si>
   <si>
-    <t xml:space="preserve">Wood stoves</t>
+    <t>Wood stoves</t>
   </si>
   <si>
-    <t xml:space="preserve">MTH.200.C</t>
+    <t>MTH.200.C</t>
   </si>
   <si>
-    <t xml:space="preserve">Irons</t>
+    <t>Irons</t>
   </si>
   <si>
-    <t xml:space="preserve">LPG stoves</t>
+    <t>LPG stoves</t>
   </si>
   <si>
-    <t xml:space="preserve">Electric stoves</t>
+    <t>Electric stoves</t>
   </si>
   <si>
-    <t xml:space="preserve">Wood cookstoves</t>
+    <t>Wood cookstoves</t>
   </si>
   <si>
-    <t xml:space="preserve">MTH.100.C</t>
+    <t>MTH.100.C</t>
   </si>
   <si>
-    <t xml:space="preserve">Charcoal stoves</t>
+    <t>Charcoal stoves</t>
   </si>
   <si>
-    <t xml:space="preserve">Kerosene stoves</t>
+    <t>Kerosene stoves</t>
   </si>
   <si>
-    <t xml:space="preserve">Non-energy</t>
+    <t>Non-energy</t>
   </si>
   <si>
-    <t xml:space="preserve">Bitumen</t>
+    <t>Bitumen</t>
   </si>
   <si>
-    <t xml:space="preserve">Lubricants</t>
+    <t>Lubricants</t>
   </si>
   <si>
-    <t xml:space="preserve">Other oil products</t>
+    <t>Other oil products</t>
   </si>
   <si>
-    <t xml:space="preserve">ZAF</t>
+    <t>ZAF</t>
   </si>
   <si>
-    <t xml:space="preserve">Steam engines (trains)</t>
+    <t>Steam engines (trains)</t>
   </si>
   <si>
-    <t xml:space="preserve">Industry static motors</t>
+    <t>Industry static motors</t>
   </si>
   <si>
-    <t xml:space="preserve">Diesel automobiles</t>
+    <t>Diesel automobiles</t>
   </si>
   <si>
-    <t xml:space="preserve">Airplanes</t>
+    <t>Airplanes</t>
   </si>
   <si>
-    <t xml:space="preserve">Industry static engines</t>
+    <t>Industry static engines</t>
   </si>
   <si>
-    <t xml:space="preserve">Electric automobiles</t>
+    <t>Electric automobiles</t>
   </si>
   <si>
-    <t xml:space="preserve">Generators</t>
+    <t>Generators</t>
   </si>
   <si>
-    <t xml:space="preserve">Kerosene lights</t>
+    <t>Kerosene lights</t>
   </si>
   <si>
-    <t xml:space="preserve">Gas lights</t>
+    <t>Gas lights</t>
   </si>
   <si>
-    <t xml:space="preserve">Gas heaters</t>
+    <t>Gas heaters</t>
   </si>
   <si>
-    <t xml:space="preserve">Oil heaters</t>
+    <t>Oil heaters</t>
   </si>
   <si>
-    <t xml:space="preserve">Gas furnaces</t>
+    <t>Gas furnaces</t>
   </si>
   <si>
-    <t xml:space="preserve">Coal stoves</t>
+    <t>Coal stoves</t>
   </si>
   <si>
-    <t xml:space="preserve">Oil furnaces</t>
+    <t>Oil furnaces</t>
   </si>
   <si>
-    <t xml:space="preserve">LPG cookstoves</t>
+    <t>LPG cookstoves</t>
   </si>
   <si>
-    <t xml:space="preserve">LTH.20.C</t>
+    <t>LTH.20.C</t>
   </si>
   <si>
-    <t xml:space="preserve">Wood furnaces</t>
+    <t>Wood furnaces</t>
   </si>
   <si>
-    <t xml:space="preserve">Hard coal (if no detail)</t>
+    <t>Hard coal (if no detail)</t>
   </si>
   <si>
-    <t xml:space="preserve">Other bituminous coal</t>
+    <t>Other bituminous coal</t>
   </si>
   <si>
-    <t xml:space="preserve">Paraffin waxes</t>
+    <t>Paraffin waxes</t>
   </si>
   <si>
-    <t xml:space="preserve">White spirit &amp; SBP</t>
+    <t>White spirit &amp; SBP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.00%"/>
-    <numFmt numFmtId="166" formatCode="0.0#####"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0#####"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -247,40 +250,22 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF8C87A0"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -317,7 +302,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -325,77 +310,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -454,38 +387,346 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K305"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A273" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G296" activeCellId="0" sqref="G296"/>
+    <sheetView tabSelected="1" topLeftCell="A221" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J240" sqref="J240"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="4.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="23.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="33.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="11.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="8.83"/>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="4.6640625" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" customWidth="1"/>
+    <col min="7" max="7" width="33.1640625" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+    <col min="10" max="11" width="11.6640625" customWidth="1"/>
+    <col min="12" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -520,7 +761,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -545,17 +786,17 @@
       <c r="H2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="2" t="n">
-        <v>619.251</v>
-      </c>
-      <c r="J2" s="2" t="n">
+      <c r="I2" s="2">
+        <v>619.25099999999998</v>
+      </c>
+      <c r="J2" s="2">
         <v>217.23155</v>
       </c>
-      <c r="K2" s="2" t="n">
-        <v>619.251</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K2" s="2">
+        <v>619.25099999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -580,17 +821,17 @@
       <c r="H3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="3" t="n">
+      <c r="I3" s="3">
         <v>0.115638763126426</v>
       </c>
-      <c r="J3" s="3" t="n">
-        <v>0.0839128219870343</v>
-      </c>
-      <c r="K3" s="3" t="n">
+      <c r="J3" s="3">
+        <v>8.39128219870343E-2</v>
+      </c>
+      <c r="K3" s="3">
         <v>0.115638763126426</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
@@ -616,14 +857,14 @@
         <v>20</v>
       </c>
       <c r="I4" s="5"/>
-      <c r="J4" s="6" t="n">
+      <c r="J4" s="6">
         <v>0.3</v>
       </c>
-      <c r="K4" s="6" t="n">
+      <c r="K4" s="6">
         <v>0.31</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -649,14 +890,14 @@
         <v>21</v>
       </c>
       <c r="I5" s="7"/>
-      <c r="J5" s="8" t="n">
+      <c r="J5" s="8">
         <v>1</v>
       </c>
-      <c r="K5" s="8" t="n">
+      <c r="K5" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -681,17 +922,17 @@
       <c r="H6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="2" t="n">
-        <v>187.7078</v>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>59.46665</v>
-      </c>
-      <c r="K6" s="2" t="n">
-        <v>187.7078</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I6" s="2">
+        <v>187.70779999999999</v>
+      </c>
+      <c r="J6" s="2">
+        <v>59.466650000000001</v>
+      </c>
+      <c r="K6" s="2">
+        <v>187.70779999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -716,17 +957,17 @@
       <c r="H7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="3" t="n">
-        <v>0.0350525034617344</v>
-      </c>
-      <c r="J7" s="3" t="n">
-        <v>0.0229709469716313</v>
-      </c>
-      <c r="K7" s="3" t="n">
-        <v>0.0350525034617344</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I7" s="3">
+        <v>3.5052503461734399E-2</v>
+      </c>
+      <c r="J7" s="3">
+        <v>2.2970946971631299E-2</v>
+      </c>
+      <c r="K7" s="3">
+        <v>3.5052503461734399E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
@@ -752,14 +993,14 @@
         <v>20</v>
       </c>
       <c r="I8" s="5"/>
-      <c r="J8" s="6" t="n">
+      <c r="J8" s="6">
         <v>0.3</v>
       </c>
-      <c r="K8" s="6" t="n">
+      <c r="K8" s="6">
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
@@ -785,14 +1026,14 @@
         <v>21</v>
       </c>
       <c r="I9" s="7"/>
-      <c r="J9" s="8" t="n">
+      <c r="J9" s="8">
         <v>1</v>
       </c>
-      <c r="K9" s="8" t="n">
+      <c r="K9" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -817,17 +1058,17 @@
       <c r="H10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="2" t="n">
-        <v>187.7078</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>59.46665</v>
-      </c>
-      <c r="K10" s="2" t="n">
-        <v>187.7078</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I10" s="2">
+        <v>187.70779999999999</v>
+      </c>
+      <c r="J10" s="2">
+        <v>59.466650000000001</v>
+      </c>
+      <c r="K10" s="2">
+        <v>187.70779999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -852,17 +1093,17 @@
       <c r="H11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="3" t="n">
-        <v>0.0350525034617344</v>
-      </c>
-      <c r="J11" s="3" t="n">
-        <v>0.0229709469716313</v>
-      </c>
-      <c r="K11" s="3" t="n">
-        <v>0.0350525034617344</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I11" s="3">
+        <v>3.5052503461734399E-2</v>
+      </c>
+      <c r="J11" s="3">
+        <v>2.2970946971631299E-2</v>
+      </c>
+      <c r="K11" s="3">
+        <v>3.5052503461734399E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
@@ -888,14 +1129,14 @@
         <v>20</v>
       </c>
       <c r="I12" s="5"/>
-      <c r="J12" s="6" t="n">
+      <c r="J12" s="6">
         <v>0.3</v>
       </c>
-      <c r="K12" s="6" t="n">
+      <c r="K12" s="6">
         <v>0.3</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
@@ -921,14 +1162,14 @@
         <v>21</v>
       </c>
       <c r="I13" s="7"/>
-      <c r="J13" s="8" t="n">
+      <c r="J13" s="8">
         <v>1</v>
       </c>
-      <c r="K13" s="8" t="n">
+      <c r="K13" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
@@ -953,17 +1194,17 @@
       <c r="H14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I14" s="2" t="n">
-        <v>187.01635</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>63.83495</v>
-      </c>
-      <c r="K14" s="2" t="n">
-        <v>187.01635</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I14" s="2">
+        <v>187.01634999999999</v>
+      </c>
+      <c r="J14" s="2">
+        <v>63.834949999999999</v>
+      </c>
+      <c r="K14" s="2">
+        <v>187.01634999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
@@ -988,17 +1229,17 @@
       <c r="H15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="3" t="n">
-        <v>0.0349233822770068</v>
-      </c>
-      <c r="J15" s="3" t="n">
-        <v>0.0246583463401207</v>
-      </c>
-      <c r="K15" s="3" t="n">
-        <v>0.0349233822770068</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I15" s="3">
+        <v>3.4923382277006802E-2</v>
+      </c>
+      <c r="J15" s="3">
+        <v>2.46583463401207E-2</v>
+      </c>
+      <c r="K15" s="3">
+        <v>3.4923382277006802E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>11</v>
       </c>
@@ -1024,14 +1265,14 @@
         <v>20</v>
       </c>
       <c r="I16" s="5"/>
-      <c r="J16" s="6" t="n">
+      <c r="J16" s="6">
         <v>0.85</v>
       </c>
-      <c r="K16" s="6" t="n">
+      <c r="K16" s="6">
         <v>0.95</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>11</v>
       </c>
@@ -1057,14 +1298,14 @@
         <v>21</v>
       </c>
       <c r="I17" s="7"/>
-      <c r="J17" s="8" t="n">
+      <c r="J17" s="8">
         <v>1</v>
       </c>
-      <c r="K17" s="8" t="n">
+      <c r="K17" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>11</v>
       </c>
@@ -1089,17 +1330,17 @@
       <c r="H18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I18" s="2" t="n">
-        <v>70.3258</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>14.99595</v>
-      </c>
-      <c r="K18" s="2" t="n">
-        <v>70.3258</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I18" s="2">
+        <v>70.325800000000001</v>
+      </c>
+      <c r="J18" s="2">
+        <v>14.995950000000001</v>
+      </c>
+      <c r="K18" s="2">
+        <v>70.325800000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>11</v>
       </c>
@@ -1124,17 +1365,17 @@
       <c r="H19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I19" s="3" t="n">
-        <v>0.0131326207432469</v>
-      </c>
-      <c r="J19" s="3" t="n">
-        <v>0.00579267828672432</v>
-      </c>
-      <c r="K19" s="3" t="n">
-        <v>0.0131326207432469</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I19" s="3">
+        <v>1.3132620743246899E-2</v>
+      </c>
+      <c r="J19" s="3">
+        <v>5.7926782867243204E-3</v>
+      </c>
+      <c r="K19" s="3">
+        <v>1.3132620743246899E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>11</v>
       </c>
@@ -1160,14 +1401,14 @@
         <v>20</v>
       </c>
       <c r="I20" s="5"/>
-      <c r="J20" s="6" t="n">
+      <c r="J20" s="6">
         <v>0.3</v>
       </c>
-      <c r="K20" s="6" t="n">
+      <c r="K20" s="6">
         <v>0.31</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>11</v>
       </c>
@@ -1193,14 +1434,14 @@
         <v>21</v>
       </c>
       <c r="I21" s="7"/>
-      <c r="J21" s="8" t="n">
+      <c r="J21" s="8">
         <v>1</v>
       </c>
-      <c r="K21" s="8" t="n">
+      <c r="K21" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>11</v>
       </c>
@@ -1225,17 +1466,17 @@
       <c r="H22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I22" s="2" t="n">
-        <v>63.1628</v>
-      </c>
-      <c r="J22" s="2" t="n">
+      <c r="I22" s="2">
+        <v>63.162799999999997</v>
+      </c>
+      <c r="J22" s="2">
         <v>12.2623</v>
       </c>
-      <c r="K22" s="2" t="n">
-        <v>63.1628</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K22" s="2">
+        <v>63.162799999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>11</v>
       </c>
@@ -1260,17 +1501,17 @@
       <c r="H23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I23" s="3" t="n">
-        <v>0.0117950040736338</v>
-      </c>
-      <c r="J23" s="3" t="n">
-        <v>0.00473671617705444</v>
-      </c>
-      <c r="K23" s="3" t="n">
-        <v>0.0117950040736338</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I23" s="3">
+        <v>1.17950040736338E-2</v>
+      </c>
+      <c r="J23" s="3">
+        <v>4.7367161770544399E-3</v>
+      </c>
+      <c r="K23" s="3">
+        <v>1.17950040736338E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>11</v>
       </c>
@@ -1296,14 +1537,14 @@
         <v>20</v>
       </c>
       <c r="I24" s="5"/>
-      <c r="J24" s="6" t="n">
+      <c r="J24" s="6">
         <v>0.3</v>
       </c>
-      <c r="K24" s="6" t="n">
+      <c r="K24" s="6">
         <v>0.31</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>11</v>
       </c>
@@ -1329,14 +1570,14 @@
         <v>21</v>
       </c>
       <c r="I25" s="7"/>
-      <c r="J25" s="8" t="n">
+      <c r="J25" s="8">
         <v>1</v>
       </c>
-      <c r="K25" s="8" t="n">
+      <c r="K25" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>11</v>
       </c>
@@ -1361,17 +1602,17 @@
       <c r="H26" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I26" s="2" t="n">
+      <c r="I26" s="2">
         <v>25.8551</v>
       </c>
-      <c r="J26" s="2" t="n">
-        <v>15.1428</v>
-      </c>
-      <c r="K26" s="2" t="n">
+      <c r="J26" s="2">
+        <v>15.142799999999999</v>
+      </c>
+      <c r="K26" s="2">
         <v>25.8551</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>11</v>
       </c>
@@ -1396,17 +1637,17 @@
       <c r="H27" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I27" s="3" t="n">
-        <v>0.00584940392307316</v>
-      </c>
-      <c r="J27" s="3" t="n">
-        <v>0.00584940392307316</v>
-      </c>
-      <c r="K27" s="3" t="n">
-        <v>0.00482817433401003</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I27" s="3">
+        <v>5.84940392307316E-3</v>
+      </c>
+      <c r="J27" s="3">
+        <v>5.84940392307316E-3</v>
+      </c>
+      <c r="K27" s="3">
+        <v>4.8281743340100299E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>11</v>
       </c>
@@ -1432,14 +1673,14 @@
         <v>20</v>
       </c>
       <c r="I28" s="5"/>
-      <c r="J28" s="6" t="n">
+      <c r="J28" s="6">
         <v>0.3</v>
       </c>
-      <c r="K28" s="6" t="n">
+      <c r="K28" s="6">
         <v>0.31</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>11</v>
       </c>
@@ -1465,14 +1706,14 @@
         <v>21</v>
       </c>
       <c r="I29" s="7"/>
-      <c r="J29" s="8" t="n">
+      <c r="J29" s="8">
         <v>1</v>
       </c>
-      <c r="K29" s="8" t="n">
+      <c r="K29" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>11</v>
       </c>
@@ -1497,17 +1738,17 @@
       <c r="H30" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I30" s="2" t="n">
-        <v>19.075665</v>
-      </c>
-      <c r="J30" s="2" t="n">
-        <v>2.115225</v>
-      </c>
-      <c r="K30" s="2" t="n">
-        <v>19.075665</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I30" s="2">
+        <v>19.075665000000001</v>
+      </c>
+      <c r="J30" s="2">
+        <v>2.1152250000000001</v>
+      </c>
+      <c r="K30" s="2">
+        <v>19.075665000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>11</v>
       </c>
@@ -1532,17 +1773,17 @@
       <c r="H31" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I31" s="3" t="n">
-        <v>0.00356218448805742</v>
-      </c>
-      <c r="J31" s="3" t="n">
-        <v>0.00081707513888993</v>
-      </c>
-      <c r="K31" s="3" t="n">
-        <v>0.00356218448805742</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I31" s="3">
+        <v>3.5621844880574199E-3</v>
+      </c>
+      <c r="J31" s="3">
+        <v>8.1707513888993005E-4</v>
+      </c>
+      <c r="K31" s="3">
+        <v>3.5621844880574199E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>11</v>
       </c>
@@ -1568,14 +1809,14 @@
         <v>20</v>
       </c>
       <c r="I32" s="5"/>
-      <c r="J32" s="6" t="n">
+      <c r="J32" s="6">
         <v>0.1</v>
       </c>
-      <c r="K32" s="6" t="n">
+      <c r="K32" s="6">
         <v>0.12</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>11</v>
       </c>
@@ -1601,14 +1842,14 @@
         <v>21</v>
       </c>
       <c r="I33" s="7"/>
-      <c r="J33" s="8" t="n">
+      <c r="J33" s="8">
         <v>1</v>
       </c>
-      <c r="K33" s="8" t="n">
+      <c r="K33" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>11</v>
       </c>
@@ -1633,17 +1874,17 @@
       <c r="H34" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I34" s="2" t="n">
+      <c r="I34" s="2">
         <v>158.903695</v>
       </c>
-      <c r="J34" s="2" t="n">
-        <v>141.117905</v>
-      </c>
-      <c r="K34" s="2" t="n">
+      <c r="J34" s="2">
+        <v>141.11790500000001</v>
+      </c>
+      <c r="K34" s="2">
         <v>158.903695</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>11</v>
       </c>
@@ -1668,17 +1909,17 @@
       <c r="H35" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I35" s="3" t="n">
-        <v>0.0545114263625529</v>
-      </c>
-      <c r="J35" s="3" t="n">
-        <v>0.0545114263625529</v>
-      </c>
-      <c r="K35" s="3" t="n">
-        <v>0.0296736327369981</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I35" s="3">
+        <v>5.4511426362552899E-2</v>
+      </c>
+      <c r="J35" s="3">
+        <v>5.4511426362552899E-2</v>
+      </c>
+      <c r="K35" s="3">
+        <v>2.96736327369981E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>11</v>
       </c>
@@ -1704,14 +1945,14 @@
         <v>20</v>
       </c>
       <c r="I36" s="5"/>
-      <c r="J36" s="6" t="n">
+      <c r="J36" s="6">
         <v>0.2</v>
       </c>
-      <c r="K36" s="6" t="n">
+      <c r="K36" s="6">
         <v>0.2</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>11</v>
       </c>
@@ -1737,14 +1978,14 @@
         <v>21</v>
       </c>
       <c r="I37" s="7"/>
-      <c r="J37" s="8" t="n">
-        <v>0.126120058565154</v>
-      </c>
-      <c r="K37" s="8" t="n">
+      <c r="J37" s="8">
+        <v>0.12612005856515399</v>
+      </c>
+      <c r="K37" s="8">
         <v>0.183016105417277</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>11</v>
       </c>
@@ -1769,17 +2010,17 @@
       <c r="H38" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I38" s="2" t="n">
-        <v>26.4235</v>
-      </c>
-      <c r="J38" s="2" t="n">
+      <c r="I38" s="2">
+        <v>26.423500000000001</v>
+      </c>
+      <c r="J38" s="2">
         <v>19.5304</v>
       </c>
-      <c r="K38" s="2" t="n">
-        <v>26.4235</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K38" s="2">
+        <v>26.423500000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>11</v>
       </c>
@@ -1804,17 +2045,17 @@
       <c r="H39" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I39" s="3" t="n">
-        <v>0.00754425855054469</v>
-      </c>
-      <c r="J39" s="3" t="n">
-        <v>0.00754425855054469</v>
-      </c>
-      <c r="K39" s="3" t="n">
-        <v>0.00493431719524249</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I39" s="3">
+        <v>7.5442585505446904E-3</v>
+      </c>
+      <c r="J39" s="3">
+        <v>7.5442585505446904E-3</v>
+      </c>
+      <c r="K39" s="3">
+        <v>4.9343171952424903E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>11</v>
       </c>
@@ -1840,14 +2081,14 @@
         <v>20</v>
       </c>
       <c r="I40" s="5"/>
-      <c r="J40" s="6" t="n">
+      <c r="J40" s="6">
         <v>0.85</v>
       </c>
-      <c r="K40" s="6" t="n">
+      <c r="K40" s="6">
         <v>0.86</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>11</v>
       </c>
@@ -1873,14 +2114,14 @@
         <v>21</v>
       </c>
       <c r="I41" s="7"/>
-      <c r="J41" s="8" t="n">
+      <c r="J41" s="8">
         <v>0.658535188684648</v>
       </c>
-      <c r="K41" s="8" t="n">
+      <c r="K41" s="8">
         <v>0.658535188684648</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>11</v>
       </c>
@@ -1905,15 +2146,15 @@
       <c r="H42" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I42" s="2" t="n">
+      <c r="I42" s="2">
         <v>15.84695</v>
       </c>
-      <c r="J42" s="2" t="n">
+      <c r="J42" s="2">
         <v>15.84695</v>
       </c>
       <c r="K42" s="2"/>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>11</v>
       </c>
@@ -1938,15 +2179,15 @@
       <c r="H43" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I43" s="3" t="n">
-        <v>0.00612140499106798</v>
-      </c>
-      <c r="J43" s="3" t="n">
-        <v>0.00612140499106798</v>
+      <c r="I43" s="3">
+        <v>6.1214049910679798E-3</v>
+      </c>
+      <c r="J43" s="3">
+        <v>6.1214049910679798E-3</v>
       </c>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>11</v>
       </c>
@@ -1972,12 +2213,12 @@
         <v>20</v>
       </c>
       <c r="I44" s="5"/>
-      <c r="J44" s="6" t="n">
+      <c r="J44" s="6">
         <v>0.85</v>
       </c>
       <c r="K44" s="6"/>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>11</v>
       </c>
@@ -2003,12 +2244,12 @@
         <v>21</v>
       </c>
       <c r="I45" s="7"/>
-      <c r="J45" s="8" t="n">
+      <c r="J45" s="8">
         <v>0.658535188684648</v>
       </c>
       <c r="K45" s="8"/>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>11</v>
       </c>
@@ -2033,17 +2274,17 @@
       <c r="H46" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I46" s="2" t="n">
-        <v>685.2728</v>
-      </c>
-      <c r="J46" s="2" t="n">
+      <c r="I46" s="2">
+        <v>685.27279999999996</v>
+      </c>
+      <c r="J46" s="2">
         <v>145.696</v>
       </c>
-      <c r="K46" s="2" t="n">
-        <v>685.2728</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K46" s="2">
+        <v>685.27279999999996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>11</v>
       </c>
@@ -2068,17 +2309,17 @@
       <c r="H47" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I47" s="3" t="n">
+      <c r="I47" s="3">
         <v>0.127967656081593</v>
       </c>
-      <c r="J47" s="3" t="n">
-        <v>0.0562798659413099</v>
-      </c>
-      <c r="K47" s="3" t="n">
+      <c r="J47" s="3">
+        <v>5.6279865941309903E-2</v>
+      </c>
+      <c r="K47" s="3">
         <v>0.127967656081593</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>11</v>
       </c>
@@ -2104,14 +2345,14 @@
         <v>20</v>
       </c>
       <c r="I48" s="5"/>
-      <c r="J48" s="6" t="n">
+      <c r="J48" s="6">
         <v>0.85</v>
       </c>
-      <c r="K48" s="6" t="n">
+      <c r="K48" s="6">
         <v>0.86</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>11</v>
       </c>
@@ -2137,14 +2378,14 @@
         <v>21</v>
       </c>
       <c r="I49" s="7"/>
-      <c r="J49" s="8" t="n">
-        <v>0.369861566099546</v>
-      </c>
-      <c r="K49" s="8" t="n">
-        <v>0.369861566099546</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J49" s="8">
+        <v>0.36986156609954601</v>
+      </c>
+      <c r="K49" s="8">
+        <v>0.36986156609954601</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>11</v>
       </c>
@@ -2169,17 +2410,17 @@
       <c r="H50" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I50" s="2" t="n">
+      <c r="I50" s="2">
         <v>216.6498</v>
       </c>
-      <c r="J50" s="2" t="n">
-        <v>136.9423</v>
-      </c>
-      <c r="K50" s="2" t="n">
+      <c r="J50" s="2">
+        <v>136.94229999999999</v>
+      </c>
+      <c r="K50" s="2">
         <v>216.6498</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>11</v>
       </c>
@@ -2204,17 +2445,17 @@
       <c r="H51" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I51" s="3" t="n">
-        <v>0.0528984617676164</v>
-      </c>
-      <c r="J51" s="3" t="n">
-        <v>0.0528984617676164</v>
-      </c>
-      <c r="K51" s="3" t="n">
-        <v>0.0404571246612238</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I51" s="3">
+        <v>5.2898461767616402E-2</v>
+      </c>
+      <c r="J51" s="3">
+        <v>5.2898461767616402E-2</v>
+      </c>
+      <c r="K51" s="3">
+        <v>4.0457124661223802E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>11</v>
       </c>
@@ -2240,14 +2481,14 @@
         <v>20</v>
       </c>
       <c r="I52" s="5"/>
-      <c r="J52" s="6" t="n">
+      <c r="J52" s="6">
         <v>0.85</v>
       </c>
-      <c r="K52" s="6" t="n">
+      <c r="K52" s="6">
         <v>0.86</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>11</v>
       </c>
@@ -2273,14 +2514,14 @@
         <v>21</v>
       </c>
       <c r="I53" s="7"/>
-      <c r="J53" s="8" t="n">
-        <v>0.369861566099546</v>
-      </c>
-      <c r="K53" s="8" t="n">
-        <v>0.369861566099546</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J53" s="8">
+        <v>0.36986156609954601</v>
+      </c>
+      <c r="K53" s="8">
+        <v>0.36986156609954601</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>11</v>
       </c>
@@ -2305,17 +2546,17 @@
       <c r="H54" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I54" s="2" t="n">
+      <c r="I54" s="2">
         <v>148.09976</v>
       </c>
-      <c r="J54" s="2" t="n">
-        <v>9.35512</v>
-      </c>
-      <c r="K54" s="2" t="n">
+      <c r="J54" s="2">
+        <v>9.3551199999999994</v>
+      </c>
+      <c r="K54" s="2">
         <v>148.09976</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>11</v>
       </c>
@@ -2340,17 +2581,17 @@
       <c r="H55" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I55" s="3" t="n">
-        <v>0.0276561088568617</v>
-      </c>
-      <c r="J55" s="3" t="n">
-        <v>0.00361372240462928</v>
-      </c>
-      <c r="K55" s="3" t="n">
-        <v>0.0276561088568617</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I55" s="3">
+        <v>2.7656108856861698E-2</v>
+      </c>
+      <c r="J55" s="3">
+        <v>3.6137224046292799E-3</v>
+      </c>
+      <c r="K55" s="3">
+        <v>2.7656108856861698E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>11</v>
       </c>
@@ -2376,14 +2617,14 @@
         <v>20</v>
       </c>
       <c r="I56" s="5"/>
-      <c r="J56" s="6" t="n">
+      <c r="J56" s="6">
         <v>0.97</v>
       </c>
-      <c r="K56" s="6" t="n">
+      <c r="K56" s="6">
         <v>0.99</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>11</v>
       </c>
@@ -2409,14 +2650,14 @@
         <v>21</v>
       </c>
       <c r="I57" s="7"/>
-      <c r="J57" s="8" t="n">
-        <v>0.369861566099546</v>
-      </c>
-      <c r="K57" s="8" t="n">
-        <v>0.369861566099546</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J57" s="8">
+        <v>0.36986156609954601</v>
+      </c>
+      <c r="K57" s="8">
+        <v>0.36986156609954601</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>11</v>
       </c>
@@ -2441,17 +2682,17 @@
       <c r="H58" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I58" s="2" t="n">
-        <v>19.075665</v>
-      </c>
-      <c r="J58" s="2" t="n">
-        <v>2.115225</v>
-      </c>
-      <c r="K58" s="2" t="n">
-        <v>19.075665</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I58" s="2">
+        <v>19.075665000000001</v>
+      </c>
+      <c r="J58" s="2">
+        <v>2.1152250000000001</v>
+      </c>
+      <c r="K58" s="2">
+        <v>19.075665000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>11</v>
       </c>
@@ -2476,17 +2717,17 @@
       <c r="H59" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I59" s="3" t="n">
-        <v>0.00356218448805742</v>
-      </c>
-      <c r="J59" s="3" t="n">
-        <v>0.00081707513888993</v>
-      </c>
-      <c r="K59" s="3" t="n">
-        <v>0.00356218448805742</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I59" s="3">
+        <v>3.5621844880574199E-3</v>
+      </c>
+      <c r="J59" s="3">
+        <v>8.1707513888993005E-4</v>
+      </c>
+      <c r="K59" s="3">
+        <v>3.5621844880574199E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>11</v>
       </c>
@@ -2512,14 +2753,14 @@
         <v>20</v>
       </c>
       <c r="I60" s="5"/>
-      <c r="J60" s="6" t="n">
+      <c r="J60" s="6">
         <v>0.85</v>
       </c>
-      <c r="K60" s="6" t="n">
+      <c r="K60" s="6">
         <v>0.85</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>11</v>
       </c>
@@ -2545,14 +2786,14 @@
         <v>21</v>
       </c>
       <c r="I61" s="7"/>
-      <c r="J61" s="8" t="n">
-        <v>0.369861566099546</v>
-      </c>
-      <c r="K61" s="8" t="n">
-        <v>0.369861566099546</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J61" s="8">
+        <v>0.36986156609954601</v>
+      </c>
+      <c r="K61" s="8">
+        <v>0.36986156609954601</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>11</v>
       </c>
@@ -2577,15 +2818,15 @@
       <c r="H62" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I62" s="2" t="n">
-        <v>4.519</v>
+      <c r="I62" s="2">
+        <v>4.5190000000000001</v>
       </c>
       <c r="J62" s="2"/>
-      <c r="K62" s="2" t="n">
-        <v>4.519</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K62" s="2">
+        <v>4.5190000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>11</v>
       </c>
@@ -2610,15 +2851,15 @@
       <c r="H63" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I63" s="3" t="n">
-        <v>0.000843876829538132</v>
+      <c r="I63" s="3">
+        <v>8.43876829538132E-4</v>
       </c>
       <c r="J63" s="3"/>
-      <c r="K63" s="3" t="n">
-        <v>0.000843876829538132</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K63" s="3">
+        <v>8.43876829538132E-4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>11</v>
       </c>
@@ -2645,11 +2886,11 @@
       </c>
       <c r="I64" s="5"/>
       <c r="J64" s="6"/>
-      <c r="K64" s="6" t="n">
+      <c r="K64" s="6">
         <v>0.48</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>11</v>
       </c>
@@ -2676,11 +2917,11 @@
       </c>
       <c r="I65" s="7"/>
       <c r="J65" s="8"/>
-      <c r="K65" s="8" t="n">
-        <v>0.369861566099546</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K65" s="8">
+        <v>0.36986156609954601</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>11</v>
       </c>
@@ -2705,15 +2946,15 @@
       <c r="H66" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I66" s="2" t="n">
-        <v>1.1608</v>
-      </c>
-      <c r="J66" s="2" t="n">
-        <v>1.1608</v>
+      <c r="I66" s="2">
+        <v>1.1608000000000001</v>
+      </c>
+      <c r="J66" s="2">
+        <v>1.1608000000000001</v>
       </c>
       <c r="K66" s="2"/>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>11</v>
       </c>
@@ -2738,15 +2979,15 @@
       <c r="H67" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I67" s="3" t="n">
-        <v>0.000448397130907317</v>
-      </c>
-      <c r="J67" s="3" t="n">
-        <v>0.000448397130907317</v>
+      <c r="I67" s="3">
+        <v>4.4839713090731701E-4</v>
+      </c>
+      <c r="J67" s="3">
+        <v>4.4839713090731701E-4</v>
       </c>
       <c r="K67" s="3"/>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>11</v>
       </c>
@@ -2772,12 +3013,12 @@
         <v>20</v>
       </c>
       <c r="I68" s="5"/>
-      <c r="J68" s="6" t="n">
+      <c r="J68" s="6">
         <v>0.65</v>
       </c>
       <c r="K68" s="6"/>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>11</v>
       </c>
@@ -2803,12 +3044,12 @@
         <v>21</v>
       </c>
       <c r="I69" s="7"/>
-      <c r="J69" s="8" t="n">
-        <v>0.369861566099546</v>
+      <c r="J69" s="8">
+        <v>0.36986156609954601</v>
       </c>
       <c r="K69" s="8"/>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>11</v>
       </c>
@@ -2833,17 +3074,17 @@
       <c r="H70" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I70" s="2" t="n">
-        <v>2111.7322</v>
-      </c>
-      <c r="J70" s="2" t="n">
-        <v>1464.1253</v>
-      </c>
-      <c r="K70" s="2" t="n">
-        <v>2111.7322</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I70" s="2">
+        <v>2111.7321999999999</v>
+      </c>
+      <c r="J70" s="2">
+        <v>1464.1252999999999</v>
+      </c>
+      <c r="K70" s="2">
+        <v>2111.7321999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>11</v>
       </c>
@@ -2868,17 +3109,17 @@
       <c r="H71" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I71" s="3" t="n">
-        <v>0.565566491909731</v>
-      </c>
-      <c r="J71" s="3" t="n">
-        <v>0.565566491909731</v>
-      </c>
-      <c r="K71" s="3" t="n">
-        <v>0.394344296032216</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I71" s="3">
+        <v>0.56556649190973096</v>
+      </c>
+      <c r="J71" s="3">
+        <v>0.56556649190973096</v>
+      </c>
+      <c r="K71" s="3">
+        <v>0.39434429603221599</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>11</v>
       </c>
@@ -2904,14 +3145,14 @@
         <v>20</v>
       </c>
       <c r="I72" s="5"/>
-      <c r="J72" s="6" t="n">
+      <c r="J72" s="6">
         <v>0.12</v>
       </c>
-      <c r="K72" s="6" t="n">
+      <c r="K72" s="6">
         <v>0.12</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>11</v>
       </c>
@@ -2937,14 +3178,14 @@
         <v>21</v>
       </c>
       <c r="I73" s="7"/>
-      <c r="J73" s="8" t="n">
-        <v>0.200991558354549</v>
-      </c>
-      <c r="K73" s="8" t="n">
-        <v>0.200991558354549</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J73" s="8">
+        <v>0.20099155835454899</v>
+      </c>
+      <c r="K73" s="8">
+        <v>0.20099155835454899</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>11</v>
       </c>
@@ -2969,17 +3210,17 @@
       <c r="H74" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I74" s="2" t="n">
-        <v>515.6874</v>
-      </c>
-      <c r="J74" s="2" t="n">
-        <v>119.1745</v>
-      </c>
-      <c r="K74" s="2" t="n">
-        <v>515.6874</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I74" s="2">
+        <v>515.68740000000003</v>
+      </c>
+      <c r="J74" s="2">
+        <v>119.17449999999999</v>
+      </c>
+      <c r="K74" s="2">
+        <v>515.68740000000003</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>11</v>
       </c>
@@ -3004,17 +3245,17 @@
       <c r="H75" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I75" s="3" t="n">
-        <v>0.0962993246613769</v>
-      </c>
-      <c r="J75" s="3" t="n">
-        <v>0.0460350653663974</v>
-      </c>
-      <c r="K75" s="3" t="n">
-        <v>0.0962993246613769</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I75" s="3">
+        <v>9.6299324661376903E-2</v>
+      </c>
+      <c r="J75" s="3">
+        <v>4.6035065366397399E-2</v>
+      </c>
+      <c r="K75" s="3">
+        <v>9.6299324661376903E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>11</v>
       </c>
@@ -3040,14 +3281,14 @@
         <v>20</v>
       </c>
       <c r="I76" s="5"/>
-      <c r="J76" s="6" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="K76" s="6" t="n">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J76" s="6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K76" s="6">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>11</v>
       </c>
@@ -3073,14 +3314,14 @@
         <v>21</v>
       </c>
       <c r="I77" s="7"/>
-      <c r="J77" s="8" t="n">
-        <v>0.200991558354549</v>
-      </c>
-      <c r="K77" s="8" t="n">
-        <v>0.200991558354549</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J77" s="8">
+        <v>0.20099155835454899</v>
+      </c>
+      <c r="K77" s="8">
+        <v>0.20099155835454899</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>11</v>
       </c>
@@ -3105,17 +3346,17 @@
       <c r="H78" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I78" s="2" t="n">
-        <v>83.6916</v>
-      </c>
-      <c r="J78" s="2" t="n">
-        <v>83.6916</v>
-      </c>
-      <c r="K78" s="2" t="n">
-        <v>53.3534</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I78" s="2">
+        <v>83.691599999999994</v>
+      </c>
+      <c r="J78" s="2">
+        <v>83.691599999999994</v>
+      </c>
+      <c r="K78" s="2">
+        <v>53.353400000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>11</v>
       </c>
@@ -3140,17 +3381,17 @@
       <c r="H79" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I79" s="3" t="n">
-        <v>0.032328629670092</v>
-      </c>
-      <c r="J79" s="3" t="n">
-        <v>0.032328629670092</v>
-      </c>
-      <c r="K79" s="3" t="n">
-        <v>0.00996319938859919</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I79" s="3">
+        <v>3.2328629670092E-2</v>
+      </c>
+      <c r="J79" s="3">
+        <v>3.2328629670092E-2</v>
+      </c>
+      <c r="K79" s="3">
+        <v>9.96319938859919E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>11</v>
       </c>
@@ -3176,14 +3417,14 @@
         <v>20</v>
       </c>
       <c r="I80" s="5"/>
-      <c r="J80" s="6" t="n">
+      <c r="J80" s="6">
         <v>0.16</v>
       </c>
-      <c r="K80" s="6" t="n">
+      <c r="K80" s="6">
         <v>0.16</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>11</v>
       </c>
@@ -3209,14 +3450,14 @@
         <v>21</v>
       </c>
       <c r="I81" s="7"/>
-      <c r="J81" s="8" t="n">
-        <v>0.200991558354549</v>
-      </c>
-      <c r="K81" s="8" t="n">
-        <v>0.200991558354549</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J81" s="8">
+        <v>0.20099155835454899</v>
+      </c>
+      <c r="K81" s="8">
+        <v>0.20099155835454899</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>11</v>
       </c>
@@ -3241,17 +3482,17 @@
       <c r="H82" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I82" s="2" t="n">
-        <v>36.1517</v>
-      </c>
-      <c r="J82" s="2" t="n">
-        <v>3.3892</v>
-      </c>
-      <c r="K82" s="2" t="n">
-        <v>36.1517</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I82" s="2">
+        <v>36.151699999999998</v>
+      </c>
+      <c r="J82" s="2">
+        <v>3.3892000000000002</v>
+      </c>
+      <c r="K82" s="2">
+        <v>36.151699999999998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>11</v>
       </c>
@@ -3276,17 +3517,17 @@
       <c r="H83" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I83" s="3" t="n">
-        <v>0.00675095861438674</v>
-      </c>
-      <c r="J83" s="3" t="n">
-        <v>0.00130918983121216</v>
-      </c>
-      <c r="K83" s="3" t="n">
-        <v>0.00675095861438674</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I83" s="3">
+        <v>6.7509586143867399E-3</v>
+      </c>
+      <c r="J83" s="3">
+        <v>1.30918983121216E-3</v>
+      </c>
+      <c r="K83" s="3">
+        <v>6.7509586143867399E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>11</v>
       </c>
@@ -3312,14 +3553,14 @@
         <v>20</v>
       </c>
       <c r="I84" s="5"/>
-      <c r="J84" s="6" t="n">
+      <c r="J84" s="6">
         <v>0.18</v>
       </c>
-      <c r="K84" s="6" t="n">
+      <c r="K84" s="6">
         <v>0.18</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>11</v>
       </c>
@@ -3345,14 +3586,14 @@
         <v>21</v>
       </c>
       <c r="I85" s="7"/>
-      <c r="J85" s="8" t="n">
-        <v>0.200991558354549</v>
-      </c>
-      <c r="K85" s="8" t="n">
-        <v>0.200991558354549</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J85" s="8">
+        <v>0.20099155835454899</v>
+      </c>
+      <c r="K85" s="8">
+        <v>0.20099155835454899</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>11</v>
       </c>
@@ -3377,17 +3618,17 @@
       <c r="H86" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I86" s="2" t="n">
-        <v>19.075665</v>
-      </c>
-      <c r="J86" s="2" t="n">
-        <v>2.115225</v>
-      </c>
-      <c r="K86" s="2" t="n">
-        <v>19.075665</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I86" s="2">
+        <v>19.075665000000001</v>
+      </c>
+      <c r="J86" s="2">
+        <v>2.1152250000000001</v>
+      </c>
+      <c r="K86" s="2">
+        <v>19.075665000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>11</v>
       </c>
@@ -3412,17 +3653,17 @@
       <c r="H87" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I87" s="3" t="n">
-        <v>0.00356218448805742</v>
-      </c>
-      <c r="J87" s="3" t="n">
-        <v>0.00081707513888993</v>
-      </c>
-      <c r="K87" s="3" t="n">
-        <v>0.00356218448805742</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I87" s="3">
+        <v>3.5621844880574199E-3</v>
+      </c>
+      <c r="J87" s="3">
+        <v>8.1707513888993005E-4</v>
+      </c>
+      <c r="K87" s="3">
+        <v>3.5621844880574199E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>11</v>
       </c>
@@ -3448,14 +3689,14 @@
         <v>20</v>
       </c>
       <c r="I88" s="5"/>
-      <c r="J88" s="6" t="n">
+      <c r="J88" s="6">
         <v>0.7</v>
       </c>
-      <c r="K88" s="6" t="n">
+      <c r="K88" s="6">
         <v>0.7</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>11</v>
       </c>
@@ -3481,14 +3722,14 @@
         <v>21</v>
       </c>
       <c r="I89" s="7"/>
-      <c r="J89" s="8" t="n">
-        <v>0.200991558354549</v>
-      </c>
-      <c r="K89" s="8" t="n">
-        <v>0.200991558354549</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J89" s="8">
+        <v>0.20099155835454899</v>
+      </c>
+      <c r="K89" s="8">
+        <v>0.20099155835454899</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>11</v>
       </c>
@@ -3513,15 +3754,15 @@
       <c r="H90" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I90" s="2" t="n">
-        <v>5.589</v>
+      <c r="I90" s="2">
+        <v>5.5890000000000004</v>
       </c>
       <c r="J90" s="2"/>
-      <c r="K90" s="2" t="n">
-        <v>5.589</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K90" s="2">
+        <v>5.5890000000000004</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>11</v>
       </c>
@@ -3546,15 +3787,15 @@
       <c r="H91" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I91" s="3" t="n">
-        <v>0.0010305607070786</v>
+      <c r="I91" s="3">
+        <v>1.0305607070785999E-3</v>
       </c>
       <c r="J91" s="3"/>
-      <c r="K91" s="3" t="n">
-        <v>0.0010305607070786</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K91" s="3">
+        <v>1.0305607070785999E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>11</v>
       </c>
@@ -3581,11 +3822,11 @@
       </c>
       <c r="I92" s="5"/>
       <c r="J92" s="6"/>
-      <c r="K92" s="6" t="n">
-        <v>1E-006</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K92" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
         <v>11</v>
       </c>
@@ -3612,11 +3853,11 @@
       </c>
       <c r="I93" s="7"/>
       <c r="J93" s="8"/>
-      <c r="K93" s="8" t="n">
+      <c r="K93" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>11</v>
       </c>
@@ -3641,17 +3882,17 @@
       <c r="H94" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I94" s="2" t="n">
+      <c r="I94" s="2">
         <v>31.0977</v>
       </c>
-      <c r="J94" s="2" t="n">
-        <v>18.0567</v>
-      </c>
-      <c r="K94" s="2" t="n">
+      <c r="J94" s="2">
+        <v>18.056699999999999</v>
+      </c>
+      <c r="K94" s="2">
         <v>31.0977</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>11</v>
       </c>
@@ -3676,17 +3917,17 @@
       <c r="H95" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I95" s="3" t="n">
-        <v>0.00692667996837389</v>
-      </c>
-      <c r="J95" s="3" t="n">
-        <v>0.00692667996837389</v>
-      </c>
-      <c r="K95" s="3" t="n">
-        <v>0.00573413270719594</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I95" s="3">
+        <v>6.9266799683738896E-3</v>
+      </c>
+      <c r="J95" s="3">
+        <v>6.9266799683738896E-3</v>
+      </c>
+      <c r="K95" s="3">
+        <v>5.7341327071959401E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>11</v>
       </c>
@@ -3712,14 +3953,14 @@
         <v>20</v>
       </c>
       <c r="I96" s="5"/>
-      <c r="J96" s="6" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="K96" s="6" t="n">
-        <v>1E-006</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J96" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="K96" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
         <v>11</v>
       </c>
@@ -3745,14 +3986,14 @@
         <v>21</v>
       </c>
       <c r="I97" s="7"/>
-      <c r="J97" s="8" t="n">
+      <c r="J97" s="8">
         <v>1</v>
       </c>
-      <c r="K97" s="8" t="n">
+      <c r="K97" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>11</v>
       </c>
@@ -3777,15 +4018,15 @@
       <c r="H98" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I98" s="2" t="n">
-        <v>31.5277</v>
+      <c r="I98" s="2">
+        <v>31.527699999999999</v>
       </c>
       <c r="J98" s="2"/>
-      <c r="K98" s="2" t="n">
-        <v>31.5277</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K98" s="2">
+        <v>31.527699999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>11</v>
       </c>
@@ -3810,15 +4051,15 @@
       <c r="H99" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I99" s="3" t="n">
-        <v>0.00581342079165538</v>
+      <c r="I99" s="3">
+        <v>5.8134207916553798E-3</v>
       </c>
       <c r="J99" s="3"/>
-      <c r="K99" s="3" t="n">
-        <v>0.00581342079165538</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K99" s="3">
+        <v>5.8134207916553798E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
         <v>11</v>
       </c>
@@ -3845,11 +4086,11 @@
       </c>
       <c r="I100" s="5"/>
       <c r="J100" s="6"/>
-      <c r="K100" s="6" t="n">
-        <v>1E-006</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K100" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
         <v>11</v>
       </c>
@@ -3876,11 +4117,11 @@
       </c>
       <c r="I101" s="7"/>
       <c r="J101" s="8"/>
-      <c r="K101" s="8" t="n">
+      <c r="K101" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>47</v>
       </c>
@@ -3905,17 +4146,17 @@
       <c r="H102" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I102" s="2" t="n">
-        <v>3295.5134</v>
-      </c>
-      <c r="J102" s="2" t="n">
-        <v>3295.5134</v>
-      </c>
-      <c r="K102" s="2" t="n">
-        <v>192.6513</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I102" s="2">
+        <v>3295.5133999999998</v>
+      </c>
+      <c r="J102" s="2">
+        <v>3295.5133999999998</v>
+      </c>
+      <c r="K102" s="2">
+        <v>192.65129999999999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>47</v>
       </c>
@@ -3940,17 +4181,17 @@
       <c r="H103" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I103" s="3" t="n">
-        <v>0.0992218578140812</v>
-      </c>
-      <c r="J103" s="3" t="n">
-        <v>0.0992218578140812</v>
-      </c>
-      <c r="K103" s="3" t="n">
-        <v>0.00367073587619163</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I103" s="3">
+        <v>9.9221857814081202E-2</v>
+      </c>
+      <c r="J103" s="3">
+        <v>9.9221857814081202E-2</v>
+      </c>
+      <c r="K103" s="3">
+        <v>3.6707358761916302E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
         <v>47</v>
       </c>
@@ -3976,14 +4217,14 @@
         <v>20</v>
       </c>
       <c r="I104" s="5"/>
-      <c r="J104" s="6" t="n">
+      <c r="J104" s="6">
         <v>0.6</v>
       </c>
-      <c r="K104" s="6" t="n">
+      <c r="K104" s="6">
         <v>0.62</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
         <v>47</v>
       </c>
@@ -4009,14 +4250,14 @@
         <v>21</v>
       </c>
       <c r="I105" s="7"/>
-      <c r="J105" s="8" t="n">
+      <c r="J105" s="8">
         <v>1</v>
       </c>
-      <c r="K105" s="8" t="n">
+      <c r="K105" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>47</v>
       </c>
@@ -4041,17 +4282,17 @@
       <c r="H106" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I106" s="2" t="n">
-        <v>5168.69311</v>
-      </c>
-      <c r="J106" s="2" t="n">
-        <v>1030.44719</v>
-      </c>
-      <c r="K106" s="2" t="n">
-        <v>5168.69311</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I106" s="2">
+        <v>5168.6931100000002</v>
+      </c>
+      <c r="J106" s="2">
+        <v>1030.4471900000001</v>
+      </c>
+      <c r="K106" s="2">
+        <v>5168.6931100000002</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>47</v>
       </c>
@@ -4076,17 +4317,17 @@
       <c r="H107" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I107" s="3" t="n">
-        <v>0.0984831518494893</v>
-      </c>
-      <c r="J107" s="3" t="n">
-        <v>0.0310248729594301</v>
-      </c>
-      <c r="K107" s="3" t="n">
-        <v>0.0984831518494893</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I107" s="3">
+        <v>9.8483151849489303E-2</v>
+      </c>
+      <c r="J107" s="3">
+        <v>3.10248729594301E-2</v>
+      </c>
+      <c r="K107" s="3">
+        <v>9.8483151849489303E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
         <v>47</v>
       </c>
@@ -4112,14 +4353,14 @@
         <v>20</v>
       </c>
       <c r="I108" s="5"/>
-      <c r="J108" s="6" t="n">
+      <c r="J108" s="6">
         <v>0.87</v>
       </c>
-      <c r="K108" s="6" t="n">
+      <c r="K108" s="6">
         <v>0.96</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
         <v>47</v>
       </c>
@@ -4145,14 +4386,14 @@
         <v>21</v>
       </c>
       <c r="I109" s="7"/>
-      <c r="J109" s="8" t="n">
+      <c r="J109" s="8">
         <v>1</v>
       </c>
-      <c r="K109" s="8" t="n">
+      <c r="K109" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>47</v>
       </c>
@@ -4177,17 +4418,17 @@
       <c r="H110" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I110" s="2" t="n">
-        <v>4109.3926</v>
-      </c>
-      <c r="J110" s="2" t="n">
-        <v>1850.6162</v>
-      </c>
-      <c r="K110" s="2" t="n">
-        <v>4109.3926</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I110" s="2">
+        <v>4109.3926000000001</v>
+      </c>
+      <c r="J110" s="2">
+        <v>1850.6161999999999</v>
+      </c>
+      <c r="K110" s="2">
+        <v>4109.3926000000001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>47</v>
       </c>
@@ -4212,17 +4453,17 @@
       <c r="H111" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I111" s="3" t="n">
-        <v>0.0782994708376036</v>
-      </c>
-      <c r="J111" s="3" t="n">
-        <v>0.0557186559960082</v>
-      </c>
-      <c r="K111" s="3" t="n">
-        <v>0.0782994708376036</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I111" s="3">
+        <v>7.8299470837603594E-2</v>
+      </c>
+      <c r="J111" s="3">
+        <v>5.5718655996008198E-2</v>
+      </c>
+      <c r="K111" s="3">
+        <v>7.8299470837603594E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
         <v>47</v>
       </c>
@@ -4248,14 +4489,14 @@
         <v>20</v>
       </c>
       <c r="I112" s="5"/>
-      <c r="J112" s="6" t="n">
+      <c r="J112" s="6">
         <v>0.3</v>
       </c>
-      <c r="K112" s="6" t="n">
+      <c r="K112" s="6">
         <v>0.31</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
         <v>47</v>
       </c>
@@ -4281,14 +4522,14 @@
         <v>21</v>
       </c>
       <c r="I113" s="7"/>
-      <c r="J113" s="8" t="n">
+      <c r="J113" s="8">
         <v>1</v>
       </c>
-      <c r="K113" s="8" t="n">
+      <c r="K113" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>47</v>
       </c>
@@ -4313,17 +4554,17 @@
       <c r="H114" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I114" s="2" t="n">
-        <v>4029.2543</v>
-      </c>
-      <c r="J114" s="2" t="n">
-        <v>2305.6654</v>
-      </c>
-      <c r="K114" s="2" t="n">
-        <v>4029.2543</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I114" s="2">
+        <v>4029.2543000000001</v>
+      </c>
+      <c r="J114" s="2">
+        <v>2305.6653999999999</v>
+      </c>
+      <c r="K114" s="2">
+        <v>4029.2543000000001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>47</v>
       </c>
@@ -4348,17 +4589,17 @@
       <c r="H115" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I115" s="3" t="n">
-        <v>0.0767725331378995</v>
-      </c>
-      <c r="J115" s="3" t="n">
-        <v>0.0694193519242394</v>
-      </c>
-      <c r="K115" s="3" t="n">
-        <v>0.0767725331378995</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I115" s="3">
+        <v>7.6772533137899501E-2</v>
+      </c>
+      <c r="J115" s="3">
+        <v>6.9419351924239397E-2</v>
+      </c>
+      <c r="K115" s="3">
+        <v>7.6772533137899501E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
         <v>47</v>
       </c>
@@ -4384,14 +4625,14 @@
         <v>20</v>
       </c>
       <c r="I116" s="5"/>
-      <c r="J116" s="6" t="n">
+      <c r="J116" s="6">
         <v>0.3</v>
       </c>
-      <c r="K116" s="6" t="n">
+      <c r="K116" s="6">
         <v>0.31</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
         <v>47</v>
       </c>
@@ -4417,14 +4658,14 @@
         <v>21</v>
       </c>
       <c r="I117" s="7"/>
-      <c r="J117" s="8" t="n">
+      <c r="J117" s="8">
         <v>1</v>
       </c>
-      <c r="K117" s="8" t="n">
+      <c r="K117" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>47</v>
       </c>
@@ -4449,17 +4690,17 @@
       <c r="H118" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I118" s="2" t="n">
-        <v>2496.8186</v>
-      </c>
-      <c r="J118" s="2" t="n">
+      <c r="I118" s="2">
+        <v>2496.8186000000001</v>
+      </c>
+      <c r="J118" s="2">
         <v>1190.7137</v>
       </c>
-      <c r="K118" s="2" t="n">
-        <v>2496.8186</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K118" s="2">
+        <v>2496.8186000000001</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>47</v>
       </c>
@@ -4484,17 +4725,17 @@
       <c r="H119" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I119" s="3" t="n">
-        <v>0.0475738373494628</v>
-      </c>
-      <c r="J119" s="3" t="n">
-        <v>0.0358502033214851</v>
-      </c>
-      <c r="K119" s="3" t="n">
-        <v>0.0475738373494628</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I119" s="3">
+        <v>4.75738373494628E-2</v>
+      </c>
+      <c r="J119" s="3">
+        <v>3.58502033214851E-2</v>
+      </c>
+      <c r="K119" s="3">
+        <v>4.75738373494628E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
         <v>47</v>
       </c>
@@ -4520,14 +4761,14 @@
         <v>20</v>
       </c>
       <c r="I120" s="5"/>
-      <c r="J120" s="6" t="n">
+      <c r="J120" s="6">
         <v>0.3</v>
       </c>
-      <c r="K120" s="6" t="n">
+      <c r="K120" s="6">
         <v>0.31</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
         <v>47</v>
       </c>
@@ -4553,14 +4794,14 @@
         <v>21</v>
       </c>
       <c r="I121" s="7"/>
-      <c r="J121" s="8" t="n">
+      <c r="J121" s="8">
         <v>1</v>
       </c>
-      <c r="K121" s="8" t="n">
+      <c r="K121" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>47</v>
       </c>
@@ -4585,17 +4826,17 @@
       <c r="H122" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I122" s="2" t="n">
+      <c r="I122" s="2">
         <v>1673.8107</v>
       </c>
-      <c r="J122" s="2" t="n">
-        <v>711.5315</v>
-      </c>
-      <c r="K122" s="2" t="n">
+      <c r="J122" s="2">
+        <v>711.53150000000005</v>
+      </c>
+      <c r="K122" s="2">
         <v>1673.8107</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>47</v>
       </c>
@@ -4620,17 +4861,17 @@
       <c r="H123" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I123" s="3" t="n">
-        <v>0.0318924242216037</v>
-      </c>
-      <c r="J123" s="3" t="n">
-        <v>0.0214229070721545</v>
-      </c>
-      <c r="K123" s="3" t="n">
-        <v>0.0318924242216037</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I123" s="3">
+        <v>3.1892424221603703E-2</v>
+      </c>
+      <c r="J123" s="3">
+        <v>2.1422907072154499E-2</v>
+      </c>
+      <c r="K123" s="3">
+        <v>3.1892424221603703E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
         <v>47</v>
       </c>
@@ -4656,14 +4897,14 @@
         <v>20</v>
       </c>
       <c r="I124" s="5"/>
-      <c r="J124" s="6" t="n">
+      <c r="J124" s="6">
         <v>0.3</v>
       </c>
-      <c r="K124" s="6" t="n">
+      <c r="K124" s="6">
         <v>0.31</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
         <v>47</v>
       </c>
@@ -4689,14 +4930,14 @@
         <v>21</v>
       </c>
       <c r="I125" s="7"/>
-      <c r="J125" s="8" t="n">
+      <c r="J125" s="8">
         <v>1</v>
       </c>
-      <c r="K125" s="8" t="n">
+      <c r="K125" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>47</v>
       </c>
@@ -4721,17 +4962,17 @@
       <c r="H126" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I126" s="2" t="n">
+      <c r="I126" s="2">
         <v>1672.8117</v>
       </c>
-      <c r="J126" s="2" t="n">
-        <v>711.5315</v>
-      </c>
-      <c r="K126" s="2" t="n">
+      <c r="J126" s="2">
+        <v>711.53150000000005</v>
+      </c>
+      <c r="K126" s="2">
         <v>1672.8117</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>47</v>
       </c>
@@ -4756,17 +4997,17 @@
       <c r="H127" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I127" s="3" t="n">
-        <v>0.031873389493365</v>
-      </c>
-      <c r="J127" s="3" t="n">
-        <v>0.0214229070721545</v>
-      </c>
-      <c r="K127" s="3" t="n">
-        <v>0.031873389493365</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I127" s="3">
+        <v>3.1873389493364997E-2</v>
+      </c>
+      <c r="J127" s="3">
+        <v>2.1422907072154499E-2</v>
+      </c>
+      <c r="K127" s="3">
+        <v>3.1873389493364997E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
         <v>47</v>
       </c>
@@ -4792,14 +5033,14 @@
         <v>20</v>
       </c>
       <c r="I128" s="5"/>
-      <c r="J128" s="6" t="n">
+      <c r="J128" s="6">
         <v>0.3</v>
       </c>
-      <c r="K128" s="6" t="n">
+      <c r="K128" s="6">
         <v>0.31</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
         <v>47</v>
       </c>
@@ -4825,14 +5066,14 @@
         <v>21</v>
       </c>
       <c r="I129" s="7"/>
-      <c r="J129" s="8" t="n">
+      <c r="J129" s="8">
         <v>1</v>
       </c>
-      <c r="K129" s="8" t="n">
+      <c r="K129" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>47</v>
       </c>
@@ -4857,17 +5098,17 @@
       <c r="H130" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I130" s="2" t="n">
-        <v>739.81083</v>
-      </c>
-      <c r="J130" s="2" t="n">
-        <v>208.63284</v>
-      </c>
-      <c r="K130" s="2" t="n">
-        <v>739.81083</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I130" s="2">
+        <v>739.81083000000001</v>
+      </c>
+      <c r="J130" s="2">
+        <v>208.63283999999999</v>
+      </c>
+      <c r="K130" s="2">
+        <v>739.81083000000001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>47</v>
       </c>
@@ -4892,17 +5133,17 @@
       <c r="H131" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I131" s="3" t="n">
-        <v>0.0140961942913238</v>
-      </c>
-      <c r="J131" s="3" t="n">
-        <v>0.00628155175634484</v>
-      </c>
-      <c r="K131" s="3" t="n">
-        <v>0.0140961942913238</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I131" s="3">
+        <v>1.40961942913238E-2</v>
+      </c>
+      <c r="J131" s="3">
+        <v>6.2815517563448399E-3</v>
+      </c>
+      <c r="K131" s="3">
+        <v>1.40961942913238E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
         <v>47</v>
       </c>
@@ -4928,14 +5169,14 @@
         <v>20</v>
       </c>
       <c r="I132" s="5"/>
-      <c r="J132" s="6" t="n">
+      <c r="J132" s="6">
         <v>0.12</v>
       </c>
-      <c r="K132" s="6" t="n">
+      <c r="K132" s="6">
         <v>0.12</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
         <v>47</v>
       </c>
@@ -4961,14 +5202,14 @@
         <v>21</v>
       </c>
       <c r="I133" s="7"/>
-      <c r="J133" s="8" t="n">
+      <c r="J133" s="8">
         <v>1</v>
       </c>
-      <c r="K133" s="8" t="n">
+      <c r="K133" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>47</v>
       </c>
@@ -4993,17 +5234,17 @@
       <c r="H134" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I134" s="2" t="n">
-        <v>614.1134</v>
-      </c>
-      <c r="J134" s="2" t="n">
-        <v>171.5057</v>
-      </c>
-      <c r="K134" s="2" t="n">
-        <v>614.1134</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I134" s="2">
+        <v>614.11339999999996</v>
+      </c>
+      <c r="J134" s="2">
+        <v>171.50569999999999</v>
+      </c>
+      <c r="K134" s="2">
+        <v>614.11339999999996</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>47</v>
       </c>
@@ -5028,17 +5269,17 @@
       <c r="H135" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I135" s="3" t="n">
-        <v>0.01170118285955</v>
-      </c>
-      <c r="J135" s="3" t="n">
-        <v>0.00516372173747024</v>
-      </c>
-      <c r="K135" s="3" t="n">
-        <v>0.01170118285955</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I135" s="3">
+        <v>1.170118285955E-2</v>
+      </c>
+      <c r="J135" s="3">
+        <v>5.1637217374702398E-3</v>
+      </c>
+      <c r="K135" s="3">
+        <v>1.170118285955E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
         <v>47</v>
       </c>
@@ -5064,14 +5305,14 @@
         <v>20</v>
       </c>
       <c r="I136" s="5"/>
-      <c r="J136" s="6" t="n">
+      <c r="J136" s="6">
         <v>0.3</v>
       </c>
-      <c r="K136" s="6" t="n">
+      <c r="K136" s="6">
         <v>0.31</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
         <v>47</v>
       </c>
@@ -5097,14 +5338,14 @@
         <v>21</v>
       </c>
       <c r="I137" s="7"/>
-      <c r="J137" s="8" t="n">
+      <c r="J137" s="8">
         <v>1</v>
       </c>
-      <c r="K137" s="8" t="n">
+      <c r="K137" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>47</v>
       </c>
@@ -5129,15 +5370,15 @@
       <c r="H138" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I138" s="2" t="n">
-        <v>518.5681</v>
+      <c r="I138" s="2">
+        <v>518.56809999999996</v>
       </c>
       <c r="J138" s="2"/>
-      <c r="K138" s="2" t="n">
-        <v>518.5681</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K138" s="2">
+        <v>518.56809999999996</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>47</v>
       </c>
@@ -5162,15 +5403,15 @@
       <c r="H139" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I139" s="3" t="n">
-        <v>0.00988068354025398</v>
+      <c r="I139" s="3">
+        <v>9.8806835402539799E-3</v>
       </c>
       <c r="J139" s="3"/>
-      <c r="K139" s="3" t="n">
-        <v>0.00988068354025398</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K139" s="3">
+        <v>9.8806835402539799E-3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
         <v>47</v>
       </c>
@@ -5197,11 +5438,11 @@
       </c>
       <c r="I140" s="5"/>
       <c r="J140" s="6"/>
-      <c r="K140" s="6" t="n">
+      <c r="K140" s="6">
         <v>0.31</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
         <v>47</v>
       </c>
@@ -5228,11 +5469,11 @@
       </c>
       <c r="I141" s="7"/>
       <c r="J141" s="8"/>
-      <c r="K141" s="8" t="n">
+      <c r="K141" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>47</v>
       </c>
@@ -5257,17 +5498,17 @@
       <c r="H142" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I142" s="2" t="n">
-        <v>162.0809</v>
-      </c>
-      <c r="J142" s="2" t="n">
-        <v>51.7627</v>
-      </c>
-      <c r="K142" s="2" t="n">
-        <v>162.0809</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I142" s="2">
+        <v>162.08090000000001</v>
+      </c>
+      <c r="J142" s="2">
+        <v>51.762700000000002</v>
+      </c>
+      <c r="K142" s="2">
+        <v>162.08090000000001</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>47</v>
       </c>
@@ -5292,17 +5533,17 @@
       <c r="H143" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I143" s="3" t="n">
-        <v>0.00308825413830807</v>
-      </c>
-      <c r="J143" s="3" t="n">
-        <v>0.00155847985915425</v>
-      </c>
-      <c r="K143" s="3" t="n">
-        <v>0.00308825413830807</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I143" s="3">
+        <v>3.0882541383080702E-3</v>
+      </c>
+      <c r="J143" s="3">
+        <v>1.5584798591542499E-3</v>
+      </c>
+      <c r="K143" s="3">
+        <v>3.0882541383080702E-3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
         <v>47</v>
       </c>
@@ -5328,14 +5569,14 @@
         <v>20</v>
       </c>
       <c r="I144" s="5"/>
-      <c r="J144" s="6" t="n">
+      <c r="J144" s="6">
         <v>0.45</v>
       </c>
-      <c r="K144" s="6" t="n">
+      <c r="K144" s="6">
         <v>0.5</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
         <v>47</v>
       </c>
@@ -5361,14 +5602,14 @@
         <v>21</v>
       </c>
       <c r="I145" s="7"/>
-      <c r="J145" s="8" t="n">
+      <c r="J145" s="8">
         <v>1</v>
       </c>
-      <c r="K145" s="8" t="n">
+      <c r="K145" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>47</v>
       </c>
@@ -5393,15 +5634,15 @@
       <c r="H146" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I146" s="2" t="n">
-        <v>102.6154</v>
+      <c r="I146" s="2">
+        <v>102.61539999999999</v>
       </c>
       <c r="J146" s="2"/>
-      <c r="K146" s="2" t="n">
-        <v>102.6154</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K146" s="2">
+        <v>102.61539999999999</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>47</v>
       </c>
@@ -5426,15 +5667,15 @@
       <c r="H147" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I147" s="3" t="n">
-        <v>0.0019552114635601</v>
+      <c r="I147" s="3">
+        <v>1.9552114635601001E-3</v>
       </c>
       <c r="J147" s="3"/>
-      <c r="K147" s="3" t="n">
-        <v>0.0019552114635601</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K147" s="3">
+        <v>1.9552114635601001E-3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
         <v>47</v>
       </c>
@@ -5461,11 +5702,11 @@
       </c>
       <c r="I148" s="5"/>
       <c r="J148" s="6"/>
-      <c r="K148" s="6" t="n">
+      <c r="K148" s="6">
         <v>0.31</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
         <v>47</v>
       </c>
@@ -5492,11 +5733,11 @@
       </c>
       <c r="I149" s="7"/>
       <c r="J149" s="8"/>
-      <c r="K149" s="8" t="n">
+      <c r="K149" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>47</v>
       </c>
@@ -5521,15 +5762,15 @@
       <c r="H150" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I150" s="2" t="n">
-        <v>33.6639</v>
+      <c r="I150" s="2">
+        <v>33.663899999999998</v>
       </c>
       <c r="J150" s="2"/>
-      <c r="K150" s="2" t="n">
-        <v>33.6639</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K150" s="2">
+        <v>33.663899999999998</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>47</v>
       </c>
@@ -5554,15 +5795,15 @@
       <c r="H151" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I151" s="3" t="n">
-        <v>0.000641424612564398</v>
+      <c r="I151" s="3">
+        <v>6.41424612564398E-4</v>
       </c>
       <c r="J151" s="3"/>
-      <c r="K151" s="3" t="n">
-        <v>0.000641424612564398</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K151" s="3">
+        <v>6.41424612564398E-4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
         <v>47</v>
       </c>
@@ -5589,11 +5830,11 @@
       </c>
       <c r="I152" s="5"/>
       <c r="J152" s="6"/>
-      <c r="K152" s="6" t="n">
+      <c r="K152" s="6">
         <v>0.31</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
         <v>47</v>
       </c>
@@ -5620,11 +5861,11 @@
       </c>
       <c r="I153" s="7"/>
       <c r="J153" s="8"/>
-      <c r="K153" s="8" t="n">
+      <c r="K153" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>47</v>
       </c>
@@ -5649,17 +5890,17 @@
       <c r="H154" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I154" s="2" t="n">
-        <v>6263.61786</v>
-      </c>
-      <c r="J154" s="2" t="n">
+      <c r="I154" s="2">
+        <v>6263.6178600000003</v>
+      </c>
+      <c r="J154" s="2">
         <v>1413.92948</v>
       </c>
-      <c r="K154" s="2" t="n">
-        <v>6263.61786</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K154" s="2">
+        <v>6263.6178600000003</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>47</v>
       </c>
@@ -5684,17 +5925,17 @@
       <c r="H155" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I155" s="3" t="n">
-        <v>0.119345609364986</v>
-      </c>
-      <c r="J155" s="3" t="n">
-        <v>0.0425708206265214</v>
-      </c>
-      <c r="K155" s="3" t="n">
-        <v>0.119345609364986</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I155" s="3">
+        <v>0.11934560936498601</v>
+      </c>
+      <c r="J155" s="3">
+        <v>4.25708206265214E-2</v>
+      </c>
+      <c r="K155" s="3">
+        <v>0.11934560936498601</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
         <v>47</v>
       </c>
@@ -5720,14 +5961,14 @@
         <v>20</v>
       </c>
       <c r="I156" s="5"/>
-      <c r="J156" s="6" t="n">
+      <c r="J156" s="6">
         <v>0.2</v>
       </c>
-      <c r="K156" s="6" t="n">
+      <c r="K156" s="6">
         <v>0.2</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
         <v>47</v>
       </c>
@@ -5753,14 +5994,14 @@
         <v>21</v>
       </c>
       <c r="I157" s="7"/>
-      <c r="J157" s="8" t="n">
-        <v>0.126120058565154</v>
-      </c>
-      <c r="K157" s="8" t="n">
+      <c r="J157" s="8">
+        <v>0.12612005856515399</v>
+      </c>
+      <c r="K157" s="8">
         <v>0.183016105417277</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>47</v>
       </c>
@@ -5785,15 +6026,15 @@
       <c r="H158" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I158" s="2" t="n">
-        <v>149.7862</v>
+      <c r="I158" s="2">
+        <v>149.78620000000001</v>
       </c>
       <c r="J158" s="2"/>
-      <c r="K158" s="2" t="n">
-        <v>149.7862</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K158" s="2">
+        <v>149.78620000000001</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>47</v>
       </c>
@@ -5818,15 +6059,15 @@
       <c r="H159" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I159" s="3" t="n">
-        <v>0.00285399360449899</v>
+      <c r="I159" s="3">
+        <v>2.8539936044989899E-3</v>
       </c>
       <c r="J159" s="3"/>
-      <c r="K159" s="3" t="n">
-        <v>0.00285399360449899</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K159" s="3">
+        <v>2.8539936044989899E-3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
         <v>47</v>
       </c>
@@ -5853,11 +6094,11 @@
       </c>
       <c r="I160" s="5"/>
       <c r="J160" s="6"/>
-      <c r="K160" s="6" t="n">
+      <c r="K160" s="6">
         <v>0.2</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
         <v>47</v>
       </c>
@@ -5884,11 +6125,11 @@
       </c>
       <c r="I161" s="7"/>
       <c r="J161" s="8"/>
-      <c r="K161" s="8" t="n">
+      <c r="K161" s="8">
         <v>0.183016105417277</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>47</v>
       </c>
@@ -5913,17 +6154,17 @@
       <c r="H162" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I162" s="2" t="n">
+      <c r="I162" s="2">
         <v>115.44604</v>
       </c>
-      <c r="J162" s="2" t="n">
+      <c r="J162" s="2">
         <v>43.2502</v>
       </c>
-      <c r="K162" s="2" t="n">
+      <c r="K162" s="2">
         <v>115.44604</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>47</v>
       </c>
@@ -5948,17 +6189,17 @@
       <c r="H163" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I163" s="3" t="n">
-        <v>0.00219968368130531</v>
-      </c>
-      <c r="J163" s="3" t="n">
-        <v>0.00130218411335562</v>
-      </c>
-      <c r="K163" s="3" t="n">
-        <v>0.00219968368130531</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I163" s="3">
+        <v>2.1996836813053099E-3</v>
+      </c>
+      <c r="J163" s="3">
+        <v>1.3021841133556201E-3</v>
+      </c>
+      <c r="K163" s="3">
+        <v>2.1996836813053099E-3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
         <v>47</v>
       </c>
@@ -5984,14 +6225,14 @@
         <v>20</v>
       </c>
       <c r="I164" s="5"/>
-      <c r="J164" s="6" t="n">
+      <c r="J164" s="6">
         <v>0.2</v>
       </c>
-      <c r="K164" s="6" t="n">
+      <c r="K164" s="6">
         <v>0.2</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
         <v>47</v>
       </c>
@@ -6017,14 +6258,14 @@
         <v>21</v>
       </c>
       <c r="I165" s="7"/>
-      <c r="J165" s="8" t="n">
-        <v>0.126120058565154</v>
-      </c>
-      <c r="K165" s="8" t="n">
+      <c r="J165" s="8">
+        <v>0.12612005856515399</v>
+      </c>
+      <c r="K165" s="8">
         <v>0.183016105417277</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>47</v>
       </c>
@@ -6049,17 +6290,17 @@
       <c r="H166" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I166" s="2" t="n">
-        <v>7157.4813</v>
-      </c>
-      <c r="J166" s="2" t="n">
-        <v>7157.4813</v>
-      </c>
-      <c r="K166" s="2" t="n">
-        <v>4612.0276</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I166" s="2">
+        <v>7157.4813000000004</v>
+      </c>
+      <c r="J166" s="2">
+        <v>7157.4813000000004</v>
+      </c>
+      <c r="K166" s="2">
+        <v>4612.0276000000003</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>47</v>
       </c>
@@ -6084,17 +6325,17 @@
       <c r="H167" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I167" s="3" t="n">
+      <c r="I167" s="3">
         <v>0.215498620595973</v>
       </c>
-      <c r="J167" s="3" t="n">
+      <c r="J167" s="3">
         <v>0.215498620595973</v>
       </c>
-      <c r="K167" s="3" t="n">
-        <v>0.0878765685635446</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K167" s="3">
+        <v>8.7876568563544602E-2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
         <v>47</v>
       </c>
@@ -6120,14 +6361,14 @@
         <v>20</v>
       </c>
       <c r="I168" s="5"/>
-      <c r="J168" s="6" t="n">
+      <c r="J168" s="6">
         <v>0.85</v>
       </c>
-      <c r="K168" s="6" t="n">
+      <c r="K168" s="6">
         <v>0.9</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
         <v>47</v>
       </c>
@@ -6153,14 +6394,14 @@
         <v>21</v>
       </c>
       <c r="I169" s="7"/>
-      <c r="J169" s="8" t="n">
+      <c r="J169" s="8">
         <v>0.658535188684648</v>
       </c>
-      <c r="K169" s="8" t="n">
+      <c r="K169" s="8">
         <v>0.658535188684648</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>47</v>
       </c>
@@ -6185,17 +6426,17 @@
       <c r="H170" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I170" s="2" t="n">
+      <c r="I170" s="2">
         <v>1683.98972</v>
       </c>
-      <c r="J170" s="2" t="n">
-        <v>78.89936</v>
-      </c>
-      <c r="K170" s="2" t="n">
+      <c r="J170" s="2">
+        <v>78.899360000000001</v>
+      </c>
+      <c r="K170" s="2">
         <v>1683.98972</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>47</v>
       </c>
@@ -6220,17 +6461,17 @@
       <c r="H171" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I171" s="3" t="n">
-        <v>0.0320863730498673</v>
-      </c>
-      <c r="J171" s="3" t="n">
-        <v>0.00237551486804515</v>
-      </c>
-      <c r="K171" s="3" t="n">
-        <v>0.0320863730498673</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I171" s="3">
+        <v>3.2086373049867299E-2</v>
+      </c>
+      <c r="J171" s="3">
+        <v>2.3755148680451501E-3</v>
+      </c>
+      <c r="K171" s="3">
+        <v>3.2086373049867299E-2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
         <v>47</v>
       </c>
@@ -6256,14 +6497,14 @@
         <v>20</v>
       </c>
       <c r="I172" s="5"/>
-      <c r="J172" s="6" t="n">
+      <c r="J172" s="6">
         <v>0.9</v>
       </c>
-      <c r="K172" s="6" t="n">
+      <c r="K172" s="6">
         <v>0.95</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
         <v>47</v>
       </c>
@@ -6289,14 +6530,14 @@
         <v>21</v>
       </c>
       <c r="I173" s="7"/>
-      <c r="J173" s="8" t="n">
+      <c r="J173" s="8">
         <v>0.658535188684648</v>
       </c>
-      <c r="K173" s="8" t="n">
+      <c r="K173" s="8">
         <v>0.658535188684648</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>47</v>
       </c>
@@ -6321,15 +6562,15 @@
       <c r="H174" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I174" s="2" t="n">
-        <v>1052.3455</v>
+      <c r="I174" s="2">
+        <v>1052.3454999999999</v>
       </c>
       <c r="J174" s="2"/>
-      <c r="K174" s="2" t="n">
-        <v>1052.3455</v>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K174" s="2">
+        <v>1052.3454999999999</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>47</v>
       </c>
@@ -6354,15 +6595,15 @@
       <c r="H175" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I175" s="3" t="n">
-        <v>0.0200511617673944</v>
+      <c r="I175" s="3">
+        <v>2.0051161767394399E-2</v>
       </c>
       <c r="J175" s="3"/>
-      <c r="K175" s="3" t="n">
-        <v>0.0200511617673944</v>
-      </c>
-    </row>
-    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K175" s="3">
+        <v>2.0051161767394399E-2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
         <v>47</v>
       </c>
@@ -6389,11 +6630,11 @@
       </c>
       <c r="I176" s="5"/>
       <c r="J176" s="6"/>
-      <c r="K176" s="6" t="n">
+      <c r="K176" s="6">
         <v>0.85</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
         <v>47</v>
       </c>
@@ -6420,11 +6661,11 @@
       </c>
       <c r="I177" s="7"/>
       <c r="J177" s="8"/>
-      <c r="K177" s="8" t="n">
+      <c r="K177" s="8">
         <v>0.658535188684648</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>47</v>
       </c>
@@ -6449,15 +6690,15 @@
       <c r="H178" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I178" s="2" t="n">
-        <v>579.9369</v>
-      </c>
-      <c r="J178" s="2" t="n">
-        <v>579.9369</v>
+      <c r="I178" s="2">
+        <v>579.93690000000004</v>
+      </c>
+      <c r="J178" s="2">
+        <v>579.93690000000004</v>
       </c>
       <c r="K178" s="2"/>
     </row>
-    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>47</v>
       </c>
@@ -6482,15 +6723,15 @@
       <c r="H179" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I179" s="3" t="n">
-        <v>0.0174608352777261</v>
-      </c>
-      <c r="J179" s="3" t="n">
-        <v>0.0174608352777261</v>
+      <c r="I179" s="3">
+        <v>1.74608352777261E-2</v>
+      </c>
+      <c r="J179" s="3">
+        <v>1.74608352777261E-2</v>
       </c>
       <c r="K179" s="3"/>
     </row>
-    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
         <v>47</v>
       </c>
@@ -6516,12 +6757,12 @@
         <v>20</v>
       </c>
       <c r="I180" s="5"/>
-      <c r="J180" s="6" t="n">
+      <c r="J180" s="6">
         <v>0.8</v>
       </c>
       <c r="K180" s="6"/>
     </row>
-    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
         <v>47</v>
       </c>
@@ -6547,12 +6788,12 @@
         <v>21</v>
       </c>
       <c r="I181" s="7"/>
-      <c r="J181" s="8" t="n">
+      <c r="J181" s="8">
         <v>0.658535188684648</v>
       </c>
       <c r="K181" s="8"/>
     </row>
-    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>47</v>
       </c>
@@ -6577,17 +6818,17 @@
       <c r="H182" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I182" s="2" t="n">
-        <v>170.6363</v>
-      </c>
-      <c r="J182" s="2" t="n">
-        <v>29.1488</v>
-      </c>
-      <c r="K182" s="2" t="n">
-        <v>170.6363</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I182" s="2">
+        <v>170.63630000000001</v>
+      </c>
+      <c r="J182" s="2">
+        <v>29.148800000000001</v>
+      </c>
+      <c r="K182" s="2">
+        <v>170.63630000000001</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>47</v>
       </c>
@@ -6612,17 +6853,17 @@
       <c r="H183" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I183" s="3" t="n">
-        <v>0.00325126686500739</v>
-      </c>
-      <c r="J183" s="3" t="n">
-        <v>0.000877616849942437</v>
-      </c>
-      <c r="K183" s="3" t="n">
-        <v>0.00325126686500739</v>
-      </c>
-    </row>
-    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I183" s="3">
+        <v>3.25126686500739E-3</v>
+      </c>
+      <c r="J183" s="3">
+        <v>8.7761684994243697E-4</v>
+      </c>
+      <c r="K183" s="3">
+        <v>3.25126686500739E-3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
         <v>47</v>
       </c>
@@ -6648,14 +6889,14 @@
         <v>20</v>
       </c>
       <c r="I184" s="5"/>
-      <c r="J184" s="6" t="n">
+      <c r="J184" s="6">
         <v>0.8</v>
       </c>
-      <c r="K184" s="6" t="n">
+      <c r="K184" s="6">
         <v>0.85</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
         <v>47</v>
       </c>
@@ -6681,14 +6922,14 @@
         <v>21</v>
       </c>
       <c r="I185" s="7"/>
-      <c r="J185" s="8" t="n">
+      <c r="J185" s="8">
         <v>0.658535188684648</v>
       </c>
-      <c r="K185" s="8" t="n">
+      <c r="K185" s="8">
         <v>0.658535188684648</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>47</v>
       </c>
@@ -6713,17 +6954,17 @@
       <c r="H186" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I186" s="2" t="n">
-        <v>3459.1067</v>
-      </c>
-      <c r="J186" s="2" t="n">
-        <v>2080.0603</v>
-      </c>
-      <c r="K186" s="2" t="n">
-        <v>3459.1067</v>
-      </c>
-    </row>
-    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I186" s="2">
+        <v>3459.1066999999998</v>
+      </c>
+      <c r="J186" s="2">
+        <v>2080.0603000000001</v>
+      </c>
+      <c r="K186" s="2">
+        <v>3459.1066999999998</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>47</v>
       </c>
@@ -6748,17 +6989,17 @@
       <c r="H187" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I187" s="3" t="n">
-        <v>0.0659090650479122</v>
-      </c>
-      <c r="J187" s="3" t="n">
-        <v>0.0626267965808651</v>
-      </c>
-      <c r="K187" s="3" t="n">
-        <v>0.0659090650479122</v>
-      </c>
-    </row>
-    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I187" s="3">
+        <v>6.5909065047912205E-2</v>
+      </c>
+      <c r="J187" s="3">
+        <v>6.2626796580865104E-2</v>
+      </c>
+      <c r="K187" s="3">
+        <v>6.5909065047912205E-2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
         <v>47</v>
       </c>
@@ -6784,14 +7025,14 @@
         <v>20</v>
       </c>
       <c r="I188" s="5"/>
-      <c r="J188" s="6" t="n">
+      <c r="J188" s="6">
         <v>0.8</v>
       </c>
-      <c r="K188" s="6" t="n">
+      <c r="K188" s="6">
         <v>0.85</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
         <v>47</v>
       </c>
@@ -6817,14 +7058,14 @@
         <v>21</v>
       </c>
       <c r="I189" s="7"/>
-      <c r="J189" s="8" t="n">
-        <v>0.369861566099546</v>
-      </c>
-      <c r="K189" s="8" t="n">
-        <v>0.369861566099546</v>
-      </c>
-    </row>
-    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J189" s="8">
+        <v>0.36986156609954601</v>
+      </c>
+      <c r="K189" s="8">
+        <v>0.36986156609954601</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>47</v>
       </c>
@@ -6849,17 +7090,17 @@
       <c r="H190" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I190" s="2" t="n">
+      <c r="I190" s="2">
         <v>1508.4313</v>
       </c>
-      <c r="J190" s="2" t="n">
-        <v>764.3069</v>
-      </c>
-      <c r="K190" s="2" t="n">
+      <c r="J190" s="2">
+        <v>764.30690000000004</v>
+      </c>
+      <c r="K190" s="2">
         <v>1508.4313</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>47</v>
       </c>
@@ -6884,17 +7125,17 @@
       <c r="H191" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I191" s="3" t="n">
-        <v>0.0287413211833005</v>
-      </c>
-      <c r="J191" s="3" t="n">
-        <v>0.0230118774689617</v>
-      </c>
-      <c r="K191" s="3" t="n">
-        <v>0.0287413211833005</v>
-      </c>
-    </row>
-    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I191" s="3">
+        <v>2.87413211833005E-2</v>
+      </c>
+      <c r="J191" s="3">
+        <v>2.3011877468961699E-2</v>
+      </c>
+      <c r="K191" s="3">
+        <v>2.87413211833005E-2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
         <v>47</v>
       </c>
@@ -6920,14 +7161,14 @@
         <v>20</v>
       </c>
       <c r="I192" s="5"/>
-      <c r="J192" s="6" t="n">
+      <c r="J192" s="6">
         <v>0.2</v>
       </c>
-      <c r="K192" s="6" t="n">
+      <c r="K192" s="6">
         <v>0.25</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
         <v>47</v>
       </c>
@@ -6953,14 +7194,14 @@
         <v>21</v>
       </c>
       <c r="I193" s="7"/>
-      <c r="J193" s="8" t="n">
-        <v>0.369861566099546</v>
-      </c>
-      <c r="K193" s="8" t="n">
-        <v>0.369861566099546</v>
-      </c>
-    </row>
-    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J193" s="8">
+        <v>0.36986156609954601</v>
+      </c>
+      <c r="K193" s="8">
+        <v>0.36986156609954601</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>47</v>
       </c>
@@ -6985,17 +7226,17 @@
       <c r="H194" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I194" s="2" t="n">
-        <v>1233.01805</v>
-      </c>
-      <c r="J194" s="2" t="n">
-        <v>347.7214</v>
-      </c>
-      <c r="K194" s="2" t="n">
-        <v>1233.01805</v>
-      </c>
-    </row>
-    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I194" s="2">
+        <v>1233.0180499999999</v>
+      </c>
+      <c r="J194" s="2">
+        <v>347.72140000000002</v>
+      </c>
+      <c r="K194" s="2">
+        <v>1233.0180499999999</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>47</v>
       </c>
@@ -7020,17 +7261,17 @@
       <c r="H195" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I195" s="3" t="n">
-        <v>0.0234936571522063</v>
-      </c>
-      <c r="J195" s="3" t="n">
-        <v>0.0104692529272414</v>
-      </c>
-      <c r="K195" s="3" t="n">
-        <v>0.0234936571522063</v>
-      </c>
-    </row>
-    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I195" s="3">
+        <v>2.3493657152206301E-2</v>
+      </c>
+      <c r="J195" s="3">
+        <v>1.04692529272414E-2</v>
+      </c>
+      <c r="K195" s="3">
+        <v>2.3493657152206301E-2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="s">
         <v>47</v>
       </c>
@@ -7056,14 +7297,14 @@
         <v>20</v>
       </c>
       <c r="I196" s="5"/>
-      <c r="J196" s="6" t="n">
+      <c r="J196" s="6">
         <v>0.3</v>
       </c>
-      <c r="K196" s="6" t="n">
+      <c r="K196" s="6">
         <v>0.35</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197" s="4" t="s">
         <v>47</v>
       </c>
@@ -7089,14 +7330,14 @@
         <v>21</v>
       </c>
       <c r="I197" s="7"/>
-      <c r="J197" s="8" t="n">
-        <v>0.369861566099546</v>
-      </c>
-      <c r="K197" s="8" t="n">
-        <v>0.369861566099546</v>
-      </c>
-    </row>
-    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J197" s="8">
+        <v>0.36986156609954601</v>
+      </c>
+      <c r="K197" s="8">
+        <v>0.36986156609954601</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
         <v>47</v>
       </c>
@@ -7121,17 +7362,17 @@
       <c r="H198" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I198" s="2" t="n">
-        <v>559.6876</v>
-      </c>
-      <c r="J198" s="2" t="n">
-        <v>559.6876</v>
-      </c>
-      <c r="K198" s="2" t="n">
+      <c r="I198" s="2">
+        <v>559.68759999999997</v>
+      </c>
+      <c r="J198" s="2">
+        <v>559.68759999999997</v>
+      </c>
+      <c r="K198" s="2">
         <v>5.165</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>47</v>
       </c>
@@ -7156,17 +7397,17 @@
       <c r="H199" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I199" s="3" t="n">
-        <v>0.0168511660330389</v>
-      </c>
-      <c r="J199" s="3" t="n">
-        <v>0.0168511660330389</v>
-      </c>
-      <c r="K199" s="3" t="n">
-        <v>9.8412784136571E-005</v>
-      </c>
-    </row>
-    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I199" s="3">
+        <v>1.6851166033038899E-2</v>
+      </c>
+      <c r="J199" s="3">
+        <v>1.6851166033038899E-2</v>
+      </c>
+      <c r="K199" s="3">
+        <v>9.8412784136571002E-5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A200" s="4" t="s">
         <v>47</v>
       </c>
@@ -7192,14 +7433,14 @@
         <v>20</v>
       </c>
       <c r="I200" s="5"/>
-      <c r="J200" s="6" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="K200" s="6" t="n">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J200" s="6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K200" s="6">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
         <v>47</v>
       </c>
@@ -7225,14 +7466,14 @@
         <v>21</v>
       </c>
       <c r="I201" s="7"/>
-      <c r="J201" s="8" t="n">
-        <v>0.369861566099546</v>
-      </c>
-      <c r="K201" s="8" t="n">
-        <v>0.369861566099546</v>
-      </c>
-    </row>
-    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J201" s="8">
+        <v>0.36986156609954601</v>
+      </c>
+      <c r="K201" s="8">
+        <v>0.36986156609954601</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
         <v>47</v>
       </c>
@@ -7257,15 +7498,15 @@
       <c r="H202" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I202" s="2" t="n">
-        <v>523.5502</v>
-      </c>
-      <c r="J202" s="2" t="n">
-        <v>523.5502</v>
+      <c r="I202" s="2">
+        <v>523.55020000000002</v>
+      </c>
+      <c r="J202" s="2">
+        <v>523.55020000000002</v>
       </c>
       <c r="K202" s="2"/>
     </row>
-    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
         <v>47</v>
       </c>
@@ -7290,15 +7531,15 @@
       <c r="H203" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I203" s="3" t="n">
-        <v>0.0157631352683724</v>
-      </c>
-      <c r="J203" s="3" t="n">
-        <v>0.0157631352683724</v>
+      <c r="I203" s="3">
+        <v>1.5763135268372402E-2</v>
+      </c>
+      <c r="J203" s="3">
+        <v>1.5763135268372402E-2</v>
       </c>
       <c r="K203" s="3"/>
     </row>
-    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204" s="4" t="s">
         <v>47</v>
       </c>
@@ -7324,12 +7565,12 @@
         <v>20</v>
       </c>
       <c r="I204" s="5"/>
-      <c r="J204" s="6" t="n">
+      <c r="J204" s="6">
         <v>0.4</v>
       </c>
       <c r="K204" s="6"/>
     </row>
-    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A205" s="4" t="s">
         <v>47</v>
       </c>
@@ -7355,12 +7596,12 @@
         <v>21</v>
       </c>
       <c r="I205" s="7"/>
-      <c r="J205" s="8" t="n">
-        <v>0.369861566099546</v>
+      <c r="J205" s="8">
+        <v>0.36986156609954601</v>
       </c>
       <c r="K205" s="8"/>
     </row>
-    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
         <v>47</v>
       </c>
@@ -7385,17 +7626,17 @@
       <c r="H206" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I206" s="2" t="n">
+      <c r="I206" s="2">
         <v>574.6345</v>
       </c>
-      <c r="J206" s="2" t="n">
-        <v>66.0576</v>
-      </c>
-      <c r="K206" s="2" t="n">
+      <c r="J206" s="2">
+        <v>66.057599999999994</v>
+      </c>
+      <c r="K206" s="2">
         <v>574.6345</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
         <v>47</v>
       </c>
@@ -7420,17 +7661,17 @@
       <c r="H207" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I207" s="3" t="n">
-        <v>0.0109489605045356</v>
-      </c>
-      <c r="J207" s="3" t="n">
-        <v>0.00198887305229572</v>
-      </c>
-      <c r="K207" s="3" t="n">
-        <v>0.0109489605045356</v>
-      </c>
-    </row>
-    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I207" s="3">
+        <v>1.09489605045356E-2</v>
+      </c>
+      <c r="J207" s="3">
+        <v>1.9888730522957202E-3</v>
+      </c>
+      <c r="K207" s="3">
+        <v>1.09489605045356E-2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A208" s="4" t="s">
         <v>47</v>
       </c>
@@ -7456,14 +7697,14 @@
         <v>20</v>
       </c>
       <c r="I208" s="5"/>
-      <c r="J208" s="6" t="n">
+      <c r="J208" s="6">
         <v>0.4</v>
       </c>
-      <c r="K208" s="6" t="n">
+      <c r="K208" s="6">
         <v>0.45</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A209" s="4" t="s">
         <v>47</v>
       </c>
@@ -7489,14 +7730,14 @@
         <v>21</v>
       </c>
       <c r="I209" s="7"/>
-      <c r="J209" s="8" t="n">
-        <v>0.369861566099546</v>
-      </c>
-      <c r="K209" s="8" t="n">
-        <v>0.369861566099546</v>
-      </c>
-    </row>
-    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J209" s="8">
+        <v>0.36986156609954601</v>
+      </c>
+      <c r="K209" s="8">
+        <v>0.36986156609954601</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
         <v>47</v>
       </c>
@@ -7521,17 +7762,17 @@
       <c r="H210" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I210" s="2" t="n">
-        <v>477.73973</v>
-      </c>
-      <c r="J210" s="2" t="n">
-        <v>43.15563</v>
-      </c>
-      <c r="K210" s="2" t="n">
-        <v>477.73973</v>
-      </c>
-    </row>
-    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I210" s="2">
+        <v>477.73973000000001</v>
+      </c>
+      <c r="J210" s="2">
+        <v>43.155630000000002</v>
+      </c>
+      <c r="K210" s="2">
+        <v>477.73973000000001</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
         <v>47</v>
       </c>
@@ -7556,17 +7797,17 @@
       <c r="H211" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I211" s="3" t="n">
-        <v>0.00910274867801621</v>
-      </c>
-      <c r="J211" s="3" t="n">
-        <v>0.00129933678428894</v>
-      </c>
-      <c r="K211" s="3" t="n">
-        <v>0.00910274867801621</v>
-      </c>
-    </row>
-    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I211" s="3">
+        <v>9.1027486780162099E-3</v>
+      </c>
+      <c r="J211" s="3">
+        <v>1.2993367842889399E-3</v>
+      </c>
+      <c r="K211" s="3">
+        <v>9.1027486780162099E-3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A212" s="4" t="s">
         <v>47</v>
       </c>
@@ -7592,14 +7833,14 @@
         <v>20</v>
       </c>
       <c r="I212" s="5"/>
-      <c r="J212" s="6" t="n">
+      <c r="J212" s="6">
         <v>0.4</v>
       </c>
-      <c r="K212" s="6" t="n">
+      <c r="K212" s="6">
         <v>0.45</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A213" s="4" t="s">
         <v>47</v>
       </c>
@@ -7625,14 +7866,14 @@
         <v>21</v>
       </c>
       <c r="I213" s="7"/>
-      <c r="J213" s="8" t="n">
-        <v>0.369861566099546</v>
-      </c>
-      <c r="K213" s="8" t="n">
-        <v>0.369861566099546</v>
-      </c>
-    </row>
-    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J213" s="8">
+        <v>0.36986156609954601</v>
+      </c>
+      <c r="K213" s="8">
+        <v>0.36986156609954601</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
         <v>47</v>
       </c>
@@ -7657,17 +7898,17 @@
       <c r="H214" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I214" s="2" t="n">
+      <c r="I214" s="2">
         <v>119.7526</v>
       </c>
-      <c r="J214" s="2" t="n">
+      <c r="J214" s="2">
         <v>119.7526</v>
       </c>
-      <c r="K214" s="2" t="n">
-        <v>2.6808</v>
-      </c>
-    </row>
-    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K214" s="2">
+        <v>2.6808000000000001</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
         <v>47</v>
       </c>
@@ -7692,17 +7933,17 @@
       <c r="H215" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I215" s="3" t="n">
-        <v>0.00360553091669011</v>
-      </c>
-      <c r="J215" s="3" t="n">
-        <v>0.00360553091669011</v>
-      </c>
-      <c r="K215" s="3" t="n">
-        <v>5.10793788409138E-005</v>
-      </c>
-    </row>
-    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I215" s="3">
+        <v>3.6055309166901101E-3</v>
+      </c>
+      <c r="J215" s="3">
+        <v>3.6055309166901101E-3</v>
+      </c>
+      <c r="K215" s="3">
+        <v>5.1079378840913802E-5</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A216" s="4" t="s">
         <v>47</v>
       </c>
@@ -7728,14 +7969,14 @@
         <v>20</v>
       </c>
       <c r="I216" s="5"/>
-      <c r="J216" s="6" t="n">
+      <c r="J216" s="6">
         <v>0.3</v>
       </c>
-      <c r="K216" s="6" t="n">
+      <c r="K216" s="6">
         <v>0.35</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A217" s="4" t="s">
         <v>47</v>
       </c>
@@ -7761,14 +8002,14 @@
         <v>21</v>
       </c>
       <c r="I217" s="7"/>
-      <c r="J217" s="8" t="n">
-        <v>0.369861566099546</v>
-      </c>
-      <c r="K217" s="8" t="n">
-        <v>0.369861566099546</v>
-      </c>
-    </row>
-    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J217" s="8">
+        <v>0.36986156609954601</v>
+      </c>
+      <c r="K217" s="8">
+        <v>0.36986156609954601</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
         <v>47</v>
       </c>
@@ -7793,15 +8034,15 @@
       <c r="H218" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I218" s="2" t="n">
-        <v>76.7298</v>
-      </c>
-      <c r="J218" s="2" t="n">
-        <v>76.7298</v>
+      <c r="I218" s="2">
+        <v>76.729799999999997</v>
+      </c>
+      <c r="J218" s="2">
+        <v>76.729799999999997</v>
       </c>
       <c r="K218" s="2"/>
     </row>
-    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
         <v>47</v>
       </c>
@@ -7826,15 +8067,15 @@
       <c r="H219" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I219" s="3" t="n">
-        <v>0.00231019339982137</v>
-      </c>
-      <c r="J219" s="3" t="n">
-        <v>0.00231019339982137</v>
+      <c r="I219" s="3">
+        <v>2.3101933998213699E-3</v>
+      </c>
+      <c r="J219" s="3">
+        <v>2.3101933998213699E-3</v>
       </c>
       <c r="K219" s="3"/>
     </row>
-    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A220" s="4" t="s">
         <v>47</v>
       </c>
@@ -7860,12 +8101,12 @@
         <v>20</v>
       </c>
       <c r="I220" s="5"/>
-      <c r="J220" s="6" t="n">
+      <c r="J220" s="6">
         <v>0.25</v>
       </c>
       <c r="K220" s="6"/>
     </row>
-    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A221" s="4" t="s">
         <v>47</v>
       </c>
@@ -7891,12 +8132,12 @@
         <v>21</v>
       </c>
       <c r="I221" s="7"/>
-      <c r="J221" s="8" t="n">
-        <v>0.369861566099546</v>
+      <c r="J221" s="8">
+        <v>0.36986156609954601</v>
       </c>
       <c r="K221" s="8"/>
     </row>
-    <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
         <v>47</v>
       </c>
@@ -7921,15 +8162,15 @@
       <c r="H222" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I222" s="2" t="n">
-        <v>10.989</v>
+      <c r="I222" s="2">
+        <v>10.989000000000001</v>
       </c>
       <c r="J222" s="2"/>
-      <c r="K222" s="2" t="n">
-        <v>10.989</v>
-      </c>
-    </row>
-    <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K222" s="2">
+        <v>10.989000000000001</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
         <v>47</v>
       </c>
@@ -7954,15 +8195,15 @@
       <c r="H223" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I223" s="3" t="n">
-        <v>0.000209382010624739</v>
+      <c r="I223" s="3">
+        <v>2.09382010624739E-4</v>
       </c>
       <c r="J223" s="3"/>
-      <c r="K223" s="3" t="n">
-        <v>0.000209382010624739</v>
-      </c>
-    </row>
-    <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K223" s="3">
+        <v>2.09382010624739E-4</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A224" s="4" t="s">
         <v>47</v>
       </c>
@@ -7989,11 +8230,11 @@
       </c>
       <c r="I224" s="5"/>
       <c r="J224" s="6"/>
-      <c r="K224" s="6" t="n">
+      <c r="K224" s="6">
         <v>0.9</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A225" s="4" t="s">
         <v>47</v>
       </c>
@@ -8020,11 +8261,11 @@
       </c>
       <c r="I225" s="7"/>
       <c r="J225" s="8"/>
-      <c r="K225" s="8" t="n">
-        <v>0.369861566099546</v>
-      </c>
-    </row>
-    <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K225" s="8">
+        <v>0.36986156609954601</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
         <v>47</v>
       </c>
@@ -8049,15 +8290,15 @@
       <c r="H226" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I226" s="2" t="n">
-        <v>3.075</v>
+      <c r="I226" s="2">
+        <v>3.0750000000000002</v>
       </c>
       <c r="J226" s="2"/>
-      <c r="K226" s="2" t="n">
-        <v>3.075</v>
-      </c>
-    </row>
-    <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K226" s="2">
+        <v>3.0750000000000002</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
         <v>47</v>
       </c>
@@ -8082,15 +8323,15 @@
       <c r="H227" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I227" s="3" t="n">
-        <v>5.85903797134474E-005</v>
+      <c r="I227" s="3">
+        <v>5.8590379713447398E-5</v>
       </c>
       <c r="J227" s="3"/>
-      <c r="K227" s="3" t="n">
-        <v>5.85903797134474E-005</v>
-      </c>
-    </row>
-    <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K227" s="3">
+        <v>5.8590379713447398E-5</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A228" s="4" t="s">
         <v>47</v>
       </c>
@@ -8117,11 +8358,11 @@
       </c>
       <c r="I228" s="5"/>
       <c r="J228" s="6"/>
-      <c r="K228" s="6" t="n">
+      <c r="K228" s="6">
         <v>0.9</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A229" s="4" t="s">
         <v>47</v>
       </c>
@@ -8148,11 +8389,11 @@
       </c>
       <c r="I229" s="7"/>
       <c r="J229" s="8"/>
-      <c r="K229" s="8" t="n">
-        <v>0.369861566099546</v>
-      </c>
-    </row>
-    <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K229" s="8">
+        <v>0.36986156609954601</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
         <v>47</v>
       </c>
@@ -8177,17 +8418,17 @@
       <c r="H230" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I230" s="2" t="n">
-        <v>2787.4749</v>
-      </c>
-      <c r="J230" s="2" t="n">
+      <c r="I230" s="2">
+        <v>2787.4749000000002</v>
+      </c>
+      <c r="J230" s="2">
         <v>1934.65175</v>
       </c>
-      <c r="K230" s="2" t="n">
-        <v>2787.4749</v>
-      </c>
-    </row>
-    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K230" s="2">
+        <v>2787.4749000000002</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
         <v>47</v>
       </c>
@@ -8212,17 +8453,17 @@
       <c r="H231" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I231" s="3" t="n">
-        <v>0.0582488121147568</v>
-      </c>
-      <c r="J231" s="3" t="n">
-        <v>0.0582488121147568</v>
-      </c>
-      <c r="K231" s="3" t="n">
-        <v>0.0531119391325866</v>
-      </c>
-    </row>
-    <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I231" s="3">
+        <v>5.8248812114756798E-2</v>
+      </c>
+      <c r="J231" s="3">
+        <v>5.8248812114756798E-2</v>
+      </c>
+      <c r="K231" s="3">
+        <v>5.3111939132586598E-2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A232" s="4" t="s">
         <v>47</v>
       </c>
@@ -8248,14 +8489,14 @@
         <v>20</v>
       </c>
       <c r="I232" s="5"/>
-      <c r="J232" s="6" t="n">
+      <c r="J232" s="6">
         <v>0.12</v>
       </c>
-      <c r="K232" s="6" t="n">
+      <c r="K232" s="6">
         <v>0.12</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A233" s="4" t="s">
         <v>47</v>
       </c>
@@ -8281,14 +8522,14 @@
         <v>21</v>
       </c>
       <c r="I233" s="7"/>
-      <c r="J233" s="8" t="n">
-        <v>0.200991558354549</v>
-      </c>
-      <c r="K233" s="8" t="n">
-        <v>0.200991558354549</v>
-      </c>
-    </row>
-    <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J233" s="8">
+        <v>0.20099155835454899</v>
+      </c>
+      <c r="K233" s="8">
+        <v>0.20099155835454899</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
         <v>47</v>
       </c>
@@ -8313,17 +8554,17 @@
       <c r="H234" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I234" s="2" t="n">
-        <v>658.4026</v>
-      </c>
-      <c r="J234" s="2" t="n">
-        <v>16.9198</v>
-      </c>
-      <c r="K234" s="2" t="n">
-        <v>658.4026</v>
-      </c>
-    </row>
-    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I234" s="2">
+        <v>658.40260000000001</v>
+      </c>
+      <c r="J234" s="2">
+        <v>16.919799999999999</v>
+      </c>
+      <c r="K234" s="2">
+        <v>658.40260000000001</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
         <v>47</v>
       </c>
@@ -8348,17 +8589,17 @@
       <c r="H235" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I235" s="3" t="n">
-        <v>0.0125450596222182</v>
-      </c>
-      <c r="J235" s="3" t="n">
-        <v>0.000509424112747559</v>
-      </c>
-      <c r="K235" s="3" t="n">
-        <v>0.0125450596222182</v>
-      </c>
-    </row>
-    <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I235" s="3">
+        <v>1.25450596222182E-2</v>
+      </c>
+      <c r="J235" s="3">
+        <v>5.0942411274755898E-4</v>
+      </c>
+      <c r="K235" s="3">
+        <v>1.25450596222182E-2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A236" s="4" t="s">
         <v>47</v>
       </c>
@@ -8384,14 +8625,14 @@
         <v>20</v>
       </c>
       <c r="I236" s="5"/>
-      <c r="J236" s="6" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="K236" s="6" t="n">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J236" s="6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K236" s="6">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A237" s="4" t="s">
         <v>47</v>
       </c>
@@ -8417,14 +8658,14 @@
         <v>21</v>
       </c>
       <c r="I237" s="7"/>
-      <c r="J237" s="8" t="n">
-        <v>0.200991558354549</v>
-      </c>
-      <c r="K237" s="8" t="n">
-        <v>0.200991558354549</v>
-      </c>
-    </row>
-    <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J237" s="8">
+        <v>0.20099155835454899</v>
+      </c>
+      <c r="K237" s="8">
+        <v>0.20099155835454899</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
         <v>47</v>
       </c>
@@ -8449,15 +8690,15 @@
       <c r="H238" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I238" s="2" t="n">
+      <c r="I238" s="2">
         <v>145.2114</v>
       </c>
       <c r="J238" s="2"/>
-      <c r="K238" s="2" t="n">
+      <c r="K238" s="2">
         <v>145.2114</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
         <v>47</v>
       </c>
@@ -8482,15 +8723,15 @@
       <c r="H239" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I239" s="3" t="n">
-        <v>0.00276682636251099</v>
+      <c r="I239" s="3">
+        <v>2.76682636251099E-3</v>
       </c>
       <c r="J239" s="3"/>
-      <c r="K239" s="3" t="n">
-        <v>0.00276682636251099</v>
-      </c>
-    </row>
-    <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K239" s="3">
+        <v>2.76682636251099E-3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A240" s="4" t="s">
         <v>47</v>
       </c>
@@ -8516,14 +8757,12 @@
         <v>20</v>
       </c>
       <c r="I240" s="5"/>
-      <c r="J240" s="6" t="n">
+      <c r="J240" s="6"/>
+      <c r="K240" s="6">
         <v>0.16</v>
       </c>
-      <c r="K240" s="6" t="n">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A241" s="4" t="s">
         <v>47</v>
       </c>
@@ -8550,11 +8789,11 @@
       </c>
       <c r="I241" s="7"/>
       <c r="J241" s="8"/>
-      <c r="K241" s="8" t="n">
-        <v>0.200991558354549</v>
-      </c>
-    </row>
-    <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K241" s="8">
+        <v>0.20099155835454899</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
         <v>47</v>
       </c>
@@ -8579,15 +8818,15 @@
       <c r="H242" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I242" s="2" t="n">
-        <v>46.9144</v>
+      <c r="I242" s="2">
+        <v>46.914400000000001</v>
       </c>
       <c r="J242" s="2"/>
-      <c r="K242" s="2" t="n">
-        <v>46.9144</v>
-      </c>
-    </row>
-    <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K242" s="2">
+        <v>46.914400000000001</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
         <v>47</v>
       </c>
@@ -8612,15 +8851,15 @@
       <c r="H243" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I243" s="3" t="n">
-        <v>0.000893896751228799</v>
+      <c r="I243" s="3">
+        <v>8.9389675122879904E-4</v>
       </c>
       <c r="J243" s="3"/>
-      <c r="K243" s="3" t="n">
-        <v>0.000893896751228799</v>
-      </c>
-    </row>
-    <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K243" s="3">
+        <v>8.9389675122879904E-4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A244" s="4" t="s">
         <v>47</v>
       </c>
@@ -8647,11 +8886,11 @@
       </c>
       <c r="I244" s="5"/>
       <c r="J244" s="6"/>
-      <c r="K244" s="6" t="n">
+      <c r="K244" s="6">
         <v>0.16</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A245" s="4" t="s">
         <v>47</v>
       </c>
@@ -8678,11 +8917,11 @@
       </c>
       <c r="I245" s="7"/>
       <c r="J245" s="8"/>
-      <c r="K245" s="8" t="n">
-        <v>0.200991558354549</v>
-      </c>
-    </row>
-    <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K245" s="8">
+        <v>0.20099155835454899</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
         <v>47</v>
       </c>
@@ -8707,15 +8946,15 @@
       <c r="H246" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I246" s="2" t="n">
-        <v>44.4904</v>
+      <c r="I246" s="2">
+        <v>44.490400000000001</v>
       </c>
       <c r="J246" s="2"/>
-      <c r="K246" s="2" t="n">
-        <v>44.4904</v>
-      </c>
-    </row>
-    <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K246" s="2">
+        <v>44.490400000000001</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
         <v>47</v>
       </c>
@@ -8740,15 +8979,15 @@
       <c r="H247" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I247" s="3" t="n">
-        <v>0.000847710383610784</v>
+      <c r="I247" s="3">
+        <v>8.4771038361078398E-4</v>
       </c>
       <c r="J247" s="3"/>
-      <c r="K247" s="3" t="n">
-        <v>0.000847710383610784</v>
-      </c>
-    </row>
-    <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K247" s="3">
+        <v>8.4771038361078398E-4</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A248" s="4" t="s">
         <v>47</v>
       </c>
@@ -8775,11 +9014,11 @@
       </c>
       <c r="I248" s="5"/>
       <c r="J248" s="6"/>
-      <c r="K248" s="6" t="n">
+      <c r="K248" s="6">
         <v>0.16</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A249" s="4" t="s">
         <v>47</v>
       </c>
@@ -8806,11 +9045,11 @@
       </c>
       <c r="I249" s="7"/>
       <c r="J249" s="8"/>
-      <c r="K249" s="8" t="n">
-        <v>0.200991558354549</v>
-      </c>
-    </row>
-    <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K249" s="8">
+        <v>0.20099155835454899</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
         <v>47</v>
       </c>
@@ -8835,15 +9074,15 @@
       <c r="H250" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I250" s="2" t="n">
-        <v>3.099</v>
+      <c r="I250" s="2">
+        <v>3.0990000000000002</v>
       </c>
       <c r="J250" s="2"/>
-      <c r="K250" s="2" t="n">
-        <v>3.099</v>
-      </c>
-    </row>
-    <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K250" s="2">
+        <v>3.0990000000000002</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
         <v>47</v>
       </c>
@@ -8868,15 +9107,15 @@
       <c r="H251" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I251" s="3" t="n">
-        <v>5.90476704819426E-005</v>
+      <c r="I251" s="3">
+        <v>5.9047670481942602E-5</v>
       </c>
       <c r="J251" s="3"/>
-      <c r="K251" s="3" t="n">
-        <v>5.90476704819426E-005</v>
-      </c>
-    </row>
-    <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K251" s="3">
+        <v>5.9047670481942602E-5</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A252" s="4" t="s">
         <v>47</v>
       </c>
@@ -8903,11 +9142,11 @@
       </c>
       <c r="I252" s="5"/>
       <c r="J252" s="6"/>
-      <c r="K252" s="6" t="n">
+      <c r="K252" s="6">
         <v>0.16</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A253" s="4" t="s">
         <v>47</v>
       </c>
@@ -8934,11 +9173,11 @@
       </c>
       <c r="I253" s="7"/>
       <c r="J253" s="8"/>
-      <c r="K253" s="8" t="n">
-        <v>0.200991558354549</v>
-      </c>
-    </row>
-    <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K253" s="8">
+        <v>0.20099155835454899</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
         <v>47</v>
       </c>
@@ -8963,15 +9202,15 @@
       <c r="H254" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I254" s="2" t="n">
-        <v>0.52236</v>
+      <c r="I254" s="2">
+        <v>0.52236000000000005</v>
       </c>
       <c r="J254" s="2"/>
-      <c r="K254" s="2" t="n">
-        <v>0.52236</v>
-      </c>
-    </row>
-    <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K254" s="2">
+        <v>0.52236000000000005</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
         <v>47</v>
       </c>
@@ -8996,15 +9235,15 @@
       <c r="H255" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I255" s="3" t="n">
-        <v>9.95293357629802E-006</v>
+      <c r="I255" s="3">
+        <v>9.9529335762980199E-6</v>
       </c>
       <c r="J255" s="3"/>
-      <c r="K255" s="3" t="n">
-        <v>9.95293357629802E-006</v>
-      </c>
-    </row>
-    <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K255" s="3">
+        <v>9.9529335762980199E-6</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A256" s="4" t="s">
         <v>47</v>
       </c>
@@ -9031,11 +9270,11 @@
       </c>
       <c r="I256" s="5"/>
       <c r="J256" s="6"/>
-      <c r="K256" s="6" t="n">
+      <c r="K256" s="6">
         <v>0.9</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A257" s="4" t="s">
         <v>47</v>
       </c>
@@ -9062,11 +9301,11 @@
       </c>
       <c r="I257" s="7"/>
       <c r="J257" s="8"/>
-      <c r="K257" s="8" t="n">
-        <v>0.200991558354549</v>
-      </c>
-    </row>
-    <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K257" s="8">
+        <v>0.20099155835454899</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
         <v>47</v>
       </c>
@@ -9091,17 +9330,17 @@
       <c r="H258" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I258" s="2" t="n">
+      <c r="I258" s="2">
         <v>3140.1194</v>
       </c>
-      <c r="J258" s="2" t="n">
+      <c r="J258" s="2">
         <v>3140.1194</v>
       </c>
-      <c r="K258" s="2" t="n">
+      <c r="K258" s="2">
         <v>1490.106</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
         <v>47</v>
       </c>
@@ -9126,17 +9365,17 @@
       <c r="H259" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I259" s="3" t="n">
-        <v>0.094543229782054</v>
-      </c>
-      <c r="J259" s="3" t="n">
-        <v>0.094543229782054</v>
-      </c>
-      <c r="K259" s="3" t="n">
-        <v>0.0283921549116378</v>
-      </c>
-    </row>
-    <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I259" s="3">
+        <v>9.4543229782053997E-2</v>
+      </c>
+      <c r="J259" s="3">
+        <v>9.4543229782053997E-2</v>
+      </c>
+      <c r="K259" s="3">
+        <v>2.8392154911637799E-2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A260" s="4" t="s">
         <v>47</v>
       </c>
@@ -9162,14 +9401,14 @@
         <v>20</v>
       </c>
       <c r="I260" s="5"/>
-      <c r="J260" s="6" t="n">
+      <c r="J260" s="6">
         <v>0.16</v>
       </c>
-      <c r="K260" s="6" t="n">
+      <c r="K260" s="6">
         <v>0.16</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A261" s="4" t="s">
         <v>47</v>
       </c>
@@ -9195,14 +9434,14 @@
         <v>21</v>
       </c>
       <c r="I261" s="7"/>
-      <c r="J261" s="8" t="n">
-        <v>0.0167700821734027</v>
-      </c>
-      <c r="K261" s="8" t="n">
-        <v>0.0167700821734027</v>
-      </c>
-    </row>
-    <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J261" s="8">
+        <v>1.6770082173402701E-2</v>
+      </c>
+      <c r="K261" s="8">
+        <v>1.6770082173402701E-2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
         <v>47</v>
       </c>
@@ -9227,17 +9466,17 @@
       <c r="H262" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I262" s="2" t="n">
-        <v>2787.4749</v>
-      </c>
-      <c r="J262" s="2" t="n">
+      <c r="I262" s="2">
+        <v>2787.4749000000002</v>
+      </c>
+      <c r="J262" s="2">
         <v>1934.65175</v>
       </c>
-      <c r="K262" s="2" t="n">
-        <v>2787.4749</v>
-      </c>
-    </row>
-    <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K262" s="2">
+        <v>2787.4749000000002</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
         <v>47</v>
       </c>
@@ -9262,17 +9501,17 @@
       <c r="H263" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I263" s="3" t="n">
-        <v>0.0582488121147568</v>
-      </c>
-      <c r="J263" s="3" t="n">
-        <v>0.0582488121147568</v>
-      </c>
-      <c r="K263" s="3" t="n">
-        <v>0.0531119391325866</v>
-      </c>
-    </row>
-    <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I263" s="3">
+        <v>5.8248812114756798E-2</v>
+      </c>
+      <c r="J263" s="3">
+        <v>5.8248812114756798E-2</v>
+      </c>
+      <c r="K263" s="3">
+        <v>5.3111939132586598E-2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A264" s="4" t="s">
         <v>47</v>
       </c>
@@ -9298,14 +9537,14 @@
         <v>20</v>
       </c>
       <c r="I264" s="5"/>
-      <c r="J264" s="6" t="n">
+      <c r="J264" s="6">
         <v>0.85</v>
       </c>
-      <c r="K264" s="6" t="n">
+      <c r="K264" s="6">
         <v>0.85</v>
       </c>
     </row>
-    <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A265" s="4" t="s">
         <v>47</v>
       </c>
@@ -9331,14 +9570,14 @@
         <v>21</v>
       </c>
       <c r="I265" s="7"/>
-      <c r="J265" s="8" t="n">
-        <v>0.0167700821734027</v>
-      </c>
-      <c r="K265" s="8" t="n">
-        <v>0.0167700821734027</v>
-      </c>
-    </row>
-    <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J265" s="8">
+        <v>1.6770082173402701E-2</v>
+      </c>
+      <c r="K265" s="8">
+        <v>1.6770082173402701E-2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
         <v>47</v>
       </c>
@@ -9363,17 +9602,17 @@
       <c r="H266" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I266" s="2" t="n">
-        <v>971.5247</v>
-      </c>
-      <c r="J266" s="2" t="n">
-        <v>775.652</v>
-      </c>
-      <c r="K266" s="2" t="n">
-        <v>971.5247</v>
-      </c>
-    </row>
-    <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I266" s="2">
+        <v>971.52470000000005</v>
+      </c>
+      <c r="J266" s="2">
+        <v>775.65200000000004</v>
+      </c>
+      <c r="K266" s="2">
+        <v>971.52470000000005</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
         <v>47</v>
       </c>
@@ -9398,17 +9637,17 @@
       <c r="H267" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I267" s="3" t="n">
-        <v>0.023353457600023</v>
-      </c>
-      <c r="J267" s="3" t="n">
-        <v>0.023353457600023</v>
-      </c>
-      <c r="K267" s="3" t="n">
-        <v>0.0185112198614612</v>
-      </c>
-    </row>
-    <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I267" s="3">
+        <v>2.3353457600023001E-2</v>
+      </c>
+      <c r="J267" s="3">
+        <v>2.3353457600023001E-2</v>
+      </c>
+      <c r="K267" s="3">
+        <v>1.85112198614612E-2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A268" s="4" t="s">
         <v>47</v>
       </c>
@@ -9434,14 +9673,14 @@
         <v>20</v>
       </c>
       <c r="I268" s="5"/>
-      <c r="J268" s="6" t="n">
+      <c r="J268" s="6">
         <v>0.85</v>
       </c>
-      <c r="K268" s="6" t="n">
+      <c r="K268" s="6">
         <v>0.85</v>
       </c>
     </row>
-    <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A269" s="4" t="s">
         <v>47</v>
       </c>
@@ -9467,14 +9706,14 @@
         <v>21</v>
       </c>
       <c r="I269" s="7"/>
-      <c r="J269" s="8" t="n">
-        <v>0.0167700821734027</v>
-      </c>
-      <c r="K269" s="8" t="n">
-        <v>0.0167700821734027</v>
-      </c>
-    </row>
-    <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J269" s="8">
+        <v>1.6770082173402701E-2</v>
+      </c>
+      <c r="K269" s="8">
+        <v>1.6770082173402701E-2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
         <v>47</v>
       </c>
@@ -9499,15 +9738,15 @@
       <c r="H270" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I270" s="2" t="n">
-        <v>551.6266</v>
+      <c r="I270" s="2">
+        <v>551.62660000000005</v>
       </c>
       <c r="J270" s="2"/>
-      <c r="K270" s="2" t="n">
-        <v>551.6266</v>
-      </c>
-    </row>
-    <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K270" s="2">
+        <v>551.62660000000005</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
         <v>47</v>
       </c>
@@ -9532,15 +9771,15 @@
       <c r="H271" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I271" s="3" t="n">
-        <v>0.0105105729931831</v>
+      <c r="I271" s="3">
+        <v>1.0510572993183099E-2</v>
       </c>
       <c r="J271" s="3"/>
-      <c r="K271" s="3" t="n">
-        <v>0.0105105729931831</v>
-      </c>
-    </row>
-    <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K271" s="3">
+        <v>1.0510572993183099E-2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A272" s="4" t="s">
         <v>47</v>
       </c>
@@ -9567,11 +9806,11 @@
       </c>
       <c r="I272" s="5"/>
       <c r="J272" s="6"/>
-      <c r="K272" s="6" t="n">
+      <c r="K272" s="6">
         <v>0.3</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A273" s="4" t="s">
         <v>47</v>
       </c>
@@ -9598,11 +9837,11 @@
       </c>
       <c r="I273" s="7"/>
       <c r="J273" s="8"/>
-      <c r="K273" s="8" t="n">
-        <v>0.0167700821734027</v>
-      </c>
-    </row>
-    <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K273" s="8">
+        <v>1.6770082173402701E-2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
         <v>47</v>
       </c>
@@ -9627,15 +9866,15 @@
       <c r="H274" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I274" s="2" t="n">
+      <c r="I274" s="2">
         <v>145.2114</v>
       </c>
       <c r="J274" s="2"/>
-      <c r="K274" s="2" t="n">
+      <c r="K274" s="2">
         <v>145.2114</v>
       </c>
     </row>
-    <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
         <v>47</v>
       </c>
@@ -9660,15 +9899,15 @@
       <c r="H275" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I275" s="3" t="n">
-        <v>0.00276682636251099</v>
+      <c r="I275" s="3">
+        <v>2.76682636251099E-3</v>
       </c>
       <c r="J275" s="3"/>
-      <c r="K275" s="3" t="n">
-        <v>0.00276682636251099</v>
-      </c>
-    </row>
-    <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K275" s="3">
+        <v>2.76682636251099E-3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A276" s="4" t="s">
         <v>47</v>
       </c>
@@ -9695,11 +9934,11 @@
       </c>
       <c r="I276" s="5"/>
       <c r="J276" s="6"/>
-      <c r="K276" s="6" t="n">
+      <c r="K276" s="6">
         <v>0.32</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A277" s="4" t="s">
         <v>47</v>
       </c>
@@ -9726,11 +9965,11 @@
       </c>
       <c r="I277" s="7"/>
       <c r="J277" s="8"/>
-      <c r="K277" s="8" t="n">
-        <v>0.0167700821734027</v>
-      </c>
-    </row>
-    <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K277" s="8">
+        <v>1.6770082173402701E-2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
         <v>47</v>
       </c>
@@ -9755,15 +9994,15 @@
       <c r="H278" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I278" s="2" t="n">
-        <v>13.986</v>
+      <c r="I278" s="2">
+        <v>13.986000000000001</v>
       </c>
       <c r="J278" s="2"/>
-      <c r="K278" s="2" t="n">
-        <v>13.986</v>
-      </c>
-    </row>
-    <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K278" s="2">
+        <v>13.986000000000001</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
         <v>47</v>
       </c>
@@ -9788,15 +10027,15 @@
       <c r="H279" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I279" s="3" t="n">
-        <v>0.000266486195340578</v>
+      <c r="I279" s="3">
+        <v>2.6648619534057799E-4</v>
       </c>
       <c r="J279" s="3"/>
-      <c r="K279" s="3" t="n">
-        <v>0.000266486195340578</v>
-      </c>
-    </row>
-    <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K279" s="3">
+        <v>2.6648619534057799E-4</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A280" s="4" t="s">
         <v>47</v>
       </c>
@@ -9823,11 +10062,11 @@
       </c>
       <c r="I280" s="5"/>
       <c r="J280" s="6"/>
-      <c r="K280" s="6" t="n">
+      <c r="K280" s="6">
         <v>0.85</v>
       </c>
     </row>
-    <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A281" s="4" t="s">
         <v>47</v>
       </c>
@@ -9854,11 +10093,11 @@
       </c>
       <c r="I281" s="7"/>
       <c r="J281" s="8"/>
-      <c r="K281" s="8" t="n">
-        <v>0.0167700821734027</v>
-      </c>
-    </row>
-    <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K281" s="8">
+        <v>1.6770082173402701E-2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
         <v>47</v>
       </c>
@@ -9883,17 +10122,17 @@
       <c r="H282" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I282" s="2" t="n">
+      <c r="I282" s="2">
         <v>214.2448</v>
       </c>
-      <c r="J282" s="2" t="n">
-        <v>184.4368</v>
-      </c>
-      <c r="K282" s="2" t="n">
+      <c r="J282" s="2">
+        <v>184.43680000000001</v>
+      </c>
+      <c r="K282" s="2">
         <v>214.2448</v>
       </c>
     </row>
-    <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
         <v>47</v>
       </c>
@@ -9918,17 +10157,17 @@
       <c r="H283" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I283" s="3" t="n">
-        <v>0.00540142152394645</v>
-      </c>
-      <c r="J283" s="3" t="n">
-        <v>0.00540142152394645</v>
-      </c>
-      <c r="K283" s="3" t="n">
-        <v>0.00368507037370386</v>
-      </c>
-    </row>
-    <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I283" s="3">
+        <v>5.4014215239464496E-3</v>
+      </c>
+      <c r="J283" s="3">
+        <v>5.4014215239464496E-3</v>
+      </c>
+      <c r="K283" s="3">
+        <v>3.6850703737038599E-3</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A284" s="4" t="s">
         <v>47</v>
       </c>
@@ -9954,14 +10193,14 @@
         <v>20</v>
       </c>
       <c r="I284" s="5"/>
-      <c r="J284" s="6" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="K284" s="6" t="n">
-        <v>1E-006</v>
-      </c>
-    </row>
-    <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J284" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="K284" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A285" s="4" t="s">
         <v>47</v>
       </c>
@@ -9987,14 +10226,14 @@
         <v>21</v>
       </c>
       <c r="I285" s="7"/>
-      <c r="J285" s="8" t="n">
+      <c r="J285" s="8">
         <v>1</v>
       </c>
-      <c r="K285" s="8" t="n">
+      <c r="K285" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A286" s="2" t="s">
         <v>47</v>
       </c>
@@ -10019,15 +10258,15 @@
       <c r="H286" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I286" s="2" t="n">
-        <v>747.9545</v>
-      </c>
-      <c r="J286" s="2" t="n">
-        <v>747.9545</v>
+      <c r="I286" s="2">
+        <v>747.95450000000005</v>
+      </c>
+      <c r="J286" s="2">
+        <v>747.95450000000005</v>
       </c>
       <c r="K286" s="2"/>
     </row>
-    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
         <v>47</v>
       </c>
@@ -10052,15 +10291,15 @@
       <c r="H287" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I287" s="3" t="n">
-        <v>0.0219046173823912</v>
-      </c>
-      <c r="J287" s="3" t="n">
-        <v>0.0219046173823912</v>
+      <c r="I287" s="3">
+        <v>2.19046173823912E-2</v>
+      </c>
+      <c r="J287" s="3">
+        <v>2.19046173823912E-2</v>
       </c>
       <c r="K287" s="3"/>
     </row>
-    <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A288" s="4" t="s">
         <v>47</v>
       </c>
@@ -10086,12 +10325,12 @@
         <v>20</v>
       </c>
       <c r="I288" s="5"/>
-      <c r="J288" s="6" t="n">
-        <v>1E-006</v>
+      <c r="J288" s="6">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="K288" s="6"/>
     </row>
-    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A289" s="4" t="s">
         <v>47</v>
       </c>
@@ -10117,12 +10356,12 @@
         <v>21</v>
       </c>
       <c r="I289" s="7"/>
-      <c r="J289" s="8" t="n">
+      <c r="J289" s="8">
         <v>1</v>
       </c>
       <c r="K289" s="8"/>
     </row>
-    <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A290" s="2" t="s">
         <v>47</v>
       </c>
@@ -10147,15 +10386,15 @@
       <c r="H290" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I290" s="2" t="n">
-        <v>79.2491</v>
+      <c r="I290" s="2">
+        <v>79.249099999999999</v>
       </c>
       <c r="J290" s="2"/>
-      <c r="K290" s="2" t="n">
-        <v>79.2491</v>
-      </c>
-    </row>
-    <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K290" s="2">
+        <v>79.249099999999999</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A291" s="2" t="s">
         <v>47</v>
       </c>
@@ -10180,15 +10419,15 @@
       <c r="H291" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I291" s="3" t="n">
-        <v>0.00136310664507467</v>
+      <c r="I291" s="3">
+        <v>1.3631066450746699E-3</v>
       </c>
       <c r="J291" s="3"/>
-      <c r="K291" s="3" t="n">
-        <v>0.00136310664507467</v>
-      </c>
-    </row>
-    <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K291" s="3">
+        <v>1.3631066450746699E-3</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A292" s="4" t="s">
         <v>47</v>
       </c>
@@ -10215,11 +10454,11 @@
       </c>
       <c r="I292" s="5"/>
       <c r="J292" s="6"/>
-      <c r="K292" s="6" t="n">
-        <v>1E-006</v>
-      </c>
-    </row>
-    <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K292" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A293" s="4" t="s">
         <v>47</v>
       </c>
@@ -10246,11 +10485,11 @@
       </c>
       <c r="I293" s="7"/>
       <c r="J293" s="8"/>
-      <c r="K293" s="8" t="n">
+      <c r="K293" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A294" s="2" t="s">
         <v>47</v>
       </c>
@@ -10275,15 +10514,15 @@
       <c r="H294" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I294" s="2" t="n">
-        <v>5284.6856</v>
+      <c r="I294" s="2">
+        <v>5284.6855999999998</v>
       </c>
       <c r="J294" s="2"/>
-      <c r="K294" s="2" t="n">
-        <v>5284.6856</v>
-      </c>
-    </row>
-    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K294" s="2">
+        <v>5284.6855999999998</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
         <v>47</v>
       </c>
@@ -10308,15 +10547,15 @@
       <c r="H295" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I295" s="3" t="n">
-        <v>0.0908980677192604</v>
+      <c r="I295" s="3">
+        <v>9.08980677192604E-2</v>
       </c>
       <c r="J295" s="3"/>
-      <c r="K295" s="3" t="n">
-        <v>0.0908980677192604</v>
-      </c>
-    </row>
-    <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K295" s="3">
+        <v>9.08980677192604E-2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A296" s="4" t="s">
         <v>47</v>
       </c>
@@ -10343,11 +10582,11 @@
       </c>
       <c r="I296" s="5"/>
       <c r="J296" s="6"/>
-      <c r="K296" s="6" t="n">
-        <v>1E-006</v>
-      </c>
-    </row>
-    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K296" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A297" s="4" t="s">
         <v>47</v>
       </c>
@@ -10374,11 +10613,11 @@
       </c>
       <c r="I297" s="7"/>
       <c r="J297" s="8"/>
-      <c r="K297" s="8" t="n">
+      <c r="K297" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A298" s="2" t="s">
         <v>47</v>
       </c>
@@ -10403,15 +10642,15 @@
       <c r="H298" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I298" s="2" t="n">
-        <v>6.6877</v>
+      <c r="I298" s="2">
+        <v>6.6877000000000004</v>
       </c>
       <c r="J298" s="2"/>
-      <c r="K298" s="2" t="n">
-        <v>6.6877</v>
-      </c>
-    </row>
-    <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K298" s="2">
+        <v>6.6877000000000004</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A299" s="2" t="s">
         <v>47</v>
       </c>
@@ -10436,15 +10675,15 @@
       <c r="H299" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I299" s="3" t="n">
-        <v>0.000115030307098325</v>
+      <c r="I299" s="3">
+        <v>1.15030307098325E-4</v>
       </c>
       <c r="J299" s="3"/>
-      <c r="K299" s="3" t="n">
-        <v>0.000115030307098325</v>
-      </c>
-    </row>
-    <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K299" s="3">
+        <v>1.15030307098325E-4</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A300" s="4" t="s">
         <v>47</v>
       </c>
@@ -10471,11 +10710,11 @@
       </c>
       <c r="I300" s="5"/>
       <c r="J300" s="6"/>
-      <c r="K300" s="6" t="n">
-        <v>1E-006</v>
-      </c>
-    </row>
-    <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K300" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A301" s="4" t="s">
         <v>47</v>
       </c>
@@ -10502,11 +10741,11 @@
       </c>
       <c r="I301" s="7"/>
       <c r="J301" s="8"/>
-      <c r="K301" s="8" t="n">
+      <c r="K301" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A302" s="2" t="s">
         <v>47</v>
       </c>
@@ -10531,15 +10770,15 @@
       <c r="H302" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I302" s="2" t="n">
-        <v>70.035</v>
+      <c r="I302" s="2">
+        <v>70.034999999999997</v>
       </c>
       <c r="J302" s="2"/>
-      <c r="K302" s="2" t="n">
-        <v>70.035</v>
-      </c>
-    </row>
-    <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K302" s="2">
+        <v>70.034999999999997</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A303" s="2" t="s">
         <v>47</v>
       </c>
@@ -10564,15 +10803,15 @@
       <c r="H303" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I303" s="3" t="n">
-        <v>0.00120462155264608</v>
+      <c r="I303" s="3">
+        <v>1.2046215526460801E-3</v>
       </c>
       <c r="J303" s="3"/>
-      <c r="K303" s="3" t="n">
-        <v>0.00120462155264608</v>
-      </c>
-    </row>
-    <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K303" s="3">
+        <v>1.2046215526460801E-3</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A304" s="4" t="s">
         <v>47</v>
       </c>
@@ -10599,11 +10838,11 @@
       </c>
       <c r="I304" s="5"/>
       <c r="J304" s="6"/>
-      <c r="K304" s="6" t="n">
-        <v>1E-006</v>
-      </c>
-    </row>
-    <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K304" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A305" s="4" t="s">
         <v>47</v>
       </c>
@@ -10630,17 +10869,12 @@
       </c>
       <c r="I305" s="7"/>
       <c r="J305" s="8"/>
-      <c r="K305" s="8" t="n">
+      <c r="K305" s="8">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/inst/extdata/GH-ZA-Efficiency-sample-2019.xlsx
+++ b/inst/extdata/GH-ZA-Efficiency-sample-2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/IEATools/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5FB1AE2-10A8-CF49-94A1-E093C37AE082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35721840-A95D-6B47-89F0-526FEF99D685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="26640" windowHeight="28300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,12 +67,6 @@
   </si>
   <si>
     <t>MD</t>
-  </si>
-  <si>
-    <t>eta.fu</t>
-  </si>
-  <si>
-    <t>phi.u</t>
   </si>
   <si>
     <t>Diesel cars</t>
@@ -232,6 +226,12 @@
   </si>
   <si>
     <t>MaximumValues</t>
+  </si>
+  <si>
+    <t>etafu</t>
+  </si>
+  <si>
+    <t>phiu</t>
   </si>
 </sst>
 </file>
@@ -708,7 +708,7 @@
   <dimension ref="A1:K305"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -734,10 +734,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -746,13 +746,13 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>5</v>
@@ -784,7 +784,7 @@
         <v>13</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I2" s="2">
         <v>619.25099999999998</v>
@@ -819,7 +819,7 @@
         <v>13</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I3" s="3">
         <v>0.115638763126426</v>
@@ -854,7 +854,7 @@
         <v>13</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="6">
@@ -887,7 +887,7 @@
         <v>13</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="8">
@@ -914,13 +914,13 @@
         <v>11</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I6" s="2">
         <v>187.70779999999999</v>
@@ -949,13 +949,13 @@
         <v>11</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I7" s="3">
         <v>3.5052503461734399E-2</v>
@@ -984,13 +984,13 @@
         <v>11</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="6">
@@ -1017,13 +1017,13 @@
         <v>11</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="8">
@@ -1050,13 +1050,13 @@
         <v>11</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I10" s="2">
         <v>187.70779999999999</v>
@@ -1085,13 +1085,13 @@
         <v>11</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I11" s="3">
         <v>3.5052503461734399E-2</v>
@@ -1120,13 +1120,13 @@
         <v>11</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="6">
@@ -1153,13 +1153,13 @@
         <v>11</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="8">
@@ -1186,13 +1186,13 @@
         <v>11</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I14" s="2">
         <v>187.01634999999999</v>
@@ -1221,13 +1221,13 @@
         <v>11</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I15" s="3">
         <v>3.4923382277006802E-2</v>
@@ -1256,13 +1256,13 @@
         <v>11</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="6">
@@ -1289,13 +1289,13 @@
         <v>11</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="8">
@@ -1322,13 +1322,13 @@
         <v>11</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I18" s="2">
         <v>70.325800000000001</v>
@@ -1357,13 +1357,13 @@
         <v>11</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I19" s="3">
         <v>1.3132620743246899E-2</v>
@@ -1392,13 +1392,13 @@
         <v>11</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="6">
@@ -1425,13 +1425,13 @@
         <v>11</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="8">
@@ -1458,13 +1458,13 @@
         <v>11</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I22" s="2">
         <v>63.162799999999997</v>
@@ -1493,13 +1493,13 @@
         <v>11</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I23" s="3">
         <v>1.17950040736338E-2</v>
@@ -1528,13 +1528,13 @@
         <v>11</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="6">
@@ -1561,13 +1561,13 @@
         <v>11</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="I25" s="7"/>
       <c r="J25" s="8">
@@ -1594,13 +1594,13 @@
         <v>11</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I26" s="2">
         <v>25.8551</v>
@@ -1629,13 +1629,13 @@
         <v>11</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I27" s="3">
         <v>5.84940392307316E-3</v>
@@ -1664,13 +1664,13 @@
         <v>11</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I28" s="5"/>
       <c r="J28" s="6">
@@ -1697,13 +1697,13 @@
         <v>11</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="I29" s="7"/>
       <c r="J29" s="8">
@@ -1730,13 +1730,13 @@
         <v>11</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I30" s="2">
         <v>19.075665000000001</v>
@@ -1765,13 +1765,13 @@
         <v>11</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I31" s="3">
         <v>3.5621844880574199E-3</v>
@@ -1800,13 +1800,13 @@
         <v>11</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="6">
@@ -1833,13 +1833,13 @@
         <v>11</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="I33" s="7"/>
       <c r="J33" s="8">
@@ -1866,13 +1866,13 @@
         <v>11</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I34" s="2">
         <v>158.903695</v>
@@ -1901,13 +1901,13 @@
         <v>11</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I35" s="3">
         <v>5.4511426362552899E-2</v>
@@ -1936,13 +1936,13 @@
         <v>11</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="6">
@@ -1969,13 +1969,13 @@
         <v>11</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="I37" s="7"/>
       <c r="J37" s="8">
@@ -2002,13 +2002,13 @@
         <v>11</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I38" s="2">
         <v>26.423500000000001</v>
@@ -2037,13 +2037,13 @@
         <v>11</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I39" s="3">
         <v>7.5442585505446904E-3</v>
@@ -2072,13 +2072,13 @@
         <v>11</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I40" s="5"/>
       <c r="J40" s="6">
@@ -2105,13 +2105,13 @@
         <v>11</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="I41" s="7"/>
       <c r="J41" s="8">
@@ -2138,13 +2138,13 @@
         <v>11</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I42" s="2">
         <v>15.84695</v>
@@ -2171,13 +2171,13 @@
         <v>11</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I43" s="3">
         <v>6.1214049910679798E-3</v>
@@ -2204,13 +2204,13 @@
         <v>11</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I44" s="5"/>
       <c r="J44" s="6">
@@ -2235,13 +2235,13 @@
         <v>11</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="I45" s="7"/>
       <c r="J45" s="8">
@@ -2266,13 +2266,13 @@
         <v>11</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I46" s="2">
         <v>685.27279999999996</v>
@@ -2301,13 +2301,13 @@
         <v>11</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I47" s="3">
         <v>0.127967656081593</v>
@@ -2336,13 +2336,13 @@
         <v>11</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I48" s="5"/>
       <c r="J48" s="6">
@@ -2369,13 +2369,13 @@
         <v>11</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="I49" s="7"/>
       <c r="J49" s="8">
@@ -2402,13 +2402,13 @@
         <v>11</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I50" s="2">
         <v>216.6498</v>
@@ -2437,13 +2437,13 @@
         <v>11</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I51" s="3">
         <v>5.2898461767616402E-2</v>
@@ -2472,13 +2472,13 @@
         <v>11</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I52" s="5"/>
       <c r="J52" s="6">
@@ -2505,13 +2505,13 @@
         <v>11</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="I53" s="7"/>
       <c r="J53" s="8">
@@ -2538,13 +2538,13 @@
         <v>11</v>
       </c>
       <c r="F54" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G54" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G54" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="H54" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I54" s="2">
         <v>148.09976</v>
@@ -2573,13 +2573,13 @@
         <v>11</v>
       </c>
       <c r="F55" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G55" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G55" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="H55" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I55" s="3">
         <v>2.7656108856861698E-2</v>
@@ -2608,13 +2608,13 @@
         <v>11</v>
       </c>
       <c r="F56" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G56" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G56" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="H56" s="4" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I56" s="5"/>
       <c r="J56" s="6">
@@ -2641,13 +2641,13 @@
         <v>11</v>
       </c>
       <c r="F57" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G57" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G57" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="H57" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="I57" s="7"/>
       <c r="J57" s="8">
@@ -2674,13 +2674,13 @@
         <v>11</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I58" s="2">
         <v>19.075665000000001</v>
@@ -2709,13 +2709,13 @@
         <v>11</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I59" s="3">
         <v>3.5621844880574199E-3</v>
@@ -2744,13 +2744,13 @@
         <v>11</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I60" s="5"/>
       <c r="J60" s="6">
@@ -2777,13 +2777,13 @@
         <v>11</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="I61" s="7"/>
       <c r="J61" s="8">
@@ -2810,13 +2810,13 @@
         <v>11</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I62" s="2">
         <v>4.5190000000000001</v>
@@ -2843,13 +2843,13 @@
         <v>11</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I63" s="3">
         <v>8.43876829538132E-4</v>
@@ -2876,13 +2876,13 @@
         <v>11</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I64" s="5"/>
       <c r="J64" s="6"/>
@@ -2907,13 +2907,13 @@
         <v>11</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="I65" s="7"/>
       <c r="J65" s="8"/>
@@ -2938,13 +2938,13 @@
         <v>11</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I66" s="2">
         <v>1.1608000000000001</v>
@@ -2971,13 +2971,13 @@
         <v>11</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I67" s="3">
         <v>4.4839713090731701E-4</v>
@@ -3004,13 +3004,13 @@
         <v>11</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I68" s="5"/>
       <c r="J68" s="6">
@@ -3035,13 +3035,13 @@
         <v>11</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="I69" s="7"/>
       <c r="J69" s="8">
@@ -3066,13 +3066,13 @@
         <v>11</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I70" s="2">
         <v>2111.7321999999999</v>
@@ -3101,13 +3101,13 @@
         <v>11</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I71" s="3">
         <v>0.56556649190973096</v>
@@ -3136,13 +3136,13 @@
         <v>11</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I72" s="5"/>
       <c r="J72" s="6">
@@ -3169,13 +3169,13 @@
         <v>11</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="I73" s="7"/>
       <c r="J73" s="8">
@@ -3202,13 +3202,13 @@
         <v>11</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I74" s="2">
         <v>515.68740000000003</v>
@@ -3237,13 +3237,13 @@
         <v>11</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I75" s="3">
         <v>9.6299324661376903E-2</v>
@@ -3272,13 +3272,13 @@
         <v>11</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I76" s="5"/>
       <c r="J76" s="6">
@@ -3305,13 +3305,13 @@
         <v>11</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="I77" s="7"/>
       <c r="J77" s="8">
@@ -3338,13 +3338,13 @@
         <v>11</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I78" s="2">
         <v>83.691599999999994</v>
@@ -3373,13 +3373,13 @@
         <v>11</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I79" s="3">
         <v>3.2328629670092E-2</v>
@@ -3408,13 +3408,13 @@
         <v>11</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I80" s="5"/>
       <c r="J80" s="6">
@@ -3441,13 +3441,13 @@
         <v>11</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="I81" s="7"/>
       <c r="J81" s="8">
@@ -3474,13 +3474,13 @@
         <v>11</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I82" s="2">
         <v>36.151699999999998</v>
@@ -3509,13 +3509,13 @@
         <v>11</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I83" s="3">
         <v>6.7509586143867399E-3</v>
@@ -3544,13 +3544,13 @@
         <v>11</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I84" s="5"/>
       <c r="J84" s="6">
@@ -3577,13 +3577,13 @@
         <v>11</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="I85" s="7"/>
       <c r="J85" s="8">
@@ -3610,13 +3610,13 @@
         <v>11</v>
       </c>
       <c r="F86" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G86" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G86" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="H86" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I86" s="2">
         <v>19.075665000000001</v>
@@ -3645,13 +3645,13 @@
         <v>11</v>
       </c>
       <c r="F87" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G87" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G87" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="H87" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I87" s="3">
         <v>3.5621844880574199E-3</v>
@@ -3680,13 +3680,13 @@
         <v>11</v>
       </c>
       <c r="F88" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G88" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G88" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="H88" s="4" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I88" s="5"/>
       <c r="J88" s="6">
@@ -3713,13 +3713,13 @@
         <v>11</v>
       </c>
       <c r="F89" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G89" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G89" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="H89" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="I89" s="7"/>
       <c r="J89" s="8">
@@ -3746,13 +3746,13 @@
         <v>11</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I90" s="2">
         <v>5.5890000000000004</v>
@@ -3779,13 +3779,13 @@
         <v>11</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I91" s="3">
         <v>1.0305607070785999E-3</v>
@@ -3812,13 +3812,13 @@
         <v>11</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I92" s="5"/>
       <c r="J92" s="6"/>
@@ -3843,13 +3843,13 @@
         <v>11</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="I93" s="7"/>
       <c r="J93" s="8"/>
@@ -3874,13 +3874,13 @@
         <v>11</v>
       </c>
       <c r="F94" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G94" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G94" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="H94" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I94" s="2">
         <v>31.0977</v>
@@ -3909,13 +3909,13 @@
         <v>11</v>
       </c>
       <c r="F95" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G95" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G95" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="H95" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I95" s="3">
         <v>6.9266799683738896E-3</v>
@@ -3944,13 +3944,13 @@
         <v>11</v>
       </c>
       <c r="F96" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G96" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G96" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="H96" s="4" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I96" s="5"/>
       <c r="J96" s="6">
@@ -3977,13 +3977,13 @@
         <v>11</v>
       </c>
       <c r="F97" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G97" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G97" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="H97" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="I97" s="7"/>
       <c r="J97" s="8">
@@ -4010,13 +4010,13 @@
         <v>11</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I98" s="2">
         <v>31.527699999999999</v>
@@ -4043,13 +4043,13 @@
         <v>11</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I99" s="3">
         <v>5.8134207916553798E-3</v>
@@ -4076,13 +4076,13 @@
         <v>11</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I100" s="5"/>
       <c r="J100" s="6"/>
@@ -4107,13 +4107,13 @@
         <v>11</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="I101" s="7"/>
       <c r="J101" s="8"/>
@@ -4123,7 +4123,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>8</v>
@@ -4138,13 +4138,13 @@
         <v>11</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I102" s="2">
         <v>3295.5133999999998</v>
@@ -4158,7 +4158,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>8</v>
@@ -4173,13 +4173,13 @@
         <v>11</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I103" s="3">
         <v>9.9221857814081202E-2</v>
@@ -4193,7 +4193,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>8</v>
@@ -4208,13 +4208,13 @@
         <v>11</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G104" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I104" s="5"/>
       <c r="J104" s="6">
@@ -4226,7 +4226,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>8</v>
@@ -4241,13 +4241,13 @@
         <v>11</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G105" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="I105" s="7"/>
       <c r="J105" s="8">
@@ -4259,7 +4259,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>8</v>
@@ -4274,13 +4274,13 @@
         <v>11</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I106" s="2">
         <v>5168.6931100000002</v>
@@ -4294,7 +4294,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>8</v>
@@ -4309,13 +4309,13 @@
         <v>11</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I107" s="3">
         <v>9.8483151849489303E-2</v>
@@ -4329,7 +4329,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>8</v>
@@ -4344,13 +4344,13 @@
         <v>11</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G108" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I108" s="5"/>
       <c r="J108" s="6">
@@ -4362,7 +4362,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>8</v>
@@ -4377,13 +4377,13 @@
         <v>11</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G109" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="I109" s="7"/>
       <c r="J109" s="8">
@@ -4395,7 +4395,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>8</v>
@@ -4410,13 +4410,13 @@
         <v>11</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I110" s="2">
         <v>4109.3926000000001</v>
@@ -4430,7 +4430,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>8</v>
@@ -4445,13 +4445,13 @@
         <v>11</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I111" s="3">
         <v>7.8299470837603594E-2</v>
@@ -4465,7 +4465,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>8</v>
@@ -4480,13 +4480,13 @@
         <v>11</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G112" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I112" s="5"/>
       <c r="J112" s="6">
@@ -4498,7 +4498,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>8</v>
@@ -4513,13 +4513,13 @@
         <v>11</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G113" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="I113" s="7"/>
       <c r="J113" s="8">
@@ -4531,7 +4531,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>8</v>
@@ -4552,7 +4552,7 @@
         <v>13</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I114" s="2">
         <v>4029.2543000000001</v>
@@ -4566,7 +4566,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>8</v>
@@ -4587,7 +4587,7 @@
         <v>13</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I115" s="3">
         <v>7.6772533137899501E-2</v>
@@ -4601,7 +4601,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>8</v>
@@ -4622,7 +4622,7 @@
         <v>13</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I116" s="5"/>
       <c r="J116" s="6">
@@ -4634,7 +4634,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>8</v>
@@ -4655,7 +4655,7 @@
         <v>13</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="I117" s="7"/>
       <c r="J117" s="8">
@@ -4667,28 +4667,28 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F118" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I118" s="2">
         <v>2496.8186000000001</v>
@@ -4702,28 +4702,28 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F119" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I119" s="3">
         <v>4.75738373494628E-2</v>
@@ -4737,28 +4737,28 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F120" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D120" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E120" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F120" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="G120" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I120" s="5"/>
       <c r="J120" s="6">
@@ -4770,28 +4770,28 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F121" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D121" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E121" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F121" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="G121" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="I121" s="7"/>
       <c r="J121" s="8">
@@ -4803,7 +4803,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>8</v>
@@ -4818,13 +4818,13 @@
         <v>11</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I122" s="2">
         <v>1673.8107</v>
@@ -4838,7 +4838,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>8</v>
@@ -4853,13 +4853,13 @@
         <v>11</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I123" s="3">
         <v>3.1892424221603703E-2</v>
@@ -4873,7 +4873,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>8</v>
@@ -4888,13 +4888,13 @@
         <v>11</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G124" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I124" s="5"/>
       <c r="J124" s="6">
@@ -4906,7 +4906,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>8</v>
@@ -4921,13 +4921,13 @@
         <v>11</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G125" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="I125" s="7"/>
       <c r="J125" s="8">
@@ -4939,7 +4939,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>8</v>
@@ -4954,13 +4954,13 @@
         <v>11</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I126" s="2">
         <v>1672.8117</v>
@@ -4974,7 +4974,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>8</v>
@@ -4989,13 +4989,13 @@
         <v>11</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I127" s="3">
         <v>3.1873389493364997E-2</v>
@@ -5009,7 +5009,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>8</v>
@@ -5024,13 +5024,13 @@
         <v>11</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G128" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I128" s="5"/>
       <c r="J128" s="6">
@@ -5042,7 +5042,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>8</v>
@@ -5057,13 +5057,13 @@
         <v>11</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G129" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="I129" s="7"/>
       <c r="J129" s="8">
@@ -5075,7 +5075,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>8</v>
@@ -5090,13 +5090,13 @@
         <v>11</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I130" s="2">
         <v>739.81083000000001</v>
@@ -5110,7 +5110,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>8</v>
@@ -5125,13 +5125,13 @@
         <v>11</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I131" s="3">
         <v>1.40961942913238E-2</v>
@@ -5145,7 +5145,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>8</v>
@@ -5160,13 +5160,13 @@
         <v>11</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G132" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I132" s="5"/>
       <c r="J132" s="6">
@@ -5178,7 +5178,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>8</v>
@@ -5193,13 +5193,13 @@
         <v>11</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G133" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="I133" s="7"/>
       <c r="J133" s="8">
@@ -5211,7 +5211,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>8</v>
@@ -5226,13 +5226,13 @@
         <v>11</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I134" s="2">
         <v>614.11339999999996</v>
@@ -5246,7 +5246,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>8</v>
@@ -5261,13 +5261,13 @@
         <v>11</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I135" s="3">
         <v>1.170118285955E-2</v>
@@ -5281,7 +5281,7 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>8</v>
@@ -5296,13 +5296,13 @@
         <v>11</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G136" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H136" s="4" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I136" s="5"/>
       <c r="J136" s="6">
@@ -5314,7 +5314,7 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>8</v>
@@ -5329,13 +5329,13 @@
         <v>11</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G137" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H137" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="I137" s="7"/>
       <c r="J137" s="8">
@@ -5347,7 +5347,7 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>8</v>
@@ -5362,13 +5362,13 @@
         <v>11</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I138" s="2">
         <v>518.56809999999996</v>
@@ -5380,7 +5380,7 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>8</v>
@@ -5395,13 +5395,13 @@
         <v>11</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I139" s="3">
         <v>9.8806835402539799E-3</v>
@@ -5413,7 +5413,7 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>8</v>
@@ -5428,13 +5428,13 @@
         <v>11</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G140" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I140" s="5"/>
       <c r="J140" s="6"/>
@@ -5444,7 +5444,7 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>8</v>
@@ -5459,13 +5459,13 @@
         <v>11</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G141" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H141" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="I141" s="7"/>
       <c r="J141" s="8"/>
@@ -5475,7 +5475,7 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>8</v>
@@ -5490,13 +5490,13 @@
         <v>11</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G142" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I142" s="2">
         <v>162.08090000000001</v>
@@ -5510,7 +5510,7 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>8</v>
@@ -5525,13 +5525,13 @@
         <v>11</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G143" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I143" s="3">
         <v>3.0882541383080702E-3</v>
@@ -5545,7 +5545,7 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>8</v>
@@ -5560,13 +5560,13 @@
         <v>11</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G144" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H144" s="4" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I144" s="5"/>
       <c r="J144" s="6">
@@ -5578,7 +5578,7 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>8</v>
@@ -5593,13 +5593,13 @@
         <v>11</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G145" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H145" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="I145" s="7"/>
       <c r="J145" s="8">
@@ -5611,7 +5611,7 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>8</v>
@@ -5626,13 +5626,13 @@
         <v>11</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G146" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I146" s="2">
         <v>102.61539999999999</v>
@@ -5644,7 +5644,7 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>8</v>
@@ -5659,13 +5659,13 @@
         <v>11</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G147" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I147" s="3">
         <v>1.9552114635601001E-3</v>
@@ -5677,7 +5677,7 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>8</v>
@@ -5692,13 +5692,13 @@
         <v>11</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G148" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H148" s="4" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I148" s="5"/>
       <c r="J148" s="6"/>
@@ -5708,7 +5708,7 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>8</v>
@@ -5723,13 +5723,13 @@
         <v>11</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G149" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H149" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="I149" s="7"/>
       <c r="J149" s="8"/>
@@ -5739,7 +5739,7 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>8</v>
@@ -5754,13 +5754,13 @@
         <v>11</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G150" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I150" s="2">
         <v>33.663899999999998</v>
@@ -5772,7 +5772,7 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>8</v>
@@ -5787,13 +5787,13 @@
         <v>11</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G151" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I151" s="3">
         <v>6.41424612564398E-4</v>
@@ -5805,7 +5805,7 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>8</v>
@@ -5820,13 +5820,13 @@
         <v>11</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G152" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H152" s="4" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I152" s="5"/>
       <c r="J152" s="6"/>
@@ -5836,7 +5836,7 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>8</v>
@@ -5851,13 +5851,13 @@
         <v>11</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G153" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H153" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="I153" s="7"/>
       <c r="J153" s="8"/>
@@ -5867,7 +5867,7 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>8</v>
@@ -5882,13 +5882,13 @@
         <v>11</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I154" s="2">
         <v>6263.6178600000003</v>
@@ -5902,7 +5902,7 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>8</v>
@@ -5917,13 +5917,13 @@
         <v>11</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I155" s="3">
         <v>0.11934560936498601</v>
@@ -5937,7 +5937,7 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>8</v>
@@ -5952,13 +5952,13 @@
         <v>11</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H156" s="4" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I156" s="5"/>
       <c r="J156" s="6">
@@ -5970,7 +5970,7 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>8</v>
@@ -5985,13 +5985,13 @@
         <v>11</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H157" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="I157" s="7"/>
       <c r="J157" s="8">
@@ -6003,7 +6003,7 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>8</v>
@@ -6018,13 +6018,13 @@
         <v>11</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I158" s="2">
         <v>149.78620000000001</v>
@@ -6036,7 +6036,7 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>8</v>
@@ -6051,13 +6051,13 @@
         <v>11</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I159" s="3">
         <v>2.8539936044989899E-3</v>
@@ -6069,7 +6069,7 @@
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>8</v>
@@ -6084,13 +6084,13 @@
         <v>11</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H160" s="4" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I160" s="5"/>
       <c r="J160" s="6"/>
@@ -6100,7 +6100,7 @@
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>8</v>
@@ -6115,13 +6115,13 @@
         <v>11</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H161" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="I161" s="7"/>
       <c r="J161" s="8"/>
@@ -6131,7 +6131,7 @@
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>8</v>
@@ -6146,13 +6146,13 @@
         <v>11</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I162" s="2">
         <v>115.44604</v>
@@ -6166,7 +6166,7 @@
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>8</v>
@@ -6181,13 +6181,13 @@
         <v>11</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I163" s="3">
         <v>2.1996836813053099E-3</v>
@@ -6201,7 +6201,7 @@
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>8</v>
@@ -6216,13 +6216,13 @@
         <v>11</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H164" s="4" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I164" s="5"/>
       <c r="J164" s="6">
@@ -6234,7 +6234,7 @@
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>8</v>
@@ -6249,13 +6249,13 @@
         <v>11</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H165" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="I165" s="7"/>
       <c r="J165" s="8">
@@ -6267,7 +6267,7 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>8</v>
@@ -6282,13 +6282,13 @@
         <v>11</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I166" s="2">
         <v>7157.4813000000004</v>
@@ -6302,7 +6302,7 @@
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>8</v>
@@ -6317,13 +6317,13 @@
         <v>11</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H167" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I167" s="3">
         <v>0.215498620595973</v>
@@ -6337,7 +6337,7 @@
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>8</v>
@@ -6352,13 +6352,13 @@
         <v>11</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H168" s="4" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I168" s="5"/>
       <c r="J168" s="6">
@@ -6370,7 +6370,7 @@
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>8</v>
@@ -6385,13 +6385,13 @@
         <v>11</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H169" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="I169" s="7"/>
       <c r="J169" s="8">
@@ -6403,7 +6403,7 @@
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>8</v>
@@ -6418,13 +6418,13 @@
         <v>11</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I170" s="2">
         <v>1683.98972</v>
@@ -6438,7 +6438,7 @@
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>8</v>
@@ -6453,13 +6453,13 @@
         <v>11</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H171" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I171" s="3">
         <v>3.2086373049867299E-2</v>
@@ -6473,7 +6473,7 @@
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>8</v>
@@ -6488,13 +6488,13 @@
         <v>11</v>
       </c>
       <c r="F172" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H172" s="4" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I172" s="5"/>
       <c r="J172" s="6">
@@ -6506,7 +6506,7 @@
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B173" s="4" t="s">
         <v>8</v>
@@ -6521,13 +6521,13 @@
         <v>11</v>
       </c>
       <c r="F173" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H173" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="I173" s="7"/>
       <c r="J173" s="8">
@@ -6539,7 +6539,7 @@
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>8</v>
@@ -6554,13 +6554,13 @@
         <v>11</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H174" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I174" s="2">
         <v>1052.3454999999999</v>
@@ -6572,7 +6572,7 @@
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>8</v>
@@ -6587,13 +6587,13 @@
         <v>11</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H175" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I175" s="3">
         <v>2.0051161767394399E-2</v>
@@ -6605,7 +6605,7 @@
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>8</v>
@@ -6620,13 +6620,13 @@
         <v>11</v>
       </c>
       <c r="F176" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G176" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H176" s="4" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I176" s="5"/>
       <c r="J176" s="6"/>
@@ -6636,7 +6636,7 @@
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>8</v>
@@ -6651,13 +6651,13 @@
         <v>11</v>
       </c>
       <c r="F177" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G177" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H177" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="I177" s="7"/>
       <c r="J177" s="8"/>
@@ -6667,7 +6667,7 @@
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>8</v>
@@ -6682,13 +6682,13 @@
         <v>11</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H178" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I178" s="2">
         <v>579.93690000000004</v>
@@ -6700,7 +6700,7 @@
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>8</v>
@@ -6715,13 +6715,13 @@
         <v>11</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H179" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I179" s="3">
         <v>1.74608352777261E-2</v>
@@ -6733,7 +6733,7 @@
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>8</v>
@@ -6748,13 +6748,13 @@
         <v>11</v>
       </c>
       <c r="F180" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H180" s="4" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I180" s="5"/>
       <c r="J180" s="6">
@@ -6764,7 +6764,7 @@
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>8</v>
@@ -6779,13 +6779,13 @@
         <v>11</v>
       </c>
       <c r="F181" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H181" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="I181" s="7"/>
       <c r="J181" s="8">
@@ -6795,7 +6795,7 @@
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>8</v>
@@ -6810,13 +6810,13 @@
         <v>11</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H182" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I182" s="2">
         <v>170.63630000000001</v>
@@ -6830,7 +6830,7 @@
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>8</v>
@@ -6845,13 +6845,13 @@
         <v>11</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H183" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I183" s="3">
         <v>3.25126686500739E-3</v>
@@ -6865,7 +6865,7 @@
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B184" s="4" t="s">
         <v>8</v>
@@ -6880,13 +6880,13 @@
         <v>11</v>
       </c>
       <c r="F184" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H184" s="4" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I184" s="5"/>
       <c r="J184" s="6">
@@ -6898,7 +6898,7 @@
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B185" s="4" t="s">
         <v>8</v>
@@ -6913,13 +6913,13 @@
         <v>11</v>
       </c>
       <c r="F185" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H185" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="I185" s="7"/>
       <c r="J185" s="8">
@@ -6931,7 +6931,7 @@
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>8</v>
@@ -6946,13 +6946,13 @@
         <v>11</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H186" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I186" s="2">
         <v>3459.1066999999998</v>
@@ -6966,7 +6966,7 @@
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>8</v>
@@ -6981,13 +6981,13 @@
         <v>11</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H187" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I187" s="3">
         <v>6.5909065047912205E-2</v>
@@ -7001,7 +7001,7 @@
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>8</v>
@@ -7016,13 +7016,13 @@
         <v>11</v>
       </c>
       <c r="F188" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G188" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H188" s="4" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I188" s="5"/>
       <c r="J188" s="6">
@@ -7034,7 +7034,7 @@
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B189" s="4" t="s">
         <v>8</v>
@@ -7049,13 +7049,13 @@
         <v>11</v>
       </c>
       <c r="F189" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G189" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H189" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="I189" s="7"/>
       <c r="J189" s="8">
@@ -7067,7 +7067,7 @@
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>8</v>
@@ -7082,13 +7082,13 @@
         <v>11</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H190" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I190" s="2">
         <v>1508.4313</v>
@@ -7102,7 +7102,7 @@
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>8</v>
@@ -7117,13 +7117,13 @@
         <v>11</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H191" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I191" s="3">
         <v>2.87413211833005E-2</v>
@@ -7137,7 +7137,7 @@
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B192" s="4" t="s">
         <v>8</v>
@@ -7152,13 +7152,13 @@
         <v>11</v>
       </c>
       <c r="F192" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G192" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H192" s="4" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I192" s="5"/>
       <c r="J192" s="6">
@@ -7170,7 +7170,7 @@
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B193" s="4" t="s">
         <v>8</v>
@@ -7185,13 +7185,13 @@
         <v>11</v>
       </c>
       <c r="F193" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G193" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H193" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="I193" s="7"/>
       <c r="J193" s="8">
@@ -7203,7 +7203,7 @@
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>8</v>
@@ -7218,13 +7218,13 @@
         <v>11</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H194" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I194" s="2">
         <v>1233.0180499999999</v>
@@ -7238,7 +7238,7 @@
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>8</v>
@@ -7253,13 +7253,13 @@
         <v>11</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H195" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I195" s="3">
         <v>2.3493657152206301E-2</v>
@@ -7273,7 +7273,7 @@
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B196" s="4" t="s">
         <v>8</v>
@@ -7288,13 +7288,13 @@
         <v>11</v>
       </c>
       <c r="F196" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G196" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H196" s="4" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I196" s="5"/>
       <c r="J196" s="6">
@@ -7306,7 +7306,7 @@
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B197" s="4" t="s">
         <v>8</v>
@@ -7321,13 +7321,13 @@
         <v>11</v>
       </c>
       <c r="F197" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G197" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H197" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="I197" s="7"/>
       <c r="J197" s="8">
@@ -7339,7 +7339,7 @@
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>8</v>
@@ -7354,13 +7354,13 @@
         <v>11</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H198" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I198" s="2">
         <v>559.68759999999997</v>
@@ -7374,7 +7374,7 @@
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>8</v>
@@ -7389,13 +7389,13 @@
         <v>11</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H199" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I199" s="3">
         <v>1.6851166033038899E-2</v>
@@ -7409,7 +7409,7 @@
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A200" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B200" s="4" t="s">
         <v>8</v>
@@ -7424,13 +7424,13 @@
         <v>11</v>
       </c>
       <c r="F200" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G200" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H200" s="4" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I200" s="5"/>
       <c r="J200" s="6">
@@ -7442,7 +7442,7 @@
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B201" s="4" t="s">
         <v>8</v>
@@ -7457,13 +7457,13 @@
         <v>11</v>
       </c>
       <c r="F201" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G201" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H201" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="I201" s="7"/>
       <c r="J201" s="8">
@@ -7475,7 +7475,7 @@
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>8</v>
@@ -7490,13 +7490,13 @@
         <v>11</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H202" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I202" s="2">
         <v>523.55020000000002</v>
@@ -7508,7 +7508,7 @@
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>8</v>
@@ -7523,13 +7523,13 @@
         <v>11</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H203" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I203" s="3">
         <v>1.5763135268372402E-2</v>
@@ -7541,7 +7541,7 @@
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B204" s="4" t="s">
         <v>8</v>
@@ -7556,13 +7556,13 @@
         <v>11</v>
       </c>
       <c r="F204" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G204" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H204" s="4" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I204" s="5"/>
       <c r="J204" s="6">
@@ -7572,7 +7572,7 @@
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A205" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B205" s="4" t="s">
         <v>8</v>
@@ -7587,13 +7587,13 @@
         <v>11</v>
       </c>
       <c r="F205" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G205" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H205" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="I205" s="7"/>
       <c r="J205" s="8">
@@ -7603,7 +7603,7 @@
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>8</v>
@@ -7618,13 +7618,13 @@
         <v>11</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H206" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I206" s="2">
         <v>574.6345</v>
@@ -7638,7 +7638,7 @@
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>8</v>
@@ -7653,13 +7653,13 @@
         <v>11</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H207" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I207" s="3">
         <v>1.09489605045356E-2</v>
@@ -7673,7 +7673,7 @@
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A208" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B208" s="4" t="s">
         <v>8</v>
@@ -7688,13 +7688,13 @@
         <v>11</v>
       </c>
       <c r="F208" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G208" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H208" s="4" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I208" s="5"/>
       <c r="J208" s="6">
@@ -7706,7 +7706,7 @@
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A209" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B209" s="4" t="s">
         <v>8</v>
@@ -7721,13 +7721,13 @@
         <v>11</v>
       </c>
       <c r="F209" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G209" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H209" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="I209" s="7"/>
       <c r="J209" s="8">
@@ -7739,7 +7739,7 @@
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>8</v>
@@ -7754,13 +7754,13 @@
         <v>11</v>
       </c>
       <c r="F210" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G210" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G210" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="H210" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I210" s="2">
         <v>477.73973000000001</v>
@@ -7774,7 +7774,7 @@
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>8</v>
@@ -7789,13 +7789,13 @@
         <v>11</v>
       </c>
       <c r="F211" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G211" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G211" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="H211" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I211" s="3">
         <v>9.1027486780162099E-3</v>
@@ -7809,7 +7809,7 @@
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A212" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B212" s="4" t="s">
         <v>8</v>
@@ -7824,13 +7824,13 @@
         <v>11</v>
       </c>
       <c r="F212" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G212" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G212" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="H212" s="4" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I212" s="5"/>
       <c r="J212" s="6">
@@ -7842,7 +7842,7 @@
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A213" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B213" s="4" t="s">
         <v>8</v>
@@ -7857,13 +7857,13 @@
         <v>11</v>
       </c>
       <c r="F213" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G213" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G213" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="H213" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="I213" s="7"/>
       <c r="J213" s="8">
@@ -7875,7 +7875,7 @@
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>8</v>
@@ -7890,13 +7890,13 @@
         <v>11</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H214" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I214" s="2">
         <v>119.7526</v>
@@ -7910,7 +7910,7 @@
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>8</v>
@@ -7925,13 +7925,13 @@
         <v>11</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H215" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I215" s="3">
         <v>3.6055309166901101E-3</v>
@@ -7945,7 +7945,7 @@
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A216" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B216" s="4" t="s">
         <v>8</v>
@@ -7960,13 +7960,13 @@
         <v>11</v>
       </c>
       <c r="F216" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G216" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H216" s="4" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I216" s="5"/>
       <c r="J216" s="6">
@@ -7978,7 +7978,7 @@
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A217" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B217" s="4" t="s">
         <v>8</v>
@@ -7993,13 +7993,13 @@
         <v>11</v>
       </c>
       <c r="F217" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G217" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H217" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="I217" s="7"/>
       <c r="J217" s="8">
@@ -8011,7 +8011,7 @@
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>8</v>
@@ -8026,13 +8026,13 @@
         <v>11</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H218" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I218" s="2">
         <v>76.729799999999997</v>
@@ -8044,7 +8044,7 @@
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>8</v>
@@ -8059,13 +8059,13 @@
         <v>11</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H219" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I219" s="3">
         <v>2.3101933998213699E-3</v>
@@ -8077,7 +8077,7 @@
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A220" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B220" s="4" t="s">
         <v>8</v>
@@ -8092,13 +8092,13 @@
         <v>11</v>
       </c>
       <c r="F220" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G220" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H220" s="4" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I220" s="5"/>
       <c r="J220" s="6">
@@ -8108,7 +8108,7 @@
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A221" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B221" s="4" t="s">
         <v>8</v>
@@ -8123,13 +8123,13 @@
         <v>11</v>
       </c>
       <c r="F221" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G221" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H221" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="I221" s="7"/>
       <c r="J221" s="8">
@@ -8139,7 +8139,7 @@
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>8</v>
@@ -8154,13 +8154,13 @@
         <v>11</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H222" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I222" s="2">
         <v>10.989000000000001</v>
@@ -8172,7 +8172,7 @@
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>8</v>
@@ -8187,13 +8187,13 @@
         <v>11</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H223" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I223" s="3">
         <v>2.09382010624739E-4</v>
@@ -8205,7 +8205,7 @@
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A224" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B224" s="4" t="s">
         <v>8</v>
@@ -8220,13 +8220,13 @@
         <v>11</v>
       </c>
       <c r="F224" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G224" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H224" s="4" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I224" s="5"/>
       <c r="J224" s="6"/>
@@ -8236,7 +8236,7 @@
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A225" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B225" s="4" t="s">
         <v>8</v>
@@ -8251,13 +8251,13 @@
         <v>11</v>
       </c>
       <c r="F225" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G225" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H225" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="I225" s="7"/>
       <c r="J225" s="8"/>
@@ -8267,7 +8267,7 @@
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>8</v>
@@ -8282,13 +8282,13 @@
         <v>11</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H226" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I226" s="2">
         <v>3.0750000000000002</v>
@@ -8300,7 +8300,7 @@
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>8</v>
@@ -8315,13 +8315,13 @@
         <v>11</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H227" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I227" s="3">
         <v>5.8590379713447398E-5</v>
@@ -8333,7 +8333,7 @@
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A228" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B228" s="4" t="s">
         <v>8</v>
@@ -8348,13 +8348,13 @@
         <v>11</v>
       </c>
       <c r="F228" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G228" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H228" s="4" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I228" s="5"/>
       <c r="J228" s="6"/>
@@ -8364,7 +8364,7 @@
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A229" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B229" s="4" t="s">
         <v>8</v>
@@ -8379,13 +8379,13 @@
         <v>11</v>
       </c>
       <c r="F229" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G229" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H229" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="I229" s="7"/>
       <c r="J229" s="8"/>
@@ -8395,7 +8395,7 @@
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>8</v>
@@ -8410,13 +8410,13 @@
         <v>11</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H230" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I230" s="2">
         <v>2787.4749000000002</v>
@@ -8430,7 +8430,7 @@
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>8</v>
@@ -8445,13 +8445,13 @@
         <v>11</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H231" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I231" s="3">
         <v>5.8248812114756798E-2</v>
@@ -8465,7 +8465,7 @@
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A232" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B232" s="4" t="s">
         <v>8</v>
@@ -8480,13 +8480,13 @@
         <v>11</v>
       </c>
       <c r="F232" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G232" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H232" s="4" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I232" s="5"/>
       <c r="J232" s="6">
@@ -8498,7 +8498,7 @@
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A233" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B233" s="4" t="s">
         <v>8</v>
@@ -8513,13 +8513,13 @@
         <v>11</v>
       </c>
       <c r="F233" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G233" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H233" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="I233" s="7"/>
       <c r="J233" s="8">
@@ -8531,7 +8531,7 @@
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>8</v>
@@ -8546,13 +8546,13 @@
         <v>11</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H234" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I234" s="2">
         <v>658.40260000000001</v>
@@ -8566,7 +8566,7 @@
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>8</v>
@@ -8581,13 +8581,13 @@
         <v>11</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H235" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I235" s="3">
         <v>1.25450596222182E-2</v>
@@ -8601,7 +8601,7 @@
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A236" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B236" s="4" t="s">
         <v>8</v>
@@ -8616,13 +8616,13 @@
         <v>11</v>
       </c>
       <c r="F236" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G236" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H236" s="4" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I236" s="5"/>
       <c r="J236" s="6">
@@ -8634,7 +8634,7 @@
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A237" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B237" s="4" t="s">
         <v>8</v>
@@ -8649,13 +8649,13 @@
         <v>11</v>
       </c>
       <c r="F237" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G237" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H237" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="I237" s="7"/>
       <c r="J237" s="8">
@@ -8667,7 +8667,7 @@
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>8</v>
@@ -8682,13 +8682,13 @@
         <v>11</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G238" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H238" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I238" s="2">
         <v>145.2114</v>
@@ -8700,7 +8700,7 @@
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>8</v>
@@ -8715,13 +8715,13 @@
         <v>11</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H239" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I239" s="3">
         <v>2.76682636251099E-3</v>
@@ -8733,7 +8733,7 @@
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A240" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B240" s="4" t="s">
         <v>8</v>
@@ -8748,13 +8748,13 @@
         <v>11</v>
       </c>
       <c r="F240" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G240" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H240" s="4" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I240" s="5"/>
       <c r="J240" s="6"/>
@@ -8764,7 +8764,7 @@
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A241" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B241" s="4" t="s">
         <v>8</v>
@@ -8779,13 +8779,13 @@
         <v>11</v>
       </c>
       <c r="F241" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G241" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H241" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="I241" s="7"/>
       <c r="J241" s="8"/>
@@ -8795,7 +8795,7 @@
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>8</v>
@@ -8810,13 +8810,13 @@
         <v>11</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H242" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I242" s="2">
         <v>46.914400000000001</v>
@@ -8828,7 +8828,7 @@
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>8</v>
@@ -8843,13 +8843,13 @@
         <v>11</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H243" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I243" s="3">
         <v>8.9389675122879904E-4</v>
@@ -8861,7 +8861,7 @@
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A244" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B244" s="4" t="s">
         <v>8</v>
@@ -8876,13 +8876,13 @@
         <v>11</v>
       </c>
       <c r="F244" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G244" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H244" s="4" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I244" s="5"/>
       <c r="J244" s="6"/>
@@ -8892,7 +8892,7 @@
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A245" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B245" s="4" t="s">
         <v>8</v>
@@ -8907,13 +8907,13 @@
         <v>11</v>
       </c>
       <c r="F245" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G245" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H245" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="I245" s="7"/>
       <c r="J245" s="8"/>
@@ -8923,7 +8923,7 @@
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>8</v>
@@ -8938,13 +8938,13 @@
         <v>11</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H246" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I246" s="2">
         <v>44.490400000000001</v>
@@ -8956,7 +8956,7 @@
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>8</v>
@@ -8971,13 +8971,13 @@
         <v>11</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H247" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I247" s="3">
         <v>8.4771038361078398E-4</v>
@@ -8989,7 +8989,7 @@
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A248" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B248" s="4" t="s">
         <v>8</v>
@@ -9004,13 +9004,13 @@
         <v>11</v>
       </c>
       <c r="F248" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G248" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H248" s="4" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I248" s="5"/>
       <c r="J248" s="6"/>
@@ -9020,7 +9020,7 @@
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A249" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B249" s="4" t="s">
         <v>8</v>
@@ -9035,13 +9035,13 @@
         <v>11</v>
       </c>
       <c r="F249" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G249" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H249" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="I249" s="7"/>
       <c r="J249" s="8"/>
@@ -9051,7 +9051,7 @@
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>8</v>
@@ -9066,13 +9066,13 @@
         <v>11</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H250" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I250" s="2">
         <v>3.0990000000000002</v>
@@ -9084,7 +9084,7 @@
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>8</v>
@@ -9099,13 +9099,13 @@
         <v>11</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G251" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H251" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I251" s="3">
         <v>5.9047670481942602E-5</v>
@@ -9117,7 +9117,7 @@
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A252" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B252" s="4" t="s">
         <v>8</v>
@@ -9132,13 +9132,13 @@
         <v>11</v>
       </c>
       <c r="F252" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G252" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H252" s="4" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I252" s="5"/>
       <c r="J252" s="6"/>
@@ -9148,7 +9148,7 @@
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A253" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B253" s="4" t="s">
         <v>8</v>
@@ -9163,13 +9163,13 @@
         <v>11</v>
       </c>
       <c r="F253" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G253" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H253" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="I253" s="7"/>
       <c r="J253" s="8"/>
@@ -9179,7 +9179,7 @@
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B254" s="2" t="s">
         <v>8</v>
@@ -9194,13 +9194,13 @@
         <v>11</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H254" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I254" s="2">
         <v>0.52236000000000005</v>
@@ -9212,7 +9212,7 @@
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>8</v>
@@ -9227,13 +9227,13 @@
         <v>11</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G255" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H255" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I255" s="3">
         <v>9.9529335762980199E-6</v>
@@ -9245,7 +9245,7 @@
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A256" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B256" s="4" t="s">
         <v>8</v>
@@ -9260,13 +9260,13 @@
         <v>11</v>
       </c>
       <c r="F256" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G256" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H256" s="4" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I256" s="5"/>
       <c r="J256" s="6"/>
@@ -9276,7 +9276,7 @@
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A257" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B257" s="4" t="s">
         <v>8</v>
@@ -9291,13 +9291,13 @@
         <v>11</v>
       </c>
       <c r="F257" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G257" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H257" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="I257" s="7"/>
       <c r="J257" s="8"/>
@@ -9307,7 +9307,7 @@
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>8</v>
@@ -9322,13 +9322,13 @@
         <v>11</v>
       </c>
       <c r="F258" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G258" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H258" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I258" s="2">
         <v>3140.1194</v>
@@ -9342,7 +9342,7 @@
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>8</v>
@@ -9357,13 +9357,13 @@
         <v>11</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G259" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H259" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I259" s="3">
         <v>9.4543229782053997E-2</v>
@@ -9377,7 +9377,7 @@
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A260" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B260" s="4" t="s">
         <v>8</v>
@@ -9392,13 +9392,13 @@
         <v>11</v>
       </c>
       <c r="F260" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G260" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H260" s="4" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I260" s="5"/>
       <c r="J260" s="6">
@@ -9410,7 +9410,7 @@
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A261" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B261" s="4" t="s">
         <v>8</v>
@@ -9425,13 +9425,13 @@
         <v>11</v>
       </c>
       <c r="F261" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G261" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H261" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="I261" s="7"/>
       <c r="J261" s="8">
@@ -9443,7 +9443,7 @@
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>8</v>
@@ -9458,13 +9458,13 @@
         <v>11</v>
       </c>
       <c r="F262" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G262" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H262" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I262" s="2">
         <v>2787.4749000000002</v>
@@ -9478,7 +9478,7 @@
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>8</v>
@@ -9493,13 +9493,13 @@
         <v>11</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H263" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I263" s="3">
         <v>5.8248812114756798E-2</v>
@@ -9513,7 +9513,7 @@
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A264" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B264" s="4" t="s">
         <v>8</v>
@@ -9528,13 +9528,13 @@
         <v>11</v>
       </c>
       <c r="F264" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G264" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H264" s="4" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I264" s="5"/>
       <c r="J264" s="6">
@@ -9546,7 +9546,7 @@
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A265" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B265" s="4" t="s">
         <v>8</v>
@@ -9561,13 +9561,13 @@
         <v>11</v>
       </c>
       <c r="F265" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G265" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H265" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="I265" s="7"/>
       <c r="J265" s="8">
@@ -9579,7 +9579,7 @@
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B266" s="2" t="s">
         <v>8</v>
@@ -9594,13 +9594,13 @@
         <v>11</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G266" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H266" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I266" s="2">
         <v>971.52470000000005</v>
@@ -9614,7 +9614,7 @@
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>8</v>
@@ -9629,13 +9629,13 @@
         <v>11</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G267" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H267" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I267" s="3">
         <v>2.3353457600023001E-2</v>
@@ -9649,7 +9649,7 @@
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A268" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B268" s="4" t="s">
         <v>8</v>
@@ -9664,13 +9664,13 @@
         <v>11</v>
       </c>
       <c r="F268" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G268" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H268" s="4" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I268" s="5"/>
       <c r="J268" s="6">
@@ -9682,7 +9682,7 @@
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A269" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B269" s="4" t="s">
         <v>8</v>
@@ -9697,13 +9697,13 @@
         <v>11</v>
       </c>
       <c r="F269" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G269" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H269" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="I269" s="7"/>
       <c r="J269" s="8">
@@ -9715,7 +9715,7 @@
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>8</v>
@@ -9730,13 +9730,13 @@
         <v>11</v>
       </c>
       <c r="F270" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G270" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H270" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I270" s="2">
         <v>551.62660000000005</v>
@@ -9748,7 +9748,7 @@
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B271" s="2" t="s">
         <v>8</v>
@@ -9763,13 +9763,13 @@
         <v>11</v>
       </c>
       <c r="F271" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G271" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H271" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I271" s="3">
         <v>1.0510572993183099E-2</v>
@@ -9781,7 +9781,7 @@
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A272" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B272" s="4" t="s">
         <v>8</v>
@@ -9796,13 +9796,13 @@
         <v>11</v>
       </c>
       <c r="F272" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G272" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H272" s="4" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I272" s="5"/>
       <c r="J272" s="6"/>
@@ -9812,7 +9812,7 @@
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A273" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B273" s="4" t="s">
         <v>8</v>
@@ -9827,13 +9827,13 @@
         <v>11</v>
       </c>
       <c r="F273" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G273" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H273" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="I273" s="7"/>
       <c r="J273" s="8"/>
@@ -9843,7 +9843,7 @@
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>8</v>
@@ -9858,13 +9858,13 @@
         <v>11</v>
       </c>
       <c r="F274" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G274" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H274" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I274" s="2">
         <v>145.2114</v>
@@ -9876,7 +9876,7 @@
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>8</v>
@@ -9891,13 +9891,13 @@
         <v>11</v>
       </c>
       <c r="F275" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G275" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H275" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I275" s="3">
         <v>2.76682636251099E-3</v>
@@ -9909,7 +9909,7 @@
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A276" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B276" s="4" t="s">
         <v>8</v>
@@ -9924,13 +9924,13 @@
         <v>11</v>
       </c>
       <c r="F276" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G276" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H276" s="4" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I276" s="5"/>
       <c r="J276" s="6"/>
@@ -9940,7 +9940,7 @@
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A277" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B277" s="4" t="s">
         <v>8</v>
@@ -9955,13 +9955,13 @@
         <v>11</v>
       </c>
       <c r="F277" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G277" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H277" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="I277" s="7"/>
       <c r="J277" s="8"/>
@@ -9971,7 +9971,7 @@
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B278" s="2" t="s">
         <v>8</v>
@@ -9986,13 +9986,13 @@
         <v>11</v>
       </c>
       <c r="F278" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G278" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G278" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="H278" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I278" s="2">
         <v>13.986000000000001</v>
@@ -10004,7 +10004,7 @@
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B279" s="2" t="s">
         <v>8</v>
@@ -10019,13 +10019,13 @@
         <v>11</v>
       </c>
       <c r="F279" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G279" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G279" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="H279" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I279" s="3">
         <v>2.6648619534057799E-4</v>
@@ -10037,7 +10037,7 @@
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A280" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B280" s="4" t="s">
         <v>8</v>
@@ -10052,13 +10052,13 @@
         <v>11</v>
       </c>
       <c r="F280" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G280" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G280" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="H280" s="4" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I280" s="5"/>
       <c r="J280" s="6"/>
@@ -10068,7 +10068,7 @@
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A281" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B281" s="4" t="s">
         <v>8</v>
@@ -10083,13 +10083,13 @@
         <v>11</v>
       </c>
       <c r="F281" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G281" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G281" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="H281" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="I281" s="7"/>
       <c r="J281" s="8"/>
@@ -10099,7 +10099,7 @@
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B282" s="2" t="s">
         <v>8</v>
@@ -10114,13 +10114,13 @@
         <v>11</v>
       </c>
       <c r="F282" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G282" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H282" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I282" s="2">
         <v>214.2448</v>
@@ -10134,7 +10134,7 @@
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B283" s="2" t="s">
         <v>8</v>
@@ -10149,13 +10149,13 @@
         <v>11</v>
       </c>
       <c r="F283" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G283" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H283" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I283" s="3">
         <v>5.4014215239464496E-3</v>
@@ -10169,7 +10169,7 @@
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A284" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B284" s="4" t="s">
         <v>8</v>
@@ -10184,13 +10184,13 @@
         <v>11</v>
       </c>
       <c r="F284" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G284" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H284" s="4" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I284" s="5"/>
       <c r="J284" s="6">
@@ -10202,7 +10202,7 @@
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A285" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B285" s="4" t="s">
         <v>8</v>
@@ -10217,13 +10217,13 @@
         <v>11</v>
       </c>
       <c r="F285" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G285" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H285" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="I285" s="7"/>
       <c r="J285" s="8">
@@ -10235,7 +10235,7 @@
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A286" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B286" s="2" t="s">
         <v>8</v>
@@ -10250,13 +10250,13 @@
         <v>11</v>
       </c>
       <c r="F286" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G286" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H286" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I286" s="2">
         <v>747.95450000000005</v>
@@ -10268,7 +10268,7 @@
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B287" s="2" t="s">
         <v>8</v>
@@ -10283,13 +10283,13 @@
         <v>11</v>
       </c>
       <c r="F287" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G287" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H287" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I287" s="3">
         <v>2.19046173823912E-2</v>
@@ -10301,7 +10301,7 @@
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A288" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B288" s="4" t="s">
         <v>8</v>
@@ -10316,13 +10316,13 @@
         <v>11</v>
       </c>
       <c r="F288" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G288" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H288" s="4" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I288" s="5"/>
       <c r="J288" s="6">
@@ -10332,7 +10332,7 @@
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A289" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B289" s="4" t="s">
         <v>8</v>
@@ -10347,13 +10347,13 @@
         <v>11</v>
       </c>
       <c r="F289" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G289" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H289" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="I289" s="7"/>
       <c r="J289" s="8">
@@ -10363,7 +10363,7 @@
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A290" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B290" s="2" t="s">
         <v>8</v>
@@ -10378,13 +10378,13 @@
         <v>11</v>
       </c>
       <c r="F290" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G290" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G290" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="H290" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I290" s="2">
         <v>79.249099999999999</v>
@@ -10396,7 +10396,7 @@
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A291" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B291" s="2" t="s">
         <v>8</v>
@@ -10411,13 +10411,13 @@
         <v>11</v>
       </c>
       <c r="F291" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G291" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G291" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="H291" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I291" s="3">
         <v>1.3631066450746699E-3</v>
@@ -10429,7 +10429,7 @@
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A292" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B292" s="4" t="s">
         <v>8</v>
@@ -10444,13 +10444,13 @@
         <v>11</v>
       </c>
       <c r="F292" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G292" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G292" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="H292" s="4" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I292" s="5"/>
       <c r="J292" s="6"/>
@@ -10460,7 +10460,7 @@
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A293" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B293" s="4" t="s">
         <v>8</v>
@@ -10475,13 +10475,13 @@
         <v>11</v>
       </c>
       <c r="F293" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G293" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G293" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="H293" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="I293" s="7"/>
       <c r="J293" s="8"/>
@@ -10491,7 +10491,7 @@
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A294" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>8</v>
@@ -10506,13 +10506,13 @@
         <v>11</v>
       </c>
       <c r="F294" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G294" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H294" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I294" s="2">
         <v>5284.6855999999998</v>
@@ -10524,7 +10524,7 @@
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B295" s="2" t="s">
         <v>8</v>
@@ -10539,13 +10539,13 @@
         <v>11</v>
       </c>
       <c r="F295" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G295" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H295" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I295" s="3">
         <v>9.08980677192604E-2</v>
@@ -10557,7 +10557,7 @@
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A296" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B296" s="4" t="s">
         <v>8</v>
@@ -10572,13 +10572,13 @@
         <v>11</v>
       </c>
       <c r="F296" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G296" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H296" s="4" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I296" s="5"/>
       <c r="J296" s="6"/>
@@ -10588,7 +10588,7 @@
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A297" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B297" s="4" t="s">
         <v>8</v>
@@ -10603,13 +10603,13 @@
         <v>11</v>
       </c>
       <c r="F297" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G297" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H297" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="I297" s="7"/>
       <c r="J297" s="8"/>
@@ -10619,7 +10619,7 @@
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A298" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B298" s="2" t="s">
         <v>8</v>
@@ -10634,13 +10634,13 @@
         <v>11</v>
       </c>
       <c r="F298" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G298" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H298" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I298" s="2">
         <v>6.6877000000000004</v>
@@ -10652,7 +10652,7 @@
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A299" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B299" s="2" t="s">
         <v>8</v>
@@ -10667,13 +10667,13 @@
         <v>11</v>
       </c>
       <c r="F299" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G299" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H299" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I299" s="3">
         <v>1.15030307098325E-4</v>
@@ -10685,7 +10685,7 @@
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A300" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B300" s="4" t="s">
         <v>8</v>
@@ -10700,13 +10700,13 @@
         <v>11</v>
       </c>
       <c r="F300" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G300" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H300" s="4" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I300" s="5"/>
       <c r="J300" s="6"/>
@@ -10716,7 +10716,7 @@
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A301" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B301" s="4" t="s">
         <v>8</v>
@@ -10731,13 +10731,13 @@
         <v>11</v>
       </c>
       <c r="F301" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G301" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H301" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="I301" s="7"/>
       <c r="J301" s="8"/>
@@ -10747,7 +10747,7 @@
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A302" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B302" s="2" t="s">
         <v>8</v>
@@ -10762,13 +10762,13 @@
         <v>11</v>
       </c>
       <c r="F302" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G302" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H302" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="H302" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="I302" s="2">
         <v>70.034999999999997</v>
@@ -10780,7 +10780,7 @@
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A303" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B303" s="2" t="s">
         <v>8</v>
@@ -10795,13 +10795,13 @@
         <v>11</v>
       </c>
       <c r="F303" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G303" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H303" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I303" s="3">
         <v>1.2046215526460801E-3</v>
@@ -10813,7 +10813,7 @@
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A304" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B304" s="4" t="s">
         <v>8</v>
@@ -10828,13 +10828,13 @@
         <v>11</v>
       </c>
       <c r="F304" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G304" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H304" s="4" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="I304" s="5"/>
       <c r="J304" s="6"/>
@@ -10844,7 +10844,7 @@
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A305" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B305" s="4" t="s">
         <v>8</v>
@@ -10859,13 +10859,13 @@
         <v>11</v>
       </c>
       <c r="F305" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G305" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H305" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="I305" s="7"/>
       <c r="J305" s="8"/>
